--- a/database/industries/bargh/bemoto/product/monthly.xlsx
+++ b/database/industries/bargh/bemoto/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\bargh\bemoto\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\bargh\bemoto\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2126066E-1BDF-42D2-9222-92716574DA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -258,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,7 +452,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -463,7 +464,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -510,6 +511,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -545,6 +563,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -696,17 +731,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -761,7 +796,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -818,7 +853,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -875,7 +910,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -930,7 +965,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -987,7 +1022,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1044,7 +1079,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1099,7 +1134,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1256,7 +1291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1311,7 +1346,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1368,7 +1403,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1527,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1686,7 +1721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1845,7 +1880,7 @@
         <v>56360</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -2004,7 +2039,7 @@
         <v>10837</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2163,7 +2198,7 @@
         <v>79920</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2322,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>63</v>
       </c>
@@ -2379,7 +2414,7 @@
       <c r="BA17" s="15"/>
       <c r="BB17" s="15"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>64</v>
       </c>
@@ -2536,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
         <v>65</v>
       </c>
@@ -2693,7 +2728,7 @@
         <v>147117</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2748,7 +2783,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2803,7 +2838,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2858,7 +2893,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>66</v>
       </c>
@@ -3015,7 +3050,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3070,7 +3105,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>66</v>
       </c>
@@ -3127,7 +3162,7 @@
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>55</v>
       </c>
@@ -3286,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>57</v>
       </c>
@@ -3445,7 +3480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>59</v>
       </c>
@@ -3604,7 +3639,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>60</v>
       </c>
@@ -3763,7 +3798,7 @@
         <v>16563</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>61</v>
       </c>
@@ -3922,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>62</v>
       </c>
@@ -4081,7 +4116,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>63</v>
       </c>
@@ -4138,7 +4173,7 @@
       <c r="BA32" s="15"/>
       <c r="BB32" s="15"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>64</v>
       </c>
@@ -4295,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>67</v>
       </c>
@@ -4352,7 +4387,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
@@ -4511,7 +4546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>59</v>
       </c>
@@ -4670,7 +4705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>60</v>
       </c>
@@ -4829,7 +4864,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>61</v>
       </c>
@@ -4988,7 +5023,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>62</v>
       </c>
@@ -5147,7 +5182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
         <v>68</v>
       </c>
@@ -5304,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>65</v>
       </c>
@@ -5461,7 +5496,7 @@
         <v>31437</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5516,7 +5551,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5571,7 +5606,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5626,7 +5661,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>69</v>
       </c>
@@ -5783,7 +5818,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5838,7 +5873,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>69</v>
       </c>
@@ -5895,7 +5930,7 @@
       <c r="BA47" s="9"/>
       <c r="BB47" s="9"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>55</v>
       </c>
@@ -6054,7 +6089,7 @@
         <v>27550</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>57</v>
       </c>
@@ -6213,7 +6248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>59</v>
       </c>
@@ -6372,7 +6407,7 @@
         <v>220719</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>60</v>
       </c>
@@ -6531,7 +6566,7 @@
         <v>780408</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>61</v>
       </c>
@@ -6690,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>62</v>
       </c>
@@ -6849,7 +6884,7 @@
         <v>10636</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>71</v>
       </c>
@@ -6906,7 +6941,7 @@
       <c r="BA54" s="15"/>
       <c r="BB54" s="15"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>64</v>
       </c>
@@ -7065,7 +7100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>72</v>
       </c>
@@ -7122,7 +7157,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>55</v>
       </c>
@@ -7281,7 +7316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>59</v>
       </c>
@@ -7440,7 +7475,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>60</v>
       </c>
@@ -7599,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>61</v>
       </c>
@@ -7758,7 +7793,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>62</v>
       </c>
@@ -7917,7 +7952,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="18" t="s">
         <v>68</v>
       </c>
@@ -8076,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>73</v>
       </c>
@@ -8133,7 +8168,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>74</v>
       </c>
@@ -8292,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="18" t="s">
         <v>65</v>
       </c>
@@ -8449,7 +8484,7 @@
         <v>1039313</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8504,7 +8539,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -8559,7 +8594,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -8614,7 +8649,7 @@
       <c r="BA68" s="1"/>
       <c r="BB68" s="1"/>
     </row>
-    <row r="69" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>75</v>
       </c>
@@ -8771,7 +8806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -8826,7 +8861,7 @@
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>76</v>
       </c>
@@ -8883,7 +8918,7 @@
       <c r="BA71" s="9"/>
       <c r="BB71" s="9"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>55</v>
       </c>
@@ -9042,7 +9077,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>57</v>
       </c>
@@ -9201,7 +9236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>59</v>
       </c>
@@ -9360,7 +9395,7 @@
         <v>14913446</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>60</v>
       </c>
@@ -9519,7 +9554,7 @@
         <v>47117551</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>61</v>
       </c>
@@ -9678,7 +9713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>62</v>
       </c>

--- a/database/industries/bargh/bemoto/product/monthly.xlsx
+++ b/database/industries/bargh/bemoto/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\bargh\bemoto\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2126066E-1BDF-42D2-9222-92716574DA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B7977A-3689-4C0C-9355-6584C7377B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="78">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1397/07</t>
@@ -187,16 +184,13 @@
     <t>ماه 1 منتهی به 1401/07</t>
   </si>
   <si>
+    <t>ماه 2 منتهی به 1401/08</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
     <t>دستگاه</t>
-  </si>
-  <si>
-    <t>دینام و استارت</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>الکتروموتور کولری</t>
@@ -206,6 +200,15 @@
   </si>
   <si>
     <t>الکتروموتور پمپ آب</t>
+  </si>
+  <si>
+    <t>سود سرمایه گذاری ها</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>الکتروموتور ضد انفجار</t>
@@ -230,9 +233,6 @@
   </si>
   <si>
     <t>مبلغ فروش</t>
-  </si>
-  <si>
-    <t>میلیون ریال</t>
   </si>
   <si>
     <t>مبلغ درآمد ارایه خدمات</t>
@@ -732,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BB77"/>
+  <dimension ref="B1:BB76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1571,795 +1571,795 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB12" s="13" t="s">
-        <v>58</v>
+        <v>93644</v>
+      </c>
+      <c r="F12" s="13">
+        <v>78920</v>
+      </c>
+      <c r="G12" s="13">
+        <v>82492</v>
+      </c>
+      <c r="H12" s="13">
+        <v>78422</v>
+      </c>
+      <c r="I12" s="13">
+        <v>78812</v>
+      </c>
+      <c r="J12" s="13">
+        <v>107940</v>
+      </c>
+      <c r="K12" s="13">
+        <v>72386</v>
+      </c>
+      <c r="L12" s="13">
+        <v>103983</v>
+      </c>
+      <c r="M12" s="13">
+        <v>85178</v>
+      </c>
+      <c r="N12" s="13">
+        <v>100140</v>
+      </c>
+      <c r="O12" s="13">
+        <v>65480</v>
+      </c>
+      <c r="P12" s="13">
+        <v>60266</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>53360</v>
+      </c>
+      <c r="R12" s="13">
+        <v>65320</v>
+      </c>
+      <c r="S12" s="13">
+        <v>62380</v>
+      </c>
+      <c r="T12" s="13">
+        <v>88540</v>
+      </c>
+      <c r="U12" s="13">
+        <v>106040</v>
+      </c>
+      <c r="V12" s="13">
+        <v>82660</v>
+      </c>
+      <c r="W12" s="13">
+        <v>39800</v>
+      </c>
+      <c r="X12" s="13">
+        <v>86160</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>82480</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>113120</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>42200</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>94916</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>78380</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>80940</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>87120</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>82600</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>87940</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>94572</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>65480</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>77320</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>69060</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>73960</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>28180</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>62680</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>50380</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>75240</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>78780</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>83840</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>53100</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>58400</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>41840</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>60160</v>
+      </c>
+      <c r="AW12" s="13">
+        <v>87040</v>
+      </c>
+      <c r="AX12" s="13">
+        <v>71460</v>
+      </c>
+      <c r="AY12" s="13">
+        <v>54880</v>
+      </c>
+      <c r="AZ12" s="13">
+        <v>58708</v>
+      </c>
+      <c r="BA12" s="13">
+        <v>56360</v>
+      </c>
+      <c r="BB12" s="13">
+        <v>82858</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>78450</v>
+        <v>13757</v>
       </c>
       <c r="F13" s="11">
-        <v>93644</v>
+        <v>13890</v>
       </c>
       <c r="G13" s="11">
-        <v>78920</v>
+        <v>13772</v>
       </c>
       <c r="H13" s="11">
-        <v>82492</v>
+        <v>13214</v>
       </c>
       <c r="I13" s="11">
-        <v>78422</v>
+        <v>13892</v>
       </c>
       <c r="J13" s="11">
-        <v>78812</v>
+        <v>13791</v>
       </c>
       <c r="K13" s="11">
-        <v>107940</v>
+        <v>9392</v>
       </c>
       <c r="L13" s="11">
-        <v>72386</v>
+        <v>16775</v>
       </c>
       <c r="M13" s="11">
-        <v>103983</v>
+        <v>11371</v>
       </c>
       <c r="N13" s="11">
-        <v>85178</v>
+        <v>13597</v>
       </c>
       <c r="O13" s="11">
-        <v>100140</v>
+        <v>17489</v>
       </c>
       <c r="P13" s="11">
-        <v>65480</v>
+        <v>17560</v>
       </c>
       <c r="Q13" s="11">
-        <v>60266</v>
+        <v>13464</v>
       </c>
       <c r="R13" s="11">
-        <v>53360</v>
+        <v>16810</v>
       </c>
       <c r="S13" s="11">
-        <v>65320</v>
+        <v>17966</v>
       </c>
       <c r="T13" s="11">
-        <v>62380</v>
+        <v>20260</v>
       </c>
       <c r="U13" s="11">
-        <v>88540</v>
+        <v>18519</v>
       </c>
       <c r="V13" s="11">
-        <v>106040</v>
+        <v>15457</v>
       </c>
       <c r="W13" s="11">
-        <v>82660</v>
+        <v>5730</v>
       </c>
       <c r="X13" s="11">
-        <v>39800</v>
+        <v>15029</v>
       </c>
       <c r="Y13" s="11">
-        <v>86160</v>
+        <v>14761</v>
       </c>
       <c r="Z13" s="11">
-        <v>82480</v>
+        <v>20291</v>
       </c>
       <c r="AA13" s="11">
-        <v>113120</v>
+        <v>8937</v>
       </c>
       <c r="AB13" s="11">
-        <v>42200</v>
+        <v>15213</v>
       </c>
       <c r="AC13" s="11">
-        <v>94916</v>
+        <v>17303</v>
       </c>
       <c r="AD13" s="11">
-        <v>78380</v>
+        <v>17329</v>
       </c>
       <c r="AE13" s="11">
-        <v>80940</v>
+        <v>21615</v>
       </c>
       <c r="AF13" s="11">
-        <v>87120</v>
+        <v>17570</v>
       </c>
       <c r="AG13" s="11">
-        <v>82600</v>
+        <v>20098</v>
       </c>
       <c r="AH13" s="11">
-        <v>87940</v>
+        <v>17153</v>
       </c>
       <c r="AI13" s="11">
-        <v>94572</v>
+        <v>8571</v>
       </c>
       <c r="AJ13" s="11">
-        <v>65480</v>
+        <v>18289</v>
       </c>
       <c r="AK13" s="11">
-        <v>77320</v>
+        <v>17938</v>
       </c>
       <c r="AL13" s="11">
-        <v>69060</v>
+        <v>17707</v>
       </c>
       <c r="AM13" s="11">
-        <v>73960</v>
+        <v>6506</v>
       </c>
       <c r="AN13" s="11">
-        <v>28180</v>
+        <v>13382</v>
       </c>
       <c r="AO13" s="11">
-        <v>62680</v>
+        <v>14299</v>
       </c>
       <c r="AP13" s="11">
-        <v>50380</v>
+        <v>22628</v>
       </c>
       <c r="AQ13" s="11">
-        <v>75240</v>
+        <v>21771</v>
       </c>
       <c r="AR13" s="11">
-        <v>78780</v>
+        <v>17138</v>
       </c>
       <c r="AS13" s="11">
-        <v>83840</v>
+        <v>11174</v>
       </c>
       <c r="AT13" s="11">
-        <v>53100</v>
+        <v>15973</v>
       </c>
       <c r="AU13" s="11">
-        <v>58400</v>
+        <v>9483</v>
       </c>
       <c r="AV13" s="11">
-        <v>41840</v>
+        <v>15590</v>
       </c>
       <c r="AW13" s="11">
-        <v>60160</v>
+        <v>16494</v>
       </c>
       <c r="AX13" s="11">
-        <v>87040</v>
+        <v>15584</v>
       </c>
       <c r="AY13" s="11">
-        <v>71460</v>
+        <v>12780</v>
       </c>
       <c r="AZ13" s="11">
-        <v>54880</v>
+        <v>16905</v>
       </c>
       <c r="BA13" s="11">
-        <v>58708</v>
+        <v>10837</v>
       </c>
       <c r="BB13" s="11">
-        <v>56360</v>
+        <v>15580</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>14458</v>
+        <v>95040</v>
       </c>
       <c r="F14" s="13">
-        <v>13757</v>
+        <v>95760</v>
       </c>
       <c r="G14" s="13">
-        <v>13890</v>
+        <v>101880</v>
       </c>
       <c r="H14" s="13">
-        <v>13772</v>
+        <v>101700</v>
       </c>
       <c r="I14" s="13">
-        <v>13214</v>
+        <v>93060</v>
       </c>
       <c r="J14" s="13">
-        <v>13892</v>
+        <v>109981</v>
       </c>
       <c r="K14" s="13">
-        <v>13791</v>
+        <v>71712</v>
       </c>
       <c r="L14" s="13">
-        <v>9392</v>
+        <v>140760</v>
       </c>
       <c r="M14" s="13">
-        <v>16775</v>
+        <v>131724</v>
       </c>
       <c r="N14" s="13">
-        <v>11371</v>
+        <v>146376</v>
       </c>
       <c r="O14" s="13">
-        <v>13597</v>
+        <v>104400</v>
       </c>
       <c r="P14" s="13">
-        <v>17489</v>
+        <v>127800</v>
       </c>
       <c r="Q14" s="13">
-        <v>17560</v>
+        <v>126000</v>
       </c>
       <c r="R14" s="13">
-        <v>13464</v>
+        <v>114144</v>
       </c>
       <c r="S14" s="13">
-        <v>16810</v>
+        <v>102250</v>
       </c>
       <c r="T14" s="13">
-        <v>17966</v>
+        <v>114660</v>
       </c>
       <c r="U14" s="13">
-        <v>20260</v>
+        <v>124560</v>
       </c>
       <c r="V14" s="13">
-        <v>18519</v>
+        <v>108180</v>
       </c>
       <c r="W14" s="13">
-        <v>15457</v>
+        <v>47160</v>
       </c>
       <c r="X14" s="13">
-        <v>5730</v>
+        <v>160680</v>
       </c>
       <c r="Y14" s="13">
-        <v>15029</v>
+        <v>105360</v>
       </c>
       <c r="Z14" s="13">
-        <v>14761</v>
+        <v>124814</v>
       </c>
       <c r="AA14" s="13">
-        <v>20291</v>
+        <v>82546</v>
       </c>
       <c r="AB14" s="13">
-        <v>8937</v>
+        <v>111530</v>
       </c>
       <c r="AC14" s="13">
-        <v>15213</v>
+        <v>90720</v>
       </c>
       <c r="AD14" s="13">
-        <v>17303</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="13">
-        <v>17329</v>
+        <v>82800</v>
       </c>
       <c r="AF14" s="13">
-        <v>21615</v>
+        <v>120960</v>
       </c>
       <c r="AG14" s="13">
-        <v>17570</v>
+        <v>130680</v>
       </c>
       <c r="AH14" s="13">
-        <v>20098</v>
+        <v>136080</v>
       </c>
       <c r="AI14" s="13">
-        <v>17153</v>
+        <v>91440</v>
       </c>
       <c r="AJ14" s="13">
-        <v>8571</v>
+        <v>128700</v>
       </c>
       <c r="AK14" s="13">
-        <v>18289</v>
+        <v>125640</v>
       </c>
       <c r="AL14" s="13">
-        <v>17938</v>
+        <v>109440</v>
       </c>
       <c r="AM14" s="13">
-        <v>17707</v>
+        <v>35280</v>
       </c>
       <c r="AN14" s="13">
-        <v>6506</v>
+        <v>2160</v>
       </c>
       <c r="AO14" s="13">
-        <v>13382</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="13">
-        <v>14299</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="13">
-        <v>22628</v>
+        <v>60120</v>
       </c>
       <c r="AR14" s="13">
-        <v>21771</v>
+        <v>43200</v>
       </c>
       <c r="AS14" s="13">
-        <v>17138</v>
+        <v>19080</v>
       </c>
       <c r="AT14" s="13">
-        <v>11174</v>
+        <v>47160</v>
       </c>
       <c r="AU14" s="13">
-        <v>15973</v>
+        <v>66800</v>
       </c>
       <c r="AV14" s="13">
-        <v>9483</v>
+        <v>105120</v>
       </c>
       <c r="AW14" s="13">
-        <v>15590</v>
+        <v>109980</v>
       </c>
       <c r="AX14" s="13">
-        <v>16494</v>
+        <v>108000</v>
       </c>
       <c r="AY14" s="13">
-        <v>15584</v>
+        <v>93600</v>
       </c>
       <c r="AZ14" s="13">
-        <v>12780</v>
+        <v>110700</v>
       </c>
       <c r="BA14" s="13">
-        <v>16905</v>
+        <v>79920</v>
       </c>
       <c r="BB14" s="13">
-        <v>10837</v>
+        <v>95220</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>95040</v>
-      </c>
-      <c r="G15" s="11">
-        <v>95760</v>
-      </c>
-      <c r="H15" s="11">
-        <v>101880</v>
-      </c>
-      <c r="I15" s="11">
-        <v>101700</v>
-      </c>
-      <c r="J15" s="11">
-        <v>93060</v>
-      </c>
-      <c r="K15" s="11">
-        <v>109981</v>
-      </c>
-      <c r="L15" s="11">
-        <v>71712</v>
-      </c>
-      <c r="M15" s="11">
-        <v>140760</v>
-      </c>
-      <c r="N15" s="11">
-        <v>131724</v>
-      </c>
-      <c r="O15" s="11">
-        <v>146376</v>
-      </c>
-      <c r="P15" s="11">
-        <v>104400</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>127800</v>
-      </c>
-      <c r="R15" s="11">
-        <v>126000</v>
-      </c>
-      <c r="S15" s="11">
-        <v>114144</v>
-      </c>
-      <c r="T15" s="11">
-        <v>102250</v>
-      </c>
-      <c r="U15" s="11">
-        <v>114660</v>
-      </c>
-      <c r="V15" s="11">
-        <v>124560</v>
-      </c>
-      <c r="W15" s="11">
-        <v>108180</v>
-      </c>
-      <c r="X15" s="11">
-        <v>47160</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>160680</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>105360</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>124814</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>82546</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>111530</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>90720</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>82800</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>120960</v>
-      </c>
-      <c r="AH15" s="11">
-        <v>130680</v>
-      </c>
-      <c r="AI15" s="11">
-        <v>136080</v>
-      </c>
-      <c r="AJ15" s="11">
-        <v>91440</v>
-      </c>
-      <c r="AK15" s="11">
-        <v>128700</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>125640</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>109440</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>35280</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>2160</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>60120</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>43200</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>19080</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>47160</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>66800</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>105120</v>
-      </c>
-      <c r="AX15" s="11">
-        <v>109980</v>
-      </c>
-      <c r="AY15" s="11">
-        <v>108000</v>
+      <c r="E15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY15" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AZ15" s="11">
-        <v>93600</v>
-      </c>
-      <c r="BA15" s="11">
-        <v>110700</v>
-      </c>
-      <c r="BB15" s="11">
-        <v>79920</v>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB15" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="L16" s="13">
+        <v>23</v>
       </c>
       <c r="M16" s="13">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N16" s="13">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="O16" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P16" s="13">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="13">
         <v>33</v>
       </c>
-      <c r="R16" s="13" t="s">
-        <v>58</v>
+      <c r="Q16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" s="13">
+        <v>47</v>
       </c>
       <c r="S16" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="T16" s="13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U16" s="13">
+        <v>50</v>
+      </c>
+      <c r="V16" s="13">
+        <v>76</v>
+      </c>
+      <c r="W16" s="13">
+        <v>20</v>
+      </c>
+      <c r="X16" s="13">
+        <v>89</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>61</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>181</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>38</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>108</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>156</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>129</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>138</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>100</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>81</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>128</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>142</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>141</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>50</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>90</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>100</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>61</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>106</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>100</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>60</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>56</v>
+      </c>
+      <c r="AU16" s="13">
         <v>40</v>
       </c>
-      <c r="V16" s="13">
-        <v>50</v>
-      </c>
-      <c r="W16" s="13">
-        <v>76</v>
-      </c>
-      <c r="X16" s="13">
-        <v>20</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>89</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>61</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>181</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>38</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>108</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>156</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>129</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>138</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>100</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>81</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>128</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>142</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>141</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>50</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>90</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>100</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>61</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>106</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>100</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>60</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>56</v>
-      </c>
       <c r="AV16" s="13">
+        <v>63</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="13">
+        <v>13</v>
+      </c>
+      <c r="AY16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="13">
+        <v>43</v>
+      </c>
+      <c r="BA16" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="13">
         <v>40</v>
-      </c>
-      <c r="AW16" s="13">
-        <v>63</v>
-      </c>
-      <c r="AX16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="13">
-        <v>13</v>
-      </c>
-      <c r="AZ16" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="13">
-        <v>43</v>
-      </c>
-      <c r="BB16" s="13">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -2416,84 +2416,84 @@
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB18" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC18" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AC18" s="17">
+        <v>0</v>
       </c>
       <c r="AD18" s="17">
         <v>0</v>
@@ -2573,159 +2573,159 @@
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19">
-        <v>92908</v>
+        <v>202441</v>
       </c>
       <c r="F19" s="19">
-        <v>202441</v>
+        <v>188570</v>
       </c>
       <c r="G19" s="19">
-        <v>188570</v>
+        <v>198144</v>
       </c>
       <c r="H19" s="19">
-        <v>198144</v>
+        <v>193336</v>
       </c>
       <c r="I19" s="19">
-        <v>193336</v>
+        <v>185764</v>
       </c>
       <c r="J19" s="19">
-        <v>185764</v>
+        <v>231712</v>
       </c>
       <c r="K19" s="19">
-        <v>231712</v>
+        <v>153490</v>
       </c>
       <c r="L19" s="19">
-        <v>153490</v>
+        <v>261541</v>
       </c>
       <c r="M19" s="19">
-        <v>261541</v>
+        <v>228299</v>
       </c>
       <c r="N19" s="19">
-        <v>228299</v>
+        <v>260120</v>
       </c>
       <c r="O19" s="19">
-        <v>260120</v>
+        <v>187375</v>
       </c>
       <c r="P19" s="19">
-        <v>187375</v>
+        <v>205659</v>
       </c>
       <c r="Q19" s="19">
-        <v>205659</v>
+        <v>192824</v>
       </c>
       <c r="R19" s="19">
-        <v>192824</v>
+        <v>196321</v>
       </c>
       <c r="S19" s="19">
-        <v>196321</v>
+        <v>182596</v>
       </c>
       <c r="T19" s="19">
-        <v>182596</v>
+        <v>223500</v>
       </c>
       <c r="U19" s="19">
-        <v>223500</v>
+        <v>249169</v>
       </c>
       <c r="V19" s="19">
-        <v>249169</v>
+        <v>206373</v>
       </c>
       <c r="W19" s="19">
-        <v>206373</v>
+        <v>92710</v>
       </c>
       <c r="X19" s="19">
-        <v>92710</v>
+        <v>261958</v>
       </c>
       <c r="Y19" s="19">
-        <v>261958</v>
+        <v>202662</v>
       </c>
       <c r="Z19" s="19">
-        <v>202662</v>
+        <v>258225</v>
       </c>
       <c r="AA19" s="19">
-        <v>258225</v>
+        <v>133683</v>
       </c>
       <c r="AB19" s="19">
-        <v>133683</v>
+        <v>221840</v>
       </c>
       <c r="AC19" s="19">
-        <v>221840</v>
+        <v>186441</v>
       </c>
       <c r="AD19" s="19">
-        <v>186441</v>
+        <v>98377</v>
       </c>
       <c r="AE19" s="19">
-        <v>98377</v>
+        <v>191691</v>
       </c>
       <c r="AF19" s="19">
-        <v>191691</v>
+        <v>221259</v>
       </c>
       <c r="AG19" s="19">
-        <v>221259</v>
+        <v>238856</v>
       </c>
       <c r="AH19" s="19">
-        <v>238856</v>
+        <v>247905</v>
       </c>
       <c r="AI19" s="19">
-        <v>247905</v>
+        <v>165572</v>
       </c>
       <c r="AJ19" s="19">
-        <v>165572</v>
+        <v>224437</v>
       </c>
       <c r="AK19" s="19">
-        <v>224437</v>
+        <v>212780</v>
       </c>
       <c r="AL19" s="19">
-        <v>212780</v>
+        <v>201248</v>
       </c>
       <c r="AM19" s="19">
-        <v>201248</v>
+        <v>70016</v>
       </c>
       <c r="AN19" s="19">
-        <v>70016</v>
+        <v>78312</v>
       </c>
       <c r="AO19" s="19">
-        <v>78312</v>
+        <v>64779</v>
       </c>
       <c r="AP19" s="19">
-        <v>64779</v>
+        <v>97929</v>
       </c>
       <c r="AQ19" s="19">
-        <v>97929</v>
+        <v>160777</v>
       </c>
       <c r="AR19" s="19">
-        <v>160777</v>
+        <v>144278</v>
       </c>
       <c r="AS19" s="19">
-        <v>144278</v>
+        <v>83414</v>
       </c>
       <c r="AT19" s="19">
-        <v>83414</v>
+        <v>121589</v>
       </c>
       <c r="AU19" s="19">
-        <v>121589</v>
+        <v>118163</v>
       </c>
       <c r="AV19" s="19">
-        <v>118163</v>
+        <v>180933</v>
       </c>
       <c r="AW19" s="19">
-        <v>180933</v>
+        <v>213514</v>
       </c>
       <c r="AX19" s="19">
-        <v>213514</v>
+        <v>195057</v>
       </c>
       <c r="AY19" s="19">
-        <v>195057</v>
+        <v>161260</v>
       </c>
       <c r="AZ19" s="19">
-        <v>161260</v>
+        <v>186356</v>
       </c>
       <c r="BA19" s="19">
-        <v>186356</v>
+        <v>147117</v>
       </c>
       <c r="BB19" s="19">
-        <v>147117</v>
+        <v>193698</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2895,7 +2895,7 @@
     </row>
     <row r="23" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="11">
         <v>0</v>
@@ -3332,793 +3332,793 @@
       <c r="E27" s="13">
         <v>0</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="S27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB27" s="13" t="s">
-        <v>58</v>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>3362</v>
+      </c>
+      <c r="H27" s="13">
+        <v>48731</v>
+      </c>
+      <c r="I27" s="13">
+        <v>121406</v>
+      </c>
+      <c r="J27" s="13">
+        <v>382543</v>
+      </c>
+      <c r="K27" s="13">
+        <v>76687</v>
+      </c>
+      <c r="L27" s="13">
+        <v>122004</v>
+      </c>
+      <c r="M27" s="13">
+        <v>49240</v>
+      </c>
+      <c r="N27" s="13">
+        <v>61299</v>
+      </c>
+      <c r="O27" s="13">
+        <v>29817</v>
+      </c>
+      <c r="P27" s="13">
+        <v>6216</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>564</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <v>5312</v>
+      </c>
+      <c r="T27" s="13">
+        <v>182516</v>
+      </c>
+      <c r="U27" s="13">
+        <v>253390</v>
+      </c>
+      <c r="V27" s="13">
+        <v>205848</v>
+      </c>
+      <c r="W27" s="13">
+        <v>25041</v>
+      </c>
+      <c r="X27" s="13">
+        <v>160441</v>
+      </c>
+      <c r="Y27" s="13">
+        <v>121442</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>116781</v>
+      </c>
+      <c r="AA27" s="13">
+        <v>16420</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>3521</v>
+      </c>
+      <c r="AC27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="13">
+        <v>41860</v>
+      </c>
+      <c r="AF27" s="13">
+        <v>68940</v>
+      </c>
+      <c r="AG27" s="13">
+        <v>121564</v>
+      </c>
+      <c r="AH27" s="13">
+        <v>212900</v>
+      </c>
+      <c r="AI27" s="13">
+        <v>39940</v>
+      </c>
+      <c r="AJ27" s="13">
+        <v>87740</v>
+      </c>
+      <c r="AK27" s="13">
+        <v>76961</v>
+      </c>
+      <c r="AL27" s="13">
+        <v>58666</v>
+      </c>
+      <c r="AM27" s="13">
+        <v>30520</v>
+      </c>
+      <c r="AN27" s="13">
+        <v>24060</v>
+      </c>
+      <c r="AO27" s="13">
+        <v>16920</v>
+      </c>
+      <c r="AP27" s="13">
+        <v>135200</v>
+      </c>
+      <c r="AQ27" s="13">
+        <v>56440</v>
+      </c>
+      <c r="AR27" s="13">
+        <v>77160</v>
+      </c>
+      <c r="AS27" s="13">
+        <v>18183</v>
+      </c>
+      <c r="AT27" s="13">
+        <v>148588</v>
+      </c>
+      <c r="AU27" s="13">
+        <v>29720</v>
+      </c>
+      <c r="AV27" s="13">
+        <v>96481</v>
+      </c>
+      <c r="AW27" s="13">
+        <v>87092</v>
+      </c>
+      <c r="AX27" s="13">
+        <v>49300</v>
+      </c>
+      <c r="AY27" s="13">
+        <v>20046</v>
+      </c>
+      <c r="AZ27" s="13">
+        <v>2400</v>
+      </c>
+      <c r="BA27" s="13">
+        <v>14800</v>
+      </c>
+      <c r="BB27" s="13">
+        <v>5315</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>0</v>
+        <v>7642</v>
       </c>
       <c r="F28" s="11">
-        <v>0</v>
+        <v>13038</v>
       </c>
       <c r="G28" s="11">
-        <v>0</v>
+        <v>13861</v>
       </c>
       <c r="H28" s="11">
-        <v>3362</v>
+        <v>11077</v>
       </c>
       <c r="I28" s="11">
-        <v>48731</v>
+        <v>17634</v>
       </c>
       <c r="J28" s="11">
-        <v>121406</v>
+        <v>32098</v>
       </c>
       <c r="K28" s="11">
-        <v>382543</v>
+        <v>10101</v>
       </c>
       <c r="L28" s="11">
-        <v>76687</v>
+        <v>19364</v>
       </c>
       <c r="M28" s="11">
-        <v>122004</v>
+        <v>13344</v>
       </c>
       <c r="N28" s="11">
-        <v>49240</v>
+        <v>11472</v>
       </c>
       <c r="O28" s="11">
-        <v>61299</v>
+        <v>16069</v>
       </c>
       <c r="P28" s="11">
-        <v>29817</v>
+        <v>16275</v>
       </c>
       <c r="Q28" s="11">
-        <v>6216</v>
+        <v>11634</v>
       </c>
       <c r="R28" s="11">
-        <v>564</v>
+        <v>11757</v>
       </c>
       <c r="S28" s="11">
-        <v>0</v>
+        <v>21780</v>
       </c>
       <c r="T28" s="11">
-        <v>5312</v>
+        <v>18429</v>
       </c>
       <c r="U28" s="11">
-        <v>182516</v>
+        <v>12948</v>
       </c>
       <c r="V28" s="11">
-        <v>253390</v>
+        <v>23863</v>
       </c>
       <c r="W28" s="11">
-        <v>205848</v>
+        <v>3986</v>
       </c>
       <c r="X28" s="11">
-        <v>25041</v>
+        <v>21332</v>
       </c>
       <c r="Y28" s="11">
-        <v>160441</v>
+        <v>14134</v>
       </c>
       <c r="Z28" s="11">
-        <v>121442</v>
+        <v>24802</v>
       </c>
       <c r="AA28" s="11">
-        <v>116781</v>
+        <v>16909</v>
       </c>
       <c r="AB28" s="11">
-        <v>16420</v>
+        <v>15287</v>
       </c>
       <c r="AC28" s="11">
-        <v>3521</v>
+        <v>12557</v>
       </c>
       <c r="AD28" s="11">
-        <v>1</v>
+        <v>13730</v>
       </c>
       <c r="AE28" s="11">
-        <v>0</v>
+        <v>10372</v>
       </c>
       <c r="AF28" s="11">
-        <v>41860</v>
+        <v>10427</v>
       </c>
       <c r="AG28" s="11">
-        <v>68940</v>
+        <v>12537</v>
       </c>
       <c r="AH28" s="11">
-        <v>121564</v>
+        <v>30323</v>
       </c>
       <c r="AI28" s="11">
-        <v>212900</v>
+        <v>3263</v>
       </c>
       <c r="AJ28" s="11">
-        <v>39940</v>
+        <v>13004</v>
       </c>
       <c r="AK28" s="11">
-        <v>87740</v>
+        <v>12028</v>
       </c>
       <c r="AL28" s="11">
-        <v>76961</v>
+        <v>16432</v>
       </c>
       <c r="AM28" s="11">
-        <v>58666</v>
+        <v>10966</v>
       </c>
       <c r="AN28" s="11">
-        <v>30520</v>
+        <v>19197</v>
       </c>
       <c r="AO28" s="11">
-        <v>24060</v>
+        <v>10538</v>
       </c>
       <c r="AP28" s="11">
-        <v>16920</v>
+        <v>15784</v>
       </c>
       <c r="AQ28" s="11">
-        <v>135200</v>
+        <v>9869</v>
       </c>
       <c r="AR28" s="11">
-        <v>56440</v>
+        <v>12861</v>
       </c>
       <c r="AS28" s="11">
-        <v>77160</v>
+        <v>14648</v>
       </c>
       <c r="AT28" s="11">
-        <v>18183</v>
+        <v>16438</v>
       </c>
       <c r="AU28" s="11">
-        <v>148588</v>
+        <v>396</v>
       </c>
       <c r="AV28" s="11">
-        <v>29720</v>
+        <v>12224</v>
       </c>
       <c r="AW28" s="11">
-        <v>96481</v>
+        <v>21303</v>
       </c>
       <c r="AX28" s="11">
-        <v>87092</v>
+        <v>12289</v>
       </c>
       <c r="AY28" s="11">
-        <v>49300</v>
+        <v>10574</v>
       </c>
       <c r="AZ28" s="11">
-        <v>20046</v>
+        <v>14475</v>
       </c>
       <c r="BA28" s="11">
-        <v>2400</v>
+        <v>16563</v>
       </c>
       <c r="BB28" s="11">
-        <v>14800</v>
+        <v>15141</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>16974</v>
+        <v>0</v>
       </c>
       <c r="F29" s="13">
-        <v>7642</v>
+        <v>81</v>
       </c>
       <c r="G29" s="13">
-        <v>13038</v>
+        <v>7119</v>
       </c>
       <c r="H29" s="13">
-        <v>13861</v>
+        <v>63359</v>
       </c>
       <c r="I29" s="13">
-        <v>11077</v>
+        <v>97560</v>
       </c>
       <c r="J29" s="13">
-        <v>17634</v>
+        <v>487620</v>
       </c>
       <c r="K29" s="13">
-        <v>32098</v>
+        <v>51048</v>
       </c>
       <c r="L29" s="13">
-        <v>10101</v>
+        <v>192851</v>
       </c>
       <c r="M29" s="13">
-        <v>19364</v>
+        <v>150500</v>
       </c>
       <c r="N29" s="13">
-        <v>13344</v>
+        <v>136800</v>
       </c>
       <c r="O29" s="13">
-        <v>11472</v>
+        <v>68040</v>
       </c>
       <c r="P29" s="13">
-        <v>16069</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="13">
-        <v>16275</v>
+        <v>900</v>
       </c>
       <c r="R29" s="13">
-        <v>11634</v>
+        <v>0</v>
       </c>
       <c r="S29" s="13">
-        <v>11757</v>
+        <v>10260</v>
       </c>
       <c r="T29" s="13">
-        <v>21780</v>
+        <v>152280</v>
       </c>
       <c r="U29" s="13">
-        <v>18429</v>
+        <v>320760</v>
       </c>
       <c r="V29" s="13">
-        <v>12948</v>
+        <v>147920</v>
       </c>
       <c r="W29" s="13">
-        <v>23863</v>
+        <v>23040</v>
       </c>
       <c r="X29" s="13">
-        <v>3986</v>
+        <v>345951</v>
       </c>
       <c r="Y29" s="13">
-        <v>21332</v>
+        <v>154542</v>
       </c>
       <c r="Z29" s="13">
-        <v>14134</v>
+        <v>499596</v>
       </c>
       <c r="AA29" s="13">
-        <v>24802</v>
+        <v>27382</v>
       </c>
       <c r="AB29" s="13">
-        <v>16909</v>
+        <v>7200</v>
       </c>
       <c r="AC29" s="13">
-        <v>15287</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="13">
-        <v>12557</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="13">
-        <v>13730</v>
+        <v>41040</v>
       </c>
       <c r="AF29" s="13">
-        <v>10372</v>
+        <v>87661</v>
       </c>
       <c r="AG29" s="13">
-        <v>10427</v>
+        <v>117880</v>
       </c>
       <c r="AH29" s="13">
-        <v>12537</v>
+        <v>230400</v>
       </c>
       <c r="AI29" s="13">
-        <v>30323</v>
+        <v>38160</v>
       </c>
       <c r="AJ29" s="13">
-        <v>3263</v>
+        <v>152100</v>
       </c>
       <c r="AK29" s="13">
-        <v>13004</v>
+        <v>59040</v>
       </c>
       <c r="AL29" s="13">
-        <v>12028</v>
+        <v>26640</v>
       </c>
       <c r="AM29" s="13">
-        <v>16432</v>
+        <v>27900</v>
       </c>
       <c r="AN29" s="13">
-        <v>10966</v>
+        <v>27360</v>
       </c>
       <c r="AO29" s="13">
-        <v>19197</v>
+        <v>7200</v>
       </c>
       <c r="AP29" s="13">
-        <v>10538</v>
+        <v>176584</v>
       </c>
       <c r="AQ29" s="13">
-        <v>15784</v>
+        <v>40320</v>
       </c>
       <c r="AR29" s="13">
-        <v>9869</v>
+        <v>40320</v>
       </c>
       <c r="AS29" s="13">
-        <v>12861</v>
+        <v>65340</v>
       </c>
       <c r="AT29" s="13">
-        <v>14648</v>
+        <v>249223</v>
       </c>
       <c r="AU29" s="13">
-        <v>16438</v>
+        <v>39260</v>
       </c>
       <c r="AV29" s="13">
-        <v>396</v>
+        <v>93918</v>
       </c>
       <c r="AW29" s="13">
-        <v>12224</v>
+        <v>140270</v>
       </c>
       <c r="AX29" s="13">
-        <v>21303</v>
+        <v>55680</v>
       </c>
       <c r="AY29" s="13">
-        <v>12289</v>
+        <v>17100</v>
       </c>
       <c r="AZ29" s="13">
-        <v>10574</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="13">
-        <v>14475</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="13">
-        <v>16563</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11">
-        <v>7200</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0</v>
-      </c>
-      <c r="G30" s="11">
-        <v>81</v>
-      </c>
-      <c r="H30" s="11">
-        <v>7119</v>
-      </c>
-      <c r="I30" s="11">
-        <v>63359</v>
-      </c>
-      <c r="J30" s="11">
-        <v>97560</v>
-      </c>
-      <c r="K30" s="11">
-        <v>487620</v>
-      </c>
-      <c r="L30" s="11">
-        <v>51048</v>
-      </c>
-      <c r="M30" s="11">
-        <v>192851</v>
-      </c>
-      <c r="N30" s="11">
-        <v>150500</v>
-      </c>
-      <c r="O30" s="11">
-        <v>136800</v>
-      </c>
-      <c r="P30" s="11">
-        <v>68040</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>2</v>
-      </c>
-      <c r="R30" s="11">
-        <v>900</v>
-      </c>
-      <c r="S30" s="11">
-        <v>0</v>
-      </c>
-      <c r="T30" s="11">
-        <v>10260</v>
-      </c>
-      <c r="U30" s="11">
-        <v>152280</v>
-      </c>
-      <c r="V30" s="11">
-        <v>320760</v>
-      </c>
-      <c r="W30" s="11">
-        <v>147920</v>
-      </c>
-      <c r="X30" s="11">
-        <v>23040</v>
-      </c>
-      <c r="Y30" s="11">
-        <v>345951</v>
-      </c>
-      <c r="Z30" s="11">
-        <v>154542</v>
-      </c>
-      <c r="AA30" s="11">
-        <v>499596</v>
-      </c>
-      <c r="AB30" s="11">
-        <v>27382</v>
-      </c>
-      <c r="AC30" s="11">
-        <v>7200</v>
-      </c>
-      <c r="AD30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="11">
-        <v>41040</v>
-      </c>
-      <c r="AG30" s="11">
-        <v>87661</v>
-      </c>
-      <c r="AH30" s="11">
-        <v>117880</v>
-      </c>
-      <c r="AI30" s="11">
-        <v>230400</v>
-      </c>
-      <c r="AJ30" s="11">
-        <v>38160</v>
-      </c>
-      <c r="AK30" s="11">
-        <v>152100</v>
-      </c>
-      <c r="AL30" s="11">
-        <v>59040</v>
-      </c>
-      <c r="AM30" s="11">
-        <v>26640</v>
-      </c>
-      <c r="AN30" s="11">
-        <v>27900</v>
-      </c>
-      <c r="AO30" s="11">
-        <v>27360</v>
-      </c>
-      <c r="AP30" s="11">
-        <v>7200</v>
-      </c>
-      <c r="AQ30" s="11">
-        <v>176584</v>
-      </c>
-      <c r="AR30" s="11">
-        <v>40320</v>
-      </c>
-      <c r="AS30" s="11">
-        <v>40320</v>
-      </c>
-      <c r="AT30" s="11">
-        <v>65340</v>
-      </c>
-      <c r="AU30" s="11">
-        <v>249223</v>
-      </c>
-      <c r="AV30" s="11">
-        <v>39260</v>
-      </c>
-      <c r="AW30" s="11">
-        <v>93918</v>
-      </c>
-      <c r="AX30" s="11">
-        <v>140270</v>
-      </c>
-      <c r="AY30" s="11">
-        <v>55680</v>
+      <c r="E30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="X30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY30" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AZ30" s="11">
-        <v>17100</v>
-      </c>
-      <c r="BA30" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB30" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BA30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB30" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="13">
+        <v>9</v>
+      </c>
+      <c r="N31" s="13">
+        <v>5</v>
+      </c>
+      <c r="O31" s="13">
+        <v>4</v>
+      </c>
+      <c r="P31" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R31" s="13">
+        <v>12</v>
+      </c>
+      <c r="S31" s="13">
+        <v>14</v>
+      </c>
+      <c r="T31" s="13">
+        <v>34</v>
+      </c>
+      <c r="U31" s="13">
+        <v>17</v>
+      </c>
+      <c r="V31" s="13">
+        <v>14</v>
+      </c>
+      <c r="W31" s="13">
+        <v>2</v>
+      </c>
+      <c r="X31" s="13">
+        <v>32</v>
+      </c>
+      <c r="Y31" s="13">
+        <v>14</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>16</v>
+      </c>
+      <c r="AA31" s="13">
+        <v>29</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>50</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>68</v>
+      </c>
+      <c r="AD31" s="13">
+        <v>106</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>39</v>
+      </c>
+      <c r="AF31" s="13">
+        <v>43</v>
+      </c>
+      <c r="AG31" s="13">
+        <v>72</v>
+      </c>
+      <c r="AH31" s="13">
+        <v>26</v>
+      </c>
+      <c r="AI31" s="13">
+        <v>10</v>
+      </c>
+      <c r="AJ31" s="13">
+        <v>29</v>
+      </c>
+      <c r="AK31" s="13">
+        <v>43</v>
+      </c>
+      <c r="AL31" s="13">
+        <v>45</v>
+      </c>
+      <c r="AM31" s="13">
+        <v>27</v>
+      </c>
+      <c r="AN31" s="13">
+        <v>34</v>
+      </c>
+      <c r="AO31" s="13">
+        <v>12</v>
+      </c>
+      <c r="AP31" s="13">
+        <v>62</v>
+      </c>
+      <c r="AQ31" s="13">
+        <v>44</v>
+      </c>
+      <c r="AR31" s="13">
+        <v>49</v>
+      </c>
+      <c r="AS31" s="13">
         <v>58</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M31" s="13">
-        <v>0</v>
-      </c>
-      <c r="N31" s="13">
-        <v>9</v>
-      </c>
-      <c r="O31" s="13">
-        <v>5</v>
-      </c>
-      <c r="P31" s="13">
-        <v>4</v>
-      </c>
-      <c r="Q31" s="13">
-        <v>1</v>
-      </c>
-      <c r="R31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="S31" s="13">
-        <v>12</v>
-      </c>
-      <c r="T31" s="13">
-        <v>14</v>
-      </c>
-      <c r="U31" s="13">
-        <v>34</v>
-      </c>
-      <c r="V31" s="13">
-        <v>17</v>
-      </c>
-      <c r="W31" s="13">
-        <v>14</v>
-      </c>
-      <c r="X31" s="13">
-        <v>2</v>
-      </c>
-      <c r="Y31" s="13">
-        <v>32</v>
-      </c>
-      <c r="Z31" s="13">
-        <v>14</v>
-      </c>
-      <c r="AA31" s="13">
-        <v>16</v>
-      </c>
-      <c r="AB31" s="13">
-        <v>29</v>
-      </c>
-      <c r="AC31" s="13">
-        <v>50</v>
-      </c>
-      <c r="AD31" s="13">
-        <v>68</v>
-      </c>
-      <c r="AE31" s="13">
-        <v>106</v>
-      </c>
-      <c r="AF31" s="13">
-        <v>39</v>
-      </c>
-      <c r="AG31" s="13">
-        <v>43</v>
-      </c>
-      <c r="AH31" s="13">
-        <v>72</v>
-      </c>
-      <c r="AI31" s="13">
-        <v>26</v>
-      </c>
-      <c r="AJ31" s="13">
-        <v>10</v>
-      </c>
-      <c r="AK31" s="13">
-        <v>29</v>
-      </c>
-      <c r="AL31" s="13">
-        <v>43</v>
-      </c>
-      <c r="AM31" s="13">
-        <v>45</v>
-      </c>
-      <c r="AN31" s="13">
-        <v>27</v>
-      </c>
-      <c r="AO31" s="13">
-        <v>34</v>
-      </c>
-      <c r="AP31" s="13">
-        <v>12</v>
-      </c>
-      <c r="AQ31" s="13">
-        <v>62</v>
-      </c>
-      <c r="AR31" s="13">
-        <v>44</v>
-      </c>
-      <c r="AS31" s="13">
-        <v>49</v>
-      </c>
       <c r="AT31" s="13">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="AU31" s="13">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="AV31" s="13">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AW31" s="13">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AX31" s="13">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AY31" s="13">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AZ31" s="13">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="BA31" s="13">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="BB31" s="13">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -4175,84 +4175,84 @@
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB33" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC33" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AC33" s="17">
+        <v>0</v>
       </c>
       <c r="AD33" s="17">
         <v>0</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -4396,88 +4396,88 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>-1</v>
       </c>
       <c r="AF35" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="11">
         <v>0</v>
@@ -4488,149 +4488,149 @@
       <c r="AI35" s="11">
         <v>0</v>
       </c>
-      <c r="AJ35" s="11">
-        <v>0</v>
+      <c r="AJ35" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AK35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AL35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AM35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AN35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AO35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AP35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AQ35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AR35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AS35" s="11">
+        <v>0</v>
       </c>
       <c r="AT35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AU35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AV35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AW35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AX35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AY35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AZ35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BA35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BB35" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AD36" s="13">
+        <v>0</v>
       </c>
       <c r="AE36" s="13">
         <v>0</v>
@@ -4639,316 +4639,316 @@
         <v>0</v>
       </c>
       <c r="AG36" s="13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH36" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="13">
         <v>0</v>
       </c>
-      <c r="AJ36" s="13">
-        <v>0</v>
+      <c r="AJ36" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AN36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AO36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AP36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AQ36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AR36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AS36" s="13">
+        <v>0</v>
       </c>
       <c r="AT36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AU36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AV36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AW36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AX36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AY36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AZ36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BA36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BB36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AD37" s="11">
+        <v>-10</v>
       </c>
       <c r="AE37" s="11">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="AF37" s="11">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="11">
-        <v>0</v>
+        <v>-72</v>
       </c>
       <c r="AH37" s="11">
-        <v>-72</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="11">
         <v>0</v>
       </c>
-      <c r="AJ37" s="11">
-        <v>0</v>
+      <c r="AJ37" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AK37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AL37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AM37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN37" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AN37" s="11">
+        <v>-1</v>
       </c>
       <c r="AO37" s="11">
         <v>-1</v>
       </c>
-      <c r="AP37" s="11">
+      <c r="AP37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR37" s="11">
+        <v>-258</v>
+      </c>
+      <c r="AS37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="11">
         <v>-1</v>
       </c>
-      <c r="AQ37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS37" s="11">
-        <v>-258</v>
-      </c>
-      <c r="AT37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU37" s="11">
+      <c r="AU37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW37" s="11">
+        <v>-8</v>
+      </c>
+      <c r="AX37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY37" s="11">
+        <v>-12</v>
+      </c>
+      <c r="AZ37" s="11">
+        <v>-7</v>
+      </c>
+      <c r="BA37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB37" s="11">
         <v>-1</v>
-      </c>
-      <c r="AV37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX37" s="11">
-        <v>-8</v>
-      </c>
-      <c r="AY37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ37" s="11">
-        <v>-12</v>
-      </c>
-      <c r="BA37" s="11">
-        <v>-7</v>
-      </c>
-      <c r="BB37" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AD38" s="13">
+        <v>0</v>
       </c>
       <c r="AE38" s="13">
         <v>0</v>
@@ -4965,155 +4965,155 @@
       <c r="AI38" s="13">
         <v>0</v>
       </c>
-      <c r="AJ38" s="13">
-        <v>0</v>
+      <c r="AJ38" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AK38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AL38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AM38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AN38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AO38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AP38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AQ38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AR38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AS38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AT38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AU38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AV38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AW38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AX38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AY38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AZ38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BA38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BB38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>-1</v>
       </c>
       <c r="AF39" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="11">
         <v>0</v>
@@ -5124,159 +5124,159 @@
       <c r="AI39" s="11">
         <v>0</v>
       </c>
-      <c r="AJ39" s="11">
-        <v>0</v>
+      <c r="AJ39" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AK39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AL39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AM39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AN39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AO39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AP39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AQ39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AR39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>0</v>
       </c>
       <c r="AT39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AU39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AV39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AW39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AX39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AY39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AZ39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BA39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BB39" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB40" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC40" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AC40" s="19">
+        <v>0</v>
       </c>
       <c r="AD40" s="19">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AE40" s="19">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="AF40" s="19">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="19">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="AH40" s="19">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AI40" s="19">
         <v>0</v>
@@ -5294,206 +5294,206 @@
         <v>0</v>
       </c>
       <c r="AN40" s="19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO40" s="19">
         <v>-1</v>
       </c>
       <c r="AP40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="19">
+        <v>-258</v>
+      </c>
+      <c r="AS40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="19">
         <v>-1</v>
       </c>
-      <c r="AQ40" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="19">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="19">
-        <v>-258</v>
-      </c>
-      <c r="AT40" s="19">
-        <v>0</v>
-      </c>
       <c r="AU40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="19">
+        <v>-8</v>
+      </c>
+      <c r="AX40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="19">
+        <v>-12</v>
+      </c>
+      <c r="AZ40" s="19">
+        <v>-7</v>
+      </c>
+      <c r="BA40" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="19">
         <v>-1</v>
-      </c>
-      <c r="AV40" s="19">
-        <v>0</v>
-      </c>
-      <c r="AW40" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX40" s="19">
-        <v>-8</v>
-      </c>
-      <c r="AY40" s="19">
-        <v>0</v>
-      </c>
-      <c r="AZ40" s="19">
-        <v>-12</v>
-      </c>
-      <c r="BA40" s="19">
-        <v>-7</v>
-      </c>
-      <c r="BB40" s="19">
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17">
-        <v>24175</v>
+        <v>7642</v>
       </c>
       <c r="F41" s="17">
-        <v>7642</v>
+        <v>13119</v>
       </c>
       <c r="G41" s="17">
-        <v>13119</v>
+        <v>24342</v>
       </c>
       <c r="H41" s="17">
-        <v>24342</v>
+        <v>123167</v>
       </c>
       <c r="I41" s="17">
-        <v>123167</v>
+        <v>236600</v>
       </c>
       <c r="J41" s="17">
-        <v>236600</v>
+        <v>902261</v>
       </c>
       <c r="K41" s="17">
-        <v>902261</v>
+        <v>137836</v>
       </c>
       <c r="L41" s="17">
-        <v>137836</v>
+        <v>334219</v>
       </c>
       <c r="M41" s="17">
-        <v>334219</v>
+        <v>213093</v>
       </c>
       <c r="N41" s="17">
-        <v>213093</v>
+        <v>209576</v>
       </c>
       <c r="O41" s="17">
-        <v>209576</v>
+        <v>113930</v>
       </c>
       <c r="P41" s="17">
-        <v>113930</v>
+        <v>22494</v>
       </c>
       <c r="Q41" s="17">
-        <v>22494</v>
+        <v>13098</v>
       </c>
       <c r="R41" s="17">
-        <v>13098</v>
+        <v>11769</v>
       </c>
       <c r="S41" s="17">
-        <v>11769</v>
+        <v>37366</v>
       </c>
       <c r="T41" s="17">
-        <v>37366</v>
+        <v>353259</v>
       </c>
       <c r="U41" s="17">
-        <v>353259</v>
+        <v>587115</v>
       </c>
       <c r="V41" s="17">
-        <v>587115</v>
+        <v>377645</v>
       </c>
       <c r="W41" s="17">
-        <v>377645</v>
+        <v>52069</v>
       </c>
       <c r="X41" s="17">
-        <v>52069</v>
+        <v>527756</v>
       </c>
       <c r="Y41" s="17">
-        <v>527756</v>
+        <v>290132</v>
       </c>
       <c r="Z41" s="17">
-        <v>290132</v>
+        <v>641195</v>
       </c>
       <c r="AA41" s="17">
-        <v>641195</v>
+        <v>60740</v>
       </c>
       <c r="AB41" s="17">
-        <v>60740</v>
+        <v>26058</v>
       </c>
       <c r="AC41" s="17">
-        <v>26058</v>
+        <v>12626</v>
       </c>
       <c r="AD41" s="17">
-        <v>12626</v>
+        <v>13826</v>
       </c>
       <c r="AE41" s="17">
-        <v>13826</v>
+        <v>93300</v>
       </c>
       <c r="AF41" s="17">
-        <v>93300</v>
+        <v>167071</v>
       </c>
       <c r="AG41" s="17">
-        <v>167071</v>
+        <v>251980</v>
       </c>
       <c r="AH41" s="17">
-        <v>251980</v>
+        <v>473649</v>
       </c>
       <c r="AI41" s="17">
-        <v>473649</v>
+        <v>81373</v>
       </c>
       <c r="AJ41" s="17">
-        <v>81373</v>
+        <v>252873</v>
       </c>
       <c r="AK41" s="17">
-        <v>252873</v>
+        <v>148072</v>
       </c>
       <c r="AL41" s="17">
-        <v>148072</v>
+        <v>101783</v>
       </c>
       <c r="AM41" s="17">
-        <v>101783</v>
+        <v>69413</v>
       </c>
       <c r="AN41" s="17">
-        <v>69413</v>
+        <v>70650</v>
       </c>
       <c r="AO41" s="17">
-        <v>70650</v>
+        <v>34669</v>
       </c>
       <c r="AP41" s="17">
-        <v>34669</v>
+        <v>327630</v>
       </c>
       <c r="AQ41" s="17">
-        <v>327630</v>
+        <v>106673</v>
       </c>
       <c r="AR41" s="17">
-        <v>106673</v>
+        <v>130132</v>
       </c>
       <c r="AS41" s="17">
-        <v>130132</v>
+        <v>98229</v>
       </c>
       <c r="AT41" s="17">
-        <v>98229</v>
+        <v>414337</v>
       </c>
       <c r="AU41" s="17">
-        <v>414337</v>
+        <v>69376</v>
       </c>
       <c r="AV41" s="17">
-        <v>69376</v>
+        <v>202689</v>
       </c>
       <c r="AW41" s="17">
-        <v>202689</v>
+        <v>248714</v>
       </c>
       <c r="AX41" s="17">
-        <v>248714</v>
+        <v>117336</v>
       </c>
       <c r="AY41" s="17">
-        <v>117336</v>
+        <v>47800</v>
       </c>
       <c r="AZ41" s="17">
-        <v>47800</v>
+        <v>16945</v>
       </c>
       <c r="BA41" s="17">
-        <v>16945</v>
+        <v>31437</v>
       </c>
       <c r="BB41" s="17">
-        <v>31437</v>
+        <v>70585</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5663,7 +5663,7 @@
     </row>
     <row r="45" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -5935,158 +5935,158 @@
         <v>55</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>69389</v>
+        <v>20694</v>
       </c>
       <c r="F48" s="11">
-        <v>20694</v>
+        <v>6250</v>
       </c>
       <c r="G48" s="11">
-        <v>6250</v>
+        <v>85918</v>
       </c>
       <c r="H48" s="11">
-        <v>85918</v>
+        <v>18536</v>
       </c>
       <c r="I48" s="11">
-        <v>18536</v>
+        <v>27524</v>
       </c>
       <c r="J48" s="11">
-        <v>27524</v>
+        <v>110952</v>
       </c>
       <c r="K48" s="11">
-        <v>110952</v>
+        <v>17805</v>
       </c>
       <c r="L48" s="11">
-        <v>17805</v>
+        <v>22497</v>
       </c>
       <c r="M48" s="11">
-        <v>22497</v>
+        <v>76075</v>
       </c>
       <c r="N48" s="11">
-        <v>76075</v>
+        <v>41595</v>
       </c>
       <c r="O48" s="11">
-        <v>41595</v>
+        <v>50009</v>
       </c>
       <c r="P48" s="11">
-        <v>50009</v>
+        <v>63789</v>
       </c>
       <c r="Q48" s="11">
-        <v>63789</v>
+        <v>31525</v>
       </c>
       <c r="R48" s="11">
-        <v>31525</v>
+        <v>33210</v>
       </c>
       <c r="S48" s="11">
-        <v>33210</v>
+        <v>71041</v>
       </c>
       <c r="T48" s="11">
-        <v>71041</v>
+        <v>46652</v>
       </c>
       <c r="U48" s="11">
-        <v>46652</v>
+        <v>65097</v>
       </c>
       <c r="V48" s="11">
-        <v>65097</v>
+        <v>75992</v>
       </c>
       <c r="W48" s="11">
-        <v>75992</v>
+        <v>8696</v>
       </c>
       <c r="X48" s="11">
-        <v>8696</v>
+        <v>36673</v>
       </c>
       <c r="Y48" s="11">
-        <v>36673</v>
+        <v>20174</v>
       </c>
       <c r="Z48" s="11">
-        <v>20174</v>
+        <v>32243</v>
       </c>
       <c r="AA48" s="11">
-        <v>32243</v>
+        <v>114018</v>
       </c>
       <c r="AB48" s="11">
-        <v>114018</v>
+        <v>278187</v>
       </c>
       <c r="AC48" s="11">
-        <v>278187</v>
+        <v>21064</v>
       </c>
       <c r="AD48" s="11">
-        <v>21064</v>
+        <v>44239</v>
       </c>
       <c r="AE48" s="11">
-        <v>44239</v>
+        <v>136461</v>
       </c>
       <c r="AF48" s="11">
-        <v>136461</v>
+        <v>45394</v>
       </c>
       <c r="AG48" s="11">
-        <v>45394</v>
+        <v>64471</v>
       </c>
       <c r="AH48" s="11">
-        <v>64471</v>
+        <v>59456</v>
       </c>
       <c r="AI48" s="11">
-        <v>59456</v>
+        <v>45548</v>
       </c>
       <c r="AJ48" s="11">
-        <v>45548</v>
+        <v>33395</v>
       </c>
       <c r="AK48" s="11">
-        <v>33395</v>
+        <v>555372</v>
       </c>
       <c r="AL48" s="11">
-        <v>555372</v>
+        <v>107399</v>
       </c>
       <c r="AM48" s="11">
-        <v>107399</v>
+        <v>25731</v>
       </c>
       <c r="AN48" s="11">
-        <v>25731</v>
+        <v>188473</v>
       </c>
       <c r="AO48" s="11">
-        <v>188473</v>
+        <v>8228</v>
       </c>
       <c r="AP48" s="11">
-        <v>8228</v>
+        <v>183548</v>
       </c>
       <c r="AQ48" s="11">
-        <v>183548</v>
+        <v>86669</v>
       </c>
       <c r="AR48" s="11">
-        <v>86669</v>
+        <v>57035</v>
       </c>
       <c r="AS48" s="11">
-        <v>57035</v>
+        <v>-277478</v>
       </c>
       <c r="AT48" s="11">
-        <v>209268</v>
+        <v>54146</v>
       </c>
       <c r="AU48" s="11">
-        <v>54146</v>
+        <v>18802</v>
       </c>
       <c r="AV48" s="11">
-        <v>18802</v>
+        <v>30336</v>
       </c>
       <c r="AW48" s="11">
-        <v>30336</v>
+        <v>46393</v>
       </c>
       <c r="AX48" s="11">
-        <v>46393</v>
+        <v>23112</v>
       </c>
       <c r="AY48" s="11">
-        <v>23112</v>
+        <v>23316</v>
       </c>
       <c r="AZ48" s="11">
-        <v>23316</v>
+        <v>30002</v>
       </c>
       <c r="BA48" s="11">
-        <v>30003</v>
+        <v>27550</v>
       </c>
       <c r="BB48" s="11">
-        <v>27550</v>
+        <v>46134</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6094,794 +6094,794 @@
         <v>57</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
         <v>0</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="S49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB49" s="13" t="s">
-        <v>58</v>
+      <c r="F49" s="13">
+        <v>0</v>
+      </c>
+      <c r="G49" s="13">
+        <v>12268</v>
+      </c>
+      <c r="H49" s="13">
+        <v>151281</v>
+      </c>
+      <c r="I49" s="13">
+        <v>401694</v>
+      </c>
+      <c r="J49" s="13">
+        <v>1290359</v>
+      </c>
+      <c r="K49" s="13">
+        <v>224376</v>
+      </c>
+      <c r="L49" s="13">
+        <v>486470</v>
+      </c>
+      <c r="M49" s="13">
+        <v>189155</v>
+      </c>
+      <c r="N49" s="13">
+        <v>239697</v>
+      </c>
+      <c r="O49" s="13">
+        <v>126763</v>
+      </c>
+      <c r="P49" s="13">
+        <v>25922</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>1949</v>
+      </c>
+      <c r="R49" s="13">
+        <v>0</v>
+      </c>
+      <c r="S49" s="13">
+        <v>14003</v>
+      </c>
+      <c r="T49" s="13">
+        <v>731288</v>
+      </c>
+      <c r="U49" s="13">
+        <v>950740</v>
+      </c>
+      <c r="V49" s="13">
+        <v>790104</v>
+      </c>
+      <c r="W49" s="13">
+        <v>90761</v>
+      </c>
+      <c r="X49" s="13">
+        <v>701235</v>
+      </c>
+      <c r="Y49" s="13">
+        <v>543705</v>
+      </c>
+      <c r="Z49" s="13">
+        <v>557702</v>
+      </c>
+      <c r="AA49" s="13">
+        <v>77764</v>
+      </c>
+      <c r="AB49" s="13">
+        <v>18205</v>
+      </c>
+      <c r="AC49" s="13">
+        <v>6</v>
+      </c>
+      <c r="AD49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="13">
+        <v>315287</v>
+      </c>
+      <c r="AF49" s="13">
+        <v>565369</v>
+      </c>
+      <c r="AG49" s="13">
+        <v>1154082</v>
+      </c>
+      <c r="AH49" s="13">
+        <v>1929855</v>
+      </c>
+      <c r="AI49" s="13">
+        <v>359198</v>
+      </c>
+      <c r="AJ49" s="13">
+        <v>939323</v>
+      </c>
+      <c r="AK49" s="13">
+        <v>796612</v>
+      </c>
+      <c r="AL49" s="13">
+        <v>598485</v>
+      </c>
+      <c r="AM49" s="13">
+        <v>325004</v>
+      </c>
+      <c r="AN49" s="13">
+        <v>248643</v>
+      </c>
+      <c r="AO49" s="13">
+        <v>184980</v>
+      </c>
+      <c r="AP49" s="13">
+        <v>1288847</v>
+      </c>
+      <c r="AQ49" s="13">
+        <v>613896</v>
+      </c>
+      <c r="AR49" s="13">
+        <v>822976</v>
+      </c>
+      <c r="AS49" s="13">
+        <v>224478</v>
+      </c>
+      <c r="AT49" s="13">
+        <v>1707195</v>
+      </c>
+      <c r="AU49" s="13">
+        <v>429525</v>
+      </c>
+      <c r="AV49" s="13">
+        <v>1196530</v>
+      </c>
+      <c r="AW49" s="13">
+        <v>1167229</v>
+      </c>
+      <c r="AX49" s="13">
+        <v>704836</v>
+      </c>
+      <c r="AY49" s="13">
+        <v>294290</v>
+      </c>
+      <c r="AZ49" s="13">
+        <v>29297</v>
+      </c>
+      <c r="BA49" s="13">
+        <v>220719</v>
+      </c>
+      <c r="BB49" s="13">
+        <v>75963</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>0</v>
+        <v>99198</v>
       </c>
       <c r="F50" s="11">
-        <v>0</v>
+        <v>159424</v>
       </c>
       <c r="G50" s="11">
-        <v>0</v>
+        <v>169523</v>
       </c>
       <c r="H50" s="11">
-        <v>12268</v>
+        <v>113947</v>
       </c>
       <c r="I50" s="11">
-        <v>151281</v>
+        <v>177476</v>
       </c>
       <c r="J50" s="11">
-        <v>401694</v>
+        <v>346802</v>
       </c>
       <c r="K50" s="11">
-        <v>1290359</v>
+        <v>129868</v>
       </c>
       <c r="L50" s="11">
-        <v>224376</v>
+        <v>318887</v>
       </c>
       <c r="M50" s="11">
-        <v>486470</v>
+        <v>208936</v>
       </c>
       <c r="N50" s="11">
-        <v>189155</v>
+        <v>191326</v>
       </c>
       <c r="O50" s="11">
-        <v>239697</v>
+        <v>245759</v>
       </c>
       <c r="P50" s="11">
-        <v>126763</v>
+        <v>235435</v>
       </c>
       <c r="Q50" s="11">
-        <v>25922</v>
+        <v>170871</v>
       </c>
       <c r="R50" s="11">
-        <v>1949</v>
+        <v>199461</v>
       </c>
       <c r="S50" s="11">
-        <v>0</v>
+        <v>303601</v>
       </c>
       <c r="T50" s="11">
-        <v>14003</v>
+        <v>274106</v>
       </c>
       <c r="U50" s="11">
-        <v>731288</v>
+        <v>220079</v>
       </c>
       <c r="V50" s="11">
-        <v>950740</v>
+        <v>443127</v>
       </c>
       <c r="W50" s="11">
-        <v>790104</v>
+        <v>95539</v>
       </c>
       <c r="X50" s="11">
-        <v>90761</v>
+        <v>375709</v>
       </c>
       <c r="Y50" s="11">
-        <v>701235</v>
+        <v>288047</v>
       </c>
       <c r="Z50" s="11">
-        <v>543705</v>
+        <v>575897</v>
       </c>
       <c r="AA50" s="11">
-        <v>557702</v>
+        <v>468756</v>
       </c>
       <c r="AB50" s="11">
-        <v>77764</v>
+        <v>449137</v>
       </c>
       <c r="AC50" s="11">
-        <v>18205</v>
+        <v>404099</v>
       </c>
       <c r="AD50" s="11">
-        <v>6</v>
+        <v>495649</v>
       </c>
       <c r="AE50" s="11">
-        <v>0</v>
+        <v>406948</v>
       </c>
       <c r="AF50" s="11">
-        <v>315287</v>
+        <v>425872</v>
       </c>
       <c r="AG50" s="11">
-        <v>565369</v>
+        <v>511284</v>
       </c>
       <c r="AH50" s="11">
-        <v>1154082</v>
+        <v>1092741</v>
       </c>
       <c r="AI50" s="11">
-        <v>1929855</v>
+        <v>99941</v>
       </c>
       <c r="AJ50" s="11">
-        <v>359198</v>
+        <v>525307</v>
       </c>
       <c r="AK50" s="11">
-        <v>939323</v>
+        <v>546548</v>
       </c>
       <c r="AL50" s="11">
-        <v>796612</v>
+        <v>583610</v>
       </c>
       <c r="AM50" s="11">
-        <v>598485</v>
+        <v>495296</v>
       </c>
       <c r="AN50" s="11">
-        <v>325004</v>
+        <v>880314</v>
       </c>
       <c r="AO50" s="11">
-        <v>248643</v>
+        <v>380334</v>
       </c>
       <c r="AP50" s="11">
-        <v>184980</v>
+        <v>591699</v>
       </c>
       <c r="AQ50" s="11">
-        <v>1288847</v>
+        <v>424291</v>
       </c>
       <c r="AR50" s="11">
-        <v>613896</v>
+        <v>606757</v>
       </c>
       <c r="AS50" s="11">
-        <v>822976</v>
+        <v>678753</v>
       </c>
       <c r="AT50" s="11">
-        <v>224478</v>
+        <v>849264</v>
       </c>
       <c r="AU50" s="11">
-        <v>1707195</v>
+        <v>21683</v>
       </c>
       <c r="AV50" s="11">
-        <v>429525</v>
+        <v>694320</v>
       </c>
       <c r="AW50" s="11">
-        <v>1196530</v>
+        <v>1274597</v>
       </c>
       <c r="AX50" s="11">
-        <v>1167229</v>
+        <v>733479</v>
       </c>
       <c r="AY50" s="11">
-        <v>704836</v>
+        <v>591454</v>
       </c>
       <c r="AZ50" s="11">
-        <v>294290</v>
+        <v>1009397</v>
       </c>
       <c r="BA50" s="11">
-        <v>29297</v>
+        <v>780408</v>
       </c>
       <c r="BB50" s="11">
-        <v>220719</v>
+        <v>865742</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>197002</v>
+        <v>0</v>
       </c>
       <c r="F51" s="13">
-        <v>99198</v>
+        <v>218</v>
       </c>
       <c r="G51" s="13">
-        <v>159424</v>
+        <v>2109</v>
       </c>
       <c r="H51" s="13">
-        <v>169523</v>
+        <v>21462</v>
       </c>
       <c r="I51" s="13">
-        <v>113947</v>
+        <v>33305</v>
       </c>
       <c r="J51" s="13">
-        <v>177476</v>
+        <v>167598</v>
       </c>
       <c r="K51" s="13">
-        <v>346802</v>
+        <v>16038</v>
       </c>
       <c r="L51" s="13">
-        <v>129868</v>
+        <v>79528</v>
       </c>
       <c r="M51" s="13">
-        <v>318887</v>
+        <v>62019</v>
       </c>
       <c r="N51" s="13">
-        <v>208936</v>
+        <v>56889</v>
       </c>
       <c r="O51" s="13">
-        <v>191326</v>
+        <v>28373</v>
       </c>
       <c r="P51" s="13">
-        <v>245759</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="13">
-        <v>235435</v>
+        <v>375</v>
       </c>
       <c r="R51" s="13">
-        <v>170871</v>
+        <v>0</v>
       </c>
       <c r="S51" s="13">
-        <v>199461</v>
+        <v>4228</v>
       </c>
       <c r="T51" s="13">
-        <v>303601</v>
+        <v>62412</v>
       </c>
       <c r="U51" s="13">
-        <v>274106</v>
+        <v>129080</v>
       </c>
       <c r="V51" s="13">
-        <v>220079</v>
+        <v>59200</v>
       </c>
       <c r="W51" s="13">
-        <v>443127</v>
+        <v>9210</v>
       </c>
       <c r="X51" s="13">
-        <v>95539</v>
+        <v>149372</v>
       </c>
       <c r="Y51" s="13">
-        <v>375709</v>
+        <v>75049</v>
       </c>
       <c r="Z51" s="13">
-        <v>288047</v>
+        <v>62357</v>
       </c>
       <c r="AA51" s="13">
-        <v>575897</v>
+        <v>13631</v>
       </c>
       <c r="AB51" s="13">
-        <v>468756</v>
+        <v>4896</v>
       </c>
       <c r="AC51" s="13">
-        <v>449137</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="13">
-        <v>404099</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="13">
-        <v>495649</v>
+        <v>30626</v>
       </c>
       <c r="AF51" s="13">
-        <v>406948</v>
+        <v>71002</v>
       </c>
       <c r="AG51" s="13">
-        <v>425872</v>
+        <v>109521</v>
       </c>
       <c r="AH51" s="13">
-        <v>511284</v>
+        <v>213248</v>
       </c>
       <c r="AI51" s="13">
-        <v>1092741</v>
+        <v>39369</v>
       </c>
       <c r="AJ51" s="13">
-        <v>99941</v>
+        <v>155903</v>
       </c>
       <c r="AK51" s="13">
-        <v>525307</v>
+        <v>60478</v>
       </c>
       <c r="AL51" s="13">
-        <v>546548</v>
+        <v>27514</v>
       </c>
       <c r="AM51" s="13">
-        <v>583610</v>
+        <v>28783</v>
       </c>
       <c r="AN51" s="13">
-        <v>495296</v>
+        <v>28074</v>
       </c>
       <c r="AO51" s="13">
-        <v>880314</v>
+        <v>7466</v>
       </c>
       <c r="AP51" s="13">
-        <v>380334</v>
+        <v>179864</v>
       </c>
       <c r="AQ51" s="13">
-        <v>591699</v>
+        <v>42879</v>
       </c>
       <c r="AR51" s="13">
-        <v>424291</v>
+        <v>45240</v>
       </c>
       <c r="AS51" s="13">
-        <v>606757</v>
+        <v>76463</v>
       </c>
       <c r="AT51" s="13">
-        <v>678753</v>
+        <v>283151</v>
       </c>
       <c r="AU51" s="13">
-        <v>849264</v>
+        <v>57327</v>
       </c>
       <c r="AV51" s="13">
-        <v>21683</v>
+        <v>117396</v>
       </c>
       <c r="AW51" s="13">
-        <v>694320</v>
+        <v>194746</v>
       </c>
       <c r="AX51" s="13">
-        <v>1274597</v>
+        <v>77291</v>
       </c>
       <c r="AY51" s="13">
-        <v>733479</v>
+        <v>22499</v>
       </c>
       <c r="AZ51" s="13">
-        <v>591454</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="13">
-        <v>1009397</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="13">
-        <v>780408</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11">
-        <v>1379</v>
-      </c>
-      <c r="F52" s="11">
-        <v>0</v>
-      </c>
-      <c r="G52" s="11">
-        <v>218</v>
-      </c>
-      <c r="H52" s="11">
-        <v>2109</v>
-      </c>
-      <c r="I52" s="11">
-        <v>21462</v>
-      </c>
-      <c r="J52" s="11">
-        <v>33305</v>
-      </c>
-      <c r="K52" s="11">
-        <v>167598</v>
-      </c>
-      <c r="L52" s="11">
-        <v>16038</v>
-      </c>
-      <c r="M52" s="11">
-        <v>79528</v>
-      </c>
-      <c r="N52" s="11">
-        <v>62019</v>
-      </c>
-      <c r="O52" s="11">
-        <v>56889</v>
-      </c>
-      <c r="P52" s="11">
-        <v>28373</v>
-      </c>
-      <c r="Q52" s="11">
-        <v>1</v>
-      </c>
-      <c r="R52" s="11">
-        <v>375</v>
-      </c>
-      <c r="S52" s="11">
-        <v>0</v>
-      </c>
-      <c r="T52" s="11">
-        <v>4228</v>
-      </c>
-      <c r="U52" s="11">
-        <v>62412</v>
-      </c>
-      <c r="V52" s="11">
-        <v>129080</v>
-      </c>
-      <c r="W52" s="11">
-        <v>59200</v>
-      </c>
-      <c r="X52" s="11">
-        <v>9210</v>
-      </c>
-      <c r="Y52" s="11">
-        <v>149372</v>
-      </c>
-      <c r="Z52" s="11">
-        <v>75049</v>
-      </c>
-      <c r="AA52" s="11">
-        <v>62357</v>
-      </c>
-      <c r="AB52" s="11">
-        <v>13631</v>
-      </c>
-      <c r="AC52" s="11">
-        <v>4896</v>
-      </c>
-      <c r="AD52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="11">
-        <v>30626</v>
-      </c>
-      <c r="AG52" s="11">
-        <v>71002</v>
-      </c>
-      <c r="AH52" s="11">
-        <v>109521</v>
-      </c>
-      <c r="AI52" s="11">
-        <v>213248</v>
-      </c>
-      <c r="AJ52" s="11">
-        <v>39369</v>
-      </c>
-      <c r="AK52" s="11">
-        <v>155903</v>
-      </c>
-      <c r="AL52" s="11">
-        <v>60478</v>
-      </c>
-      <c r="AM52" s="11">
-        <v>27514</v>
-      </c>
-      <c r="AN52" s="11">
-        <v>28783</v>
-      </c>
-      <c r="AO52" s="11">
-        <v>28074</v>
-      </c>
-      <c r="AP52" s="11">
-        <v>7466</v>
-      </c>
-      <c r="AQ52" s="11">
-        <v>179864</v>
-      </c>
-      <c r="AR52" s="11">
-        <v>42879</v>
-      </c>
-      <c r="AS52" s="11">
-        <v>45240</v>
-      </c>
-      <c r="AT52" s="11">
-        <v>76463</v>
-      </c>
-      <c r="AU52" s="11">
-        <v>283151</v>
-      </c>
-      <c r="AV52" s="11">
-        <v>57327</v>
-      </c>
-      <c r="AW52" s="11">
-        <v>117396</v>
-      </c>
-      <c r="AX52" s="11">
-        <v>194746</v>
-      </c>
-      <c r="AY52" s="11">
-        <v>77291</v>
+      <c r="E52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="X52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY52" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AZ52" s="11">
-        <v>22499</v>
-      </c>
-      <c r="BA52" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB52" s="11">
-        <v>0</v>
+        <v>227700</v>
+      </c>
+      <c r="BA52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB52" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L53" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="L53" s="13">
+        <v>0</v>
       </c>
       <c r="M53" s="13">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="N53" s="13">
-        <v>729</v>
+        <v>369</v>
       </c>
       <c r="O53" s="13">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P53" s="13">
-        <v>363</v>
-      </c>
-      <c r="Q53" s="13">
         <v>27</v>
       </c>
-      <c r="R53" s="13" t="s">
-        <v>58</v>
+      <c r="Q53" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R53" s="13">
+        <v>644</v>
       </c>
       <c r="S53" s="13">
-        <v>644</v>
+        <v>373</v>
       </c>
       <c r="T53" s="13">
-        <v>373</v>
+        <v>1957</v>
       </c>
       <c r="U53" s="13">
-        <v>1957</v>
+        <v>1139</v>
       </c>
       <c r="V53" s="13">
-        <v>1139</v>
+        <v>631</v>
       </c>
       <c r="W53" s="13">
-        <v>631</v>
+        <v>106</v>
       </c>
       <c r="X53" s="13">
-        <v>106</v>
+        <v>1837</v>
       </c>
       <c r="Y53" s="13">
-        <v>1837</v>
+        <v>551</v>
       </c>
       <c r="Z53" s="13">
-        <v>551</v>
+        <v>847</v>
       </c>
       <c r="AA53" s="13">
-        <v>847</v>
+        <v>2063</v>
       </c>
       <c r="AB53" s="13">
-        <v>2063</v>
+        <v>3229</v>
       </c>
       <c r="AC53" s="13">
-        <v>3229</v>
+        <v>5686</v>
       </c>
       <c r="AD53" s="13">
-        <v>5686</v>
+        <v>10657</v>
       </c>
       <c r="AE53" s="13">
-        <v>10657</v>
+        <v>3960</v>
       </c>
       <c r="AF53" s="13">
-        <v>3960</v>
+        <v>3782</v>
       </c>
       <c r="AG53" s="13">
-        <v>3782</v>
+        <v>6554</v>
       </c>
       <c r="AH53" s="13">
-        <v>6554</v>
+        <v>2480</v>
       </c>
       <c r="AI53" s="13">
-        <v>2480</v>
+        <v>1220</v>
       </c>
       <c r="AJ53" s="13">
-        <v>1220</v>
+        <v>3122</v>
       </c>
       <c r="AK53" s="13">
-        <v>3122</v>
+        <v>4942</v>
       </c>
       <c r="AL53" s="13">
-        <v>4942</v>
+        <v>5274</v>
       </c>
       <c r="AM53" s="13">
-        <v>5274</v>
+        <v>3009</v>
       </c>
       <c r="AN53" s="13">
-        <v>3009</v>
+        <v>4495</v>
       </c>
       <c r="AO53" s="13">
-        <v>4495</v>
+        <v>2135</v>
       </c>
       <c r="AP53" s="13">
-        <v>2135</v>
+        <v>8091</v>
       </c>
       <c r="AQ53" s="13">
-        <v>8091</v>
+        <v>5442</v>
       </c>
       <c r="AR53" s="13">
-        <v>5442</v>
+        <v>5891</v>
       </c>
       <c r="AS53" s="13">
-        <v>5891</v>
+        <v>6355</v>
       </c>
       <c r="AT53" s="13">
-        <v>6355</v>
+        <v>9655</v>
       </c>
       <c r="AU53" s="13">
-        <v>9655</v>
+        <v>0</v>
       </c>
       <c r="AV53" s="13">
-        <v>0</v>
+        <v>9912</v>
       </c>
       <c r="AW53" s="13">
-        <v>9912</v>
+        <v>8239</v>
       </c>
       <c r="AX53" s="13">
-        <v>8239</v>
+        <v>10905</v>
       </c>
       <c r="AY53" s="13">
-        <v>10905</v>
+        <v>14611</v>
       </c>
       <c r="AZ53" s="13">
-        <v>14611</v>
+        <v>10854</v>
       </c>
       <c r="BA53" s="13">
-        <v>10854</v>
+        <v>10636</v>
       </c>
       <c r="BB53" s="13">
-        <v>10636</v>
+        <v>17059</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6943,86 +6943,86 @@
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB55" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC55" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AC55" s="17">
+        <v>0</v>
       </c>
       <c r="AD55" s="17">
         <v>0</v>
@@ -7162,92 +7162,92 @@
         <v>55</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AE57" s="11">
+        <v>-1</v>
       </c>
       <c r="AF57" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG57" s="11">
         <v>0</v>
@@ -7256,10 +7256,10 @@
         <v>0</v>
       </c>
       <c r="AI57" s="11">
-        <v>0</v>
+        <v>-2559</v>
       </c>
       <c r="AJ57" s="11">
-        <v>-2559</v>
+        <v>0</v>
       </c>
       <c r="AK57" s="11">
         <v>0</v>
@@ -7268,19 +7268,19 @@
         <v>0</v>
       </c>
       <c r="AM57" s="11">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AN57" s="11">
-        <v>-23</v>
-      </c>
-      <c r="AO57" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO57" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AP57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AQ57" s="11">
+        <v>0</v>
       </c>
       <c r="AR57" s="11">
         <v>0</v>
@@ -7304,103 +7304,103 @@
         <v>0</v>
       </c>
       <c r="AY57" s="11">
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="AZ57" s="11">
-        <v>-69</v>
-      </c>
-      <c r="BA57" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BA57" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="BB57" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AD58" s="13">
+        <v>0</v>
       </c>
       <c r="AE58" s="13">
         <v>0</v>
@@ -7409,10 +7409,10 @@
         <v>0</v>
       </c>
       <c r="AG58" s="13">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AH58" s="13">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AI58" s="13">
         <v>0</v>
@@ -7432,20 +7432,20 @@
       <c r="AN58" s="13">
         <v>0</v>
       </c>
-      <c r="AO58" s="13">
-        <v>0</v>
+      <c r="AO58" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AP58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AQ58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AR58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AS58" s="13">
+        <v>0</v>
       </c>
       <c r="AT58" s="13">
         <v>0</v>
@@ -7468,110 +7468,110 @@
       <c r="AZ58" s="13">
         <v>0</v>
       </c>
-      <c r="BA58" s="13">
-        <v>0</v>
+      <c r="BA58" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="BB58" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD59" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AD59" s="11">
+        <v>-670</v>
       </c>
       <c r="AE59" s="11">
-        <v>-670</v>
+        <v>-583</v>
       </c>
       <c r="AF59" s="11">
-        <v>-583</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="11">
-        <v>0</v>
+        <v>-1830</v>
       </c>
       <c r="AH59" s="11">
-        <v>-1830</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="11">
         <v>0</v>
@@ -7589,136 +7589,136 @@
         <v>0</v>
       </c>
       <c r="AN59" s="11">
-        <v>0</v>
+        <v>-1353</v>
       </c>
       <c r="AO59" s="11">
-        <v>-1353</v>
+        <v>-346</v>
       </c>
       <c r="AP59" s="11">
-        <v>-346</v>
+        <v>0</v>
       </c>
       <c r="AQ59" s="11">
         <v>0</v>
       </c>
       <c r="AR59" s="11">
-        <v>0</v>
+        <v>-7363</v>
       </c>
       <c r="AS59" s="11">
-        <v>-7363</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="11">
-        <v>0</v>
+        <v>-207</v>
       </c>
       <c r="AU59" s="11">
-        <v>-207</v>
+        <v>0</v>
       </c>
       <c r="AV59" s="11">
         <v>0</v>
       </c>
       <c r="AW59" s="11">
-        <v>0</v>
+        <v>-732</v>
       </c>
       <c r="AX59" s="11">
-        <v>-732</v>
+        <v>0</v>
       </c>
       <c r="AY59" s="11">
-        <v>0</v>
+        <v>-171</v>
       </c>
       <c r="AZ59" s="11">
-        <v>-171</v>
+        <v>-798</v>
       </c>
       <c r="BA59" s="11">
-        <v>-798</v>
+        <v>0</v>
       </c>
       <c r="BB59" s="11">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AD60" s="13">
+        <v>0</v>
       </c>
       <c r="AE60" s="13">
         <v>0</v>
@@ -7750,140 +7750,140 @@
       <c r="AN60" s="13">
         <v>0</v>
       </c>
-      <c r="AO60" s="13">
-        <v>0</v>
+      <c r="AO60" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AP60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AQ60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AR60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AS60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AT60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AU60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AV60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AW60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AX60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AY60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AZ60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BA60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BB60" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AE61" s="11">
+        <v>-123</v>
       </c>
       <c r="AF61" s="11">
-        <v>-123</v>
+        <v>0</v>
       </c>
       <c r="AG61" s="11">
         <v>0</v>
@@ -7912,11 +7912,11 @@
       <c r="AO61" s="11">
         <v>0</v>
       </c>
-      <c r="AP61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ61" s="11" t="s">
-        <v>58</v>
+      <c r="AP61" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ61" s="11">
+        <v>0</v>
       </c>
       <c r="AR61" s="11">
         <v>0</v>
@@ -7945,116 +7945,116 @@
       <c r="AZ61" s="11">
         <v>0</v>
       </c>
-      <c r="BA61" s="11">
-        <v>0</v>
+      <c r="BA61" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="BB61" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB62" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC62" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AC62" s="19">
+        <v>0</v>
       </c>
       <c r="AD62" s="19">
-        <v>0</v>
+        <v>-670</v>
       </c>
       <c r="AE62" s="19">
-        <v>-670</v>
+        <v>-707</v>
       </c>
       <c r="AF62" s="19">
-        <v>-707</v>
+        <v>0</v>
       </c>
       <c r="AG62" s="19">
-        <v>0</v>
+        <v>-1839</v>
       </c>
       <c r="AH62" s="19">
-        <v>-1839</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="19">
-        <v>0</v>
+        <v>-2559</v>
       </c>
       <c r="AJ62" s="19">
-        <v>-2559</v>
+        <v>0</v>
       </c>
       <c r="AK62" s="19">
         <v>0</v>
@@ -8063,52 +8063,52 @@
         <v>0</v>
       </c>
       <c r="AM62" s="19">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AN62" s="19">
-        <v>-23</v>
+        <v>-1353</v>
       </c>
       <c r="AO62" s="19">
-        <v>-1353</v>
+        <v>-346</v>
       </c>
       <c r="AP62" s="19">
-        <v>-346</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="19">
         <v>0</v>
       </c>
       <c r="AR62" s="19">
-        <v>0</v>
+        <v>-7363</v>
       </c>
       <c r="AS62" s="19">
-        <v>-7363</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="19">
-        <v>0</v>
+        <v>-207</v>
       </c>
       <c r="AU62" s="19">
-        <v>-207</v>
+        <v>0</v>
       </c>
       <c r="AV62" s="19">
         <v>0</v>
       </c>
       <c r="AW62" s="19">
-        <v>0</v>
+        <v>-732</v>
       </c>
       <c r="AX62" s="19">
-        <v>-732</v>
+        <v>0</v>
       </c>
       <c r="AY62" s="19">
-        <v>0</v>
+        <v>-240</v>
       </c>
       <c r="AZ62" s="19">
-        <v>-240</v>
+        <v>-798</v>
       </c>
       <c r="BA62" s="19">
-        <v>-798</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="19">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8173,83 +8173,83 @@
         <v>74</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC64" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AC64" s="11">
+        <v>0</v>
       </c>
       <c r="AD64" s="11">
         <v>0</v>
@@ -8329,159 +8329,159 @@
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19">
-        <v>267770</v>
+        <v>119892</v>
       </c>
       <c r="F65" s="19">
-        <v>119892</v>
+        <v>165892</v>
       </c>
       <c r="G65" s="19">
-        <v>165892</v>
+        <v>269818</v>
       </c>
       <c r="H65" s="19">
-        <v>269818</v>
+        <v>305226</v>
       </c>
       <c r="I65" s="19">
-        <v>305226</v>
+        <v>639999</v>
       </c>
       <c r="J65" s="19">
-        <v>639999</v>
+        <v>1915711</v>
       </c>
       <c r="K65" s="19">
-        <v>1915711</v>
+        <v>388087</v>
       </c>
       <c r="L65" s="19">
-        <v>388087</v>
+        <v>907382</v>
       </c>
       <c r="M65" s="19">
-        <v>907382</v>
+        <v>536914</v>
       </c>
       <c r="N65" s="19">
-        <v>536914</v>
+        <v>529876</v>
       </c>
       <c r="O65" s="19">
-        <v>529876</v>
+        <v>451267</v>
       </c>
       <c r="P65" s="19">
-        <v>451267</v>
+        <v>325174</v>
       </c>
       <c r="Q65" s="19">
-        <v>325174</v>
+        <v>204720</v>
       </c>
       <c r="R65" s="19">
-        <v>204720</v>
+        <v>233315</v>
       </c>
       <c r="S65" s="19">
-        <v>233315</v>
+        <v>393246</v>
       </c>
       <c r="T65" s="19">
-        <v>393246</v>
+        <v>1116415</v>
       </c>
       <c r="U65" s="19">
-        <v>1116415</v>
+        <v>1366135</v>
       </c>
       <c r="V65" s="19">
-        <v>1366135</v>
+        <v>1369054</v>
       </c>
       <c r="W65" s="19">
-        <v>1369054</v>
+        <v>204312</v>
       </c>
       <c r="X65" s="19">
-        <v>204312</v>
+        <v>1264826</v>
       </c>
       <c r="Y65" s="19">
-        <v>1264826</v>
+        <v>927526</v>
       </c>
       <c r="Z65" s="19">
-        <v>927526</v>
+        <v>1229046</v>
       </c>
       <c r="AA65" s="19">
-        <v>1229046</v>
+        <v>676232</v>
       </c>
       <c r="AB65" s="19">
-        <v>676232</v>
+        <v>753654</v>
       </c>
       <c r="AC65" s="19">
-        <v>753654</v>
+        <v>430855</v>
       </c>
       <c r="AD65" s="19">
-        <v>430855</v>
+        <v>549875</v>
       </c>
       <c r="AE65" s="19">
-        <v>549875</v>
+        <v>892575</v>
       </c>
       <c r="AF65" s="19">
-        <v>892575</v>
+        <v>1111419</v>
       </c>
       <c r="AG65" s="19">
-        <v>1111419</v>
+        <v>1844073</v>
       </c>
       <c r="AH65" s="19">
-        <v>1844073</v>
+        <v>3297780</v>
       </c>
       <c r="AI65" s="19">
-        <v>3297780</v>
+        <v>542717</v>
       </c>
       <c r="AJ65" s="19">
-        <v>542717</v>
+        <v>1657050</v>
       </c>
       <c r="AK65" s="19">
-        <v>1657050</v>
+        <v>1963952</v>
       </c>
       <c r="AL65" s="19">
-        <v>1963952</v>
+        <v>1322282</v>
       </c>
       <c r="AM65" s="19">
-        <v>1322282</v>
+        <v>877800</v>
       </c>
       <c r="AN65" s="19">
-        <v>877800</v>
+        <v>1348646</v>
       </c>
       <c r="AO65" s="19">
-        <v>1348646</v>
+        <v>582797</v>
       </c>
       <c r="AP65" s="19">
-        <v>582797</v>
+        <v>2252049</v>
       </c>
       <c r="AQ65" s="19">
-        <v>2252049</v>
+        <v>1173177</v>
       </c>
       <c r="AR65" s="19">
-        <v>1173177</v>
+        <v>1530536</v>
       </c>
       <c r="AS65" s="19">
-        <v>1530536</v>
+        <v>708571</v>
       </c>
       <c r="AT65" s="19">
-        <v>1195317</v>
+        <v>2903204</v>
       </c>
       <c r="AU65" s="19">
-        <v>2903204</v>
+        <v>527337</v>
       </c>
       <c r="AV65" s="19">
-        <v>527337</v>
+        <v>2048494</v>
       </c>
       <c r="AW65" s="19">
-        <v>2048494</v>
+        <v>2690472</v>
       </c>
       <c r="AX65" s="19">
-        <v>2690472</v>
+        <v>1549623</v>
       </c>
       <c r="AY65" s="19">
-        <v>1549623</v>
+        <v>945930</v>
       </c>
       <c r="AZ65" s="19">
-        <v>945930</v>
+        <v>1306452</v>
       </c>
       <c r="BA65" s="19">
-        <v>1078753</v>
+        <v>1039313</v>
       </c>
       <c r="BB65" s="19">
-        <v>1039313</v>
+        <v>1074798</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>69389000000</v>
+        <v>0</v>
       </c>
       <c r="F72" s="11">
         <v>0</v>
@@ -8998,83 +8998,83 @@
       <c r="AB72" s="11">
         <v>0</v>
       </c>
-      <c r="AC72" s="11">
-        <v>0</v>
+      <c r="AC72" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AD72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AJ72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AK72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AL72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AM72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AN72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AO72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AP72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AQ72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AR72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AS72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AT72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AU72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AV72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AW72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AX72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AY72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AZ72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BA72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BB72" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9088,788 +9088,629 @@
       <c r="E73" s="13">
         <v>0</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="S73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC73" s="13" t="s">
-        <v>58</v>
+      <c r="F73" s="13">
+        <v>0</v>
+      </c>
+      <c r="G73" s="13">
+        <v>3649018</v>
+      </c>
+      <c r="H73" s="13">
+        <v>3104410</v>
+      </c>
+      <c r="I73" s="13">
+        <v>3308683</v>
+      </c>
+      <c r="J73" s="13">
+        <v>3373108</v>
+      </c>
+      <c r="K73" s="13">
+        <v>2925867</v>
+      </c>
+      <c r="L73" s="13">
+        <v>3987328</v>
+      </c>
+      <c r="M73" s="13">
+        <v>3841491</v>
+      </c>
+      <c r="N73" s="13">
+        <v>3910292</v>
+      </c>
+      <c r="O73" s="13">
+        <v>4251367</v>
+      </c>
+      <c r="P73" s="13">
+        <v>4170206</v>
+      </c>
+      <c r="Q73" s="13">
+        <v>3455674</v>
+      </c>
+      <c r="R73" s="13">
+        <v>0</v>
+      </c>
+      <c r="S73" s="13">
+        <v>2636107</v>
+      </c>
+      <c r="T73" s="13">
+        <v>4006706</v>
+      </c>
+      <c r="U73" s="13">
+        <v>3752082</v>
+      </c>
+      <c r="V73" s="13">
+        <v>3838288</v>
+      </c>
+      <c r="W73" s="13">
+        <v>3624496</v>
+      </c>
+      <c r="X73" s="13">
+        <v>4370672</v>
+      </c>
+      <c r="Y73" s="13">
+        <v>4477075</v>
+      </c>
+      <c r="Z73" s="13">
+        <v>4775623</v>
+      </c>
+      <c r="AA73" s="13">
+        <v>4735932</v>
+      </c>
+      <c r="AB73" s="13">
+        <v>5170406</v>
+      </c>
+      <c r="AC73" s="13">
+        <v>6000000</v>
       </c>
       <c r="AD73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB73" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AE73" s="13">
+        <v>7531940</v>
+      </c>
+      <c r="AF73" s="13">
+        <v>8200885</v>
+      </c>
+      <c r="AG73" s="13">
+        <v>9493617</v>
+      </c>
+      <c r="AH73" s="13">
+        <v>9064608</v>
+      </c>
+      <c r="AI73" s="13">
+        <v>8993440</v>
+      </c>
+      <c r="AJ73" s="13">
+        <v>10705756</v>
+      </c>
+      <c r="AK73" s="13">
+        <v>10350853</v>
+      </c>
+      <c r="AL73" s="13">
+        <v>10201565</v>
+      </c>
+      <c r="AM73" s="13">
+        <v>10648886</v>
+      </c>
+      <c r="AN73" s="13">
+        <v>10334289</v>
+      </c>
+      <c r="AO73" s="13">
+        <v>10932624</v>
+      </c>
+      <c r="AP73" s="13">
+        <v>9532892</v>
+      </c>
+      <c r="AQ73" s="13">
+        <v>10876967</v>
+      </c>
+      <c r="AR73" s="13">
+        <v>10665837</v>
+      </c>
+      <c r="AS73" s="13">
+        <v>12345488</v>
+      </c>
+      <c r="AT73" s="13">
+        <v>11489454</v>
+      </c>
+      <c r="AU73" s="13">
+        <v>14452389</v>
+      </c>
+      <c r="AV73" s="13">
+        <v>12401716</v>
+      </c>
+      <c r="AW73" s="13">
+        <v>13402253</v>
+      </c>
+      <c r="AX73" s="13">
+        <v>14296876</v>
+      </c>
+      <c r="AY73" s="13">
+        <v>14680734</v>
+      </c>
+      <c r="AZ73" s="13">
+        <v>12207083</v>
+      </c>
+      <c r="BA73" s="13">
+        <v>14913446</v>
+      </c>
+      <c r="BB73" s="13">
+        <v>14292192</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>0</v>
+        <v>12980633</v>
       </c>
       <c r="F74" s="11">
-        <v>0</v>
+        <v>12227642</v>
       </c>
       <c r="G74" s="11">
-        <v>0</v>
+        <v>12230214</v>
       </c>
       <c r="H74" s="11">
-        <v>3649018</v>
+        <v>10286811</v>
       </c>
       <c r="I74" s="11">
-        <v>3104410</v>
+        <v>10064421</v>
       </c>
       <c r="J74" s="11">
-        <v>3308683</v>
+        <v>10804474</v>
       </c>
       <c r="K74" s="11">
-        <v>3373108</v>
+        <v>12856945</v>
       </c>
       <c r="L74" s="11">
-        <v>2925867</v>
+        <v>16468033</v>
       </c>
       <c r="M74" s="11">
-        <v>3987328</v>
+        <v>15657674</v>
       </c>
       <c r="N74" s="11">
-        <v>3841491</v>
+        <v>16677650</v>
       </c>
       <c r="O74" s="11">
-        <v>3910292</v>
+        <v>15293982</v>
       </c>
       <c r="P74" s="11">
-        <v>4251367</v>
+        <v>14466052</v>
       </c>
       <c r="Q74" s="11">
-        <v>4170206</v>
+        <v>14687210</v>
       </c>
       <c r="R74" s="11">
-        <v>3455674</v>
+        <v>16965297</v>
       </c>
       <c r="S74" s="11">
-        <v>0</v>
+        <v>13939440</v>
       </c>
       <c r="T74" s="11">
-        <v>2636107</v>
+        <v>14873623</v>
       </c>
       <c r="U74" s="11">
-        <v>4006706</v>
+        <v>16997142</v>
       </c>
       <c r="V74" s="11">
-        <v>3752082</v>
+        <v>18569627</v>
       </c>
       <c r="W74" s="11">
-        <v>3838288</v>
+        <v>23968640</v>
       </c>
       <c r="X74" s="11">
-        <v>3624496</v>
+        <v>17612460</v>
       </c>
       <c r="Y74" s="11">
-        <v>4370672</v>
+        <v>20379723</v>
       </c>
       <c r="Z74" s="11">
-        <v>4477075</v>
+        <v>23219781</v>
       </c>
       <c r="AA74" s="11">
-        <v>4775623</v>
+        <v>27722278</v>
       </c>
       <c r="AB74" s="11">
-        <v>4735932</v>
+        <v>29380323</v>
       </c>
       <c r="AC74" s="11">
-        <v>5170406</v>
+        <v>32181174</v>
       </c>
       <c r="AD74" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="AE74" s="11" t="s">
-        <v>58</v>
+        <v>36099709</v>
+      </c>
+      <c r="AE74" s="11">
+        <v>39235249</v>
       </c>
       <c r="AF74" s="11">
-        <v>7531940</v>
+        <v>40843196</v>
       </c>
       <c r="AG74" s="11">
-        <v>8200885</v>
+        <v>40782005</v>
       </c>
       <c r="AH74" s="11">
-        <v>9493617</v>
+        <v>36036705</v>
       </c>
       <c r="AI74" s="11">
-        <v>9064608</v>
+        <v>30628563</v>
       </c>
       <c r="AJ74" s="11">
-        <v>8993440</v>
+        <v>40395801</v>
       </c>
       <c r="AK74" s="11">
-        <v>10705756</v>
+        <v>45439641</v>
       </c>
       <c r="AL74" s="11">
-        <v>10350853</v>
+        <v>35516675</v>
       </c>
       <c r="AM74" s="11">
-        <v>10201565</v>
+        <v>45166515</v>
       </c>
       <c r="AN74" s="11">
-        <v>10648886</v>
+        <v>45856853</v>
       </c>
       <c r="AO74" s="11">
-        <v>10334289</v>
+        <v>36091668</v>
       </c>
       <c r="AP74" s="11">
-        <v>10932624</v>
+        <v>37487266</v>
       </c>
       <c r="AQ74" s="11">
-        <v>9532892</v>
+        <v>42992299</v>
       </c>
       <c r="AR74" s="11">
-        <v>10876967</v>
+        <v>47178058</v>
       </c>
       <c r="AS74" s="11">
-        <v>10665837</v>
+        <v>46337589</v>
       </c>
       <c r="AT74" s="11">
-        <v>12345488</v>
+        <v>51664679</v>
       </c>
       <c r="AU74" s="11">
-        <v>11489454</v>
+        <v>54755051</v>
       </c>
       <c r="AV74" s="11">
-        <v>14452389</v>
+        <v>56799738</v>
       </c>
       <c r="AW74" s="11">
-        <v>12401716</v>
+        <v>59831808</v>
       </c>
       <c r="AX74" s="11">
-        <v>13402253</v>
+        <v>59685817</v>
       </c>
       <c r="AY74" s="11">
-        <v>14296876</v>
+        <v>55934746</v>
       </c>
       <c r="AZ74" s="11">
-        <v>14680734</v>
+        <v>69733817</v>
       </c>
       <c r="BA74" s="11">
-        <v>12207083</v>
+        <v>47117551</v>
       </c>
       <c r="BB74" s="11">
-        <v>14913446</v>
+        <v>57178654</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>11606103</v>
+        <v>0</v>
       </c>
       <c r="F75" s="13">
-        <v>12980633</v>
+        <v>2691358</v>
       </c>
       <c r="G75" s="13">
-        <v>12227642</v>
+        <v>296249</v>
       </c>
       <c r="H75" s="13">
-        <v>12230214</v>
+        <v>338736</v>
       </c>
       <c r="I75" s="13">
-        <v>10286811</v>
+        <v>341380</v>
       </c>
       <c r="J75" s="13">
-        <v>10064421</v>
+        <v>343706</v>
       </c>
       <c r="K75" s="13">
-        <v>10804474</v>
+        <v>314175</v>
       </c>
       <c r="L75" s="13">
-        <v>12856945</v>
+        <v>412381</v>
       </c>
       <c r="M75" s="13">
-        <v>16468033</v>
+        <v>412086</v>
       </c>
       <c r="N75" s="13">
-        <v>15657674</v>
+        <v>415855</v>
       </c>
       <c r="O75" s="13">
-        <v>16677650</v>
+        <v>417005</v>
       </c>
       <c r="P75" s="13">
-        <v>15293982</v>
+        <v>500000</v>
       </c>
       <c r="Q75" s="13">
-        <v>14466052</v>
+        <v>416667</v>
       </c>
       <c r="R75" s="13">
-        <v>14687210</v>
+        <v>0</v>
       </c>
       <c r="S75" s="13">
-        <v>16965297</v>
+        <v>412086</v>
       </c>
       <c r="T75" s="13">
-        <v>13939440</v>
+        <v>409850</v>
       </c>
       <c r="U75" s="13">
-        <v>14873623</v>
+        <v>402419</v>
       </c>
       <c r="V75" s="13">
-        <v>16997142</v>
+        <v>400216</v>
       </c>
       <c r="W75" s="13">
-        <v>18569627</v>
+        <v>399740</v>
       </c>
       <c r="X75" s="13">
-        <v>23968640</v>
+        <v>431772</v>
       </c>
       <c r="Y75" s="13">
-        <v>17612460</v>
+        <v>485622</v>
       </c>
       <c r="Z75" s="13">
-        <v>20379723</v>
+        <v>124815</v>
       </c>
       <c r="AA75" s="13">
-        <v>23219781</v>
+        <v>497809</v>
       </c>
       <c r="AB75" s="13">
-        <v>27722278</v>
-      </c>
-      <c r="AC75" s="13">
-        <v>29380323</v>
-      </c>
-      <c r="AD75" s="13">
-        <v>32181174</v>
+        <v>680000</v>
+      </c>
+      <c r="AC75" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD75" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AE75" s="13">
-        <v>36099709</v>
+        <v>746248</v>
       </c>
       <c r="AF75" s="13">
-        <v>39235249</v>
+        <v>809961</v>
       </c>
       <c r="AG75" s="13">
-        <v>40843196</v>
+        <v>929089</v>
       </c>
       <c r="AH75" s="13">
-        <v>40782005</v>
+        <v>925556</v>
       </c>
       <c r="AI75" s="13">
-        <v>36036705</v>
+        <v>1031682</v>
       </c>
       <c r="AJ75" s="13">
-        <v>30628563</v>
+        <v>1025003</v>
       </c>
       <c r="AK75" s="13">
-        <v>40395801</v>
+        <v>1024356</v>
       </c>
       <c r="AL75" s="13">
-        <v>45439641</v>
+        <v>1032808</v>
       </c>
       <c r="AM75" s="13">
-        <v>35516675</v>
+        <v>1031649</v>
       </c>
       <c r="AN75" s="13">
-        <v>45166515</v>
+        <v>1026096</v>
       </c>
       <c r="AO75" s="13">
-        <v>45856853</v>
+        <v>1036944</v>
       </c>
       <c r="AP75" s="13">
-        <v>36091668</v>
+        <v>1018575</v>
       </c>
       <c r="AQ75" s="13">
-        <v>37487266</v>
+        <v>1063467</v>
       </c>
       <c r="AR75" s="13">
-        <v>42992299</v>
+        <v>1122024</v>
       </c>
       <c r="AS75" s="13">
-        <v>47178058</v>
+        <v>1170233</v>
       </c>
       <c r="AT75" s="13">
-        <v>46337589</v>
+        <v>1136135</v>
       </c>
       <c r="AU75" s="13">
-        <v>51664679</v>
+        <v>1460188</v>
       </c>
       <c r="AV75" s="13">
-        <v>54755051</v>
+        <v>1249984</v>
       </c>
       <c r="AW75" s="13">
-        <v>56799738</v>
+        <v>1388365</v>
       </c>
       <c r="AX75" s="13">
-        <v>59831808</v>
+        <v>1388129</v>
       </c>
       <c r="AY75" s="13">
-        <v>59685817</v>
-      </c>
-      <c r="AZ75" s="13">
-        <v>55934746</v>
-      </c>
-      <c r="BA75" s="13">
-        <v>69733817</v>
+        <v>1315731</v>
+      </c>
+      <c r="AZ75" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA75" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="BB75" s="13">
-        <v>47117551</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11">
-        <v>191528</v>
-      </c>
-      <c r="F76" s="11">
-        <v>0</v>
-      </c>
-      <c r="G76" s="11">
-        <v>2691358</v>
-      </c>
-      <c r="H76" s="11">
-        <v>296249</v>
-      </c>
-      <c r="I76" s="11">
-        <v>338736</v>
-      </c>
-      <c r="J76" s="11">
-        <v>341380</v>
-      </c>
-      <c r="K76" s="11">
-        <v>343706</v>
+      <c r="E76" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="L76" s="11">
-        <v>314175</v>
+        <v>0</v>
       </c>
       <c r="M76" s="11">
-        <v>412381</v>
+        <v>81000000</v>
       </c>
       <c r="N76" s="11">
-        <v>412086</v>
+        <v>73800000</v>
       </c>
       <c r="O76" s="11">
-        <v>415855</v>
+        <v>90750000</v>
       </c>
       <c r="P76" s="11">
-        <v>417005</v>
-      </c>
-      <c r="Q76" s="11">
-        <v>500000</v>
+        <v>27000000</v>
+      </c>
+      <c r="Q76" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="R76" s="11">
-        <v>416667</v>
+        <v>53666667</v>
       </c>
       <c r="S76" s="11">
-        <v>0</v>
+        <v>26642857</v>
       </c>
       <c r="T76" s="11">
-        <v>412086</v>
+        <v>57558824</v>
       </c>
       <c r="U76" s="11">
-        <v>409850</v>
+        <v>67000000</v>
       </c>
       <c r="V76" s="11">
-        <v>402419</v>
+        <v>45071429</v>
       </c>
       <c r="W76" s="11">
-        <v>400216</v>
+        <v>53000000</v>
       </c>
       <c r="X76" s="11">
-        <v>399740</v>
+        <v>57406250</v>
       </c>
       <c r="Y76" s="11">
-        <v>431772</v>
+        <v>39357143</v>
       </c>
       <c r="Z76" s="11">
-        <v>485622</v>
+        <v>52937500</v>
       </c>
       <c r="AA76" s="11">
-        <v>124815</v>
+        <v>71137931</v>
       </c>
       <c r="AB76" s="11">
-        <v>497809</v>
+        <v>64580000</v>
       </c>
       <c r="AC76" s="11">
-        <v>680000</v>
-      </c>
-      <c r="AD76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE76" s="11" t="s">
-        <v>58</v>
+        <v>83617647</v>
+      </c>
+      <c r="AD76" s="11">
+        <v>100537736</v>
+      </c>
+      <c r="AE76" s="11">
+        <v>101538462</v>
       </c>
       <c r="AF76" s="11">
-        <v>746248</v>
+        <v>87953488</v>
       </c>
       <c r="AG76" s="11">
-        <v>809961</v>
+        <v>91027778</v>
       </c>
       <c r="AH76" s="11">
-        <v>929089</v>
+        <v>95384615</v>
       </c>
       <c r="AI76" s="11">
-        <v>925556</v>
+        <v>122000000</v>
       </c>
       <c r="AJ76" s="11">
-        <v>1031682</v>
+        <v>107655172</v>
       </c>
       <c r="AK76" s="11">
-        <v>1025003</v>
+        <v>114930233</v>
       </c>
       <c r="AL76" s="11">
-        <v>1024356</v>
+        <v>117200000</v>
       </c>
       <c r="AM76" s="11">
-        <v>1032808</v>
+        <v>111444444</v>
       </c>
       <c r="AN76" s="11">
-        <v>1031649</v>
+        <v>132205882</v>
       </c>
       <c r="AO76" s="11">
-        <v>1026096</v>
+        <v>177916667</v>
       </c>
       <c r="AP76" s="11">
-        <v>1036944</v>
+        <v>130500000</v>
       </c>
       <c r="AQ76" s="11">
-        <v>1018575</v>
+        <v>123681818</v>
       </c>
       <c r="AR76" s="11">
-        <v>1063467</v>
+        <v>120224490</v>
       </c>
       <c r="AS76" s="11">
-        <v>1122024</v>
+        <v>109568966</v>
       </c>
       <c r="AT76" s="11">
-        <v>1170233</v>
-      </c>
-      <c r="AU76" s="11">
-        <v>1136135</v>
+        <v>108483146</v>
+      </c>
+      <c r="AU76" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AV76" s="11">
-        <v>1460188</v>
+        <v>150181818</v>
       </c>
       <c r="AW76" s="11">
-        <v>1249984</v>
+        <v>144543860</v>
       </c>
       <c r="AX76" s="11">
-        <v>1388365</v>
+        <v>162761194</v>
       </c>
       <c r="AY76" s="11">
-        <v>1388129</v>
+        <v>158815217</v>
       </c>
       <c r="AZ76" s="11">
-        <v>1315731</v>
-      </c>
-      <c r="BA76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB76" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B77" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M77" s="13">
-        <v>0</v>
-      </c>
-      <c r="N77" s="13">
-        <v>81000000</v>
-      </c>
-      <c r="O77" s="13">
-        <v>73800000</v>
-      </c>
-      <c r="P77" s="13">
-        <v>90750000</v>
-      </c>
-      <c r="Q77" s="13">
-        <v>27000000</v>
-      </c>
-      <c r="R77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="S77" s="13">
-        <v>53666667</v>
-      </c>
-      <c r="T77" s="13">
-        <v>26642857</v>
-      </c>
-      <c r="U77" s="13">
-        <v>57558824</v>
-      </c>
-      <c r="V77" s="13">
-        <v>67000000</v>
-      </c>
-      <c r="W77" s="13">
-        <v>45071429</v>
-      </c>
-      <c r="X77" s="13">
-        <v>53000000</v>
-      </c>
-      <c r="Y77" s="13">
-        <v>57406250</v>
-      </c>
-      <c r="Z77" s="13">
-        <v>39357143</v>
-      </c>
-      <c r="AA77" s="13">
-        <v>52937500</v>
-      </c>
-      <c r="AB77" s="13">
-        <v>71137931</v>
-      </c>
-      <c r="AC77" s="13">
-        <v>64580000</v>
-      </c>
-      <c r="AD77" s="13">
-        <v>83617647</v>
-      </c>
-      <c r="AE77" s="13">
-        <v>100537736</v>
-      </c>
-      <c r="AF77" s="13">
-        <v>101538462</v>
-      </c>
-      <c r="AG77" s="13">
-        <v>87953488</v>
-      </c>
-      <c r="AH77" s="13">
-        <v>91027778</v>
-      </c>
-      <c r="AI77" s="13">
-        <v>95384615</v>
-      </c>
-      <c r="AJ77" s="13">
-        <v>122000000</v>
-      </c>
-      <c r="AK77" s="13">
-        <v>107655172</v>
-      </c>
-      <c r="AL77" s="13">
-        <v>114930233</v>
-      </c>
-      <c r="AM77" s="13">
-        <v>117200000</v>
-      </c>
-      <c r="AN77" s="13">
-        <v>111444444</v>
-      </c>
-      <c r="AO77" s="13">
-        <v>132205882</v>
-      </c>
-      <c r="AP77" s="13">
-        <v>177916667</v>
-      </c>
-      <c r="AQ77" s="13">
-        <v>130500000</v>
-      </c>
-      <c r="AR77" s="13">
-        <v>123681818</v>
-      </c>
-      <c r="AS77" s="13">
-        <v>120224490</v>
-      </c>
-      <c r="AT77" s="13">
-        <v>109568966</v>
-      </c>
-      <c r="AU77" s="13">
-        <v>108483146</v>
-      </c>
-      <c r="AV77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW77" s="13">
-        <v>150181818</v>
-      </c>
-      <c r="AX77" s="13">
-        <v>144543860</v>
-      </c>
-      <c r="AY77" s="13">
-        <v>162761194</v>
-      </c>
-      <c r="AZ77" s="13">
-        <v>158815217</v>
-      </c>
-      <c r="BA77" s="13">
         <v>140961039</v>
       </c>
-      <c r="BB77" s="13">
+      <c r="BA76" s="11">
         <v>143729730</v>
+      </c>
+      <c r="BB76" s="11">
+        <v>131223077</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/bargh/bemoto/product/monthly.xlsx
+++ b/database/industries/bargh/bemoto/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\bargh\bemoto\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B7977A-3689-4C0C-9355-6584C7377B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F23771-FE42-4BD9-86B8-4099F1955F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/database/industries/bargh/bemoto/product/monthly.xlsx
+++ b/database/industries/bargh/bemoto/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\bargh\bemoto\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\bargh\bemoto\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C62BFD2-C06E-473D-8ACC-75D273F77EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0276994F-D3F2-404E-B84E-2CA9DF37712C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 2 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 3 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 4 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 3 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 4 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 5 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر</t>
@@ -742,12 +742,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -802,7 +802,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,7 +859,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -971,7 +971,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1140,7 +1140,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1352,7 +1352,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1577,157 +1577,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>78920</v>
+        <v>78422</v>
       </c>
       <c r="F12" s="13">
-        <v>82492</v>
+        <v>78812</v>
       </c>
       <c r="G12" s="13">
-        <v>78422</v>
+        <v>107940</v>
       </c>
       <c r="H12" s="13">
-        <v>78812</v>
+        <v>72386</v>
       </c>
       <c r="I12" s="13">
-        <v>107940</v>
+        <v>103983</v>
       </c>
       <c r="J12" s="13">
-        <v>72386</v>
+        <v>85178</v>
       </c>
       <c r="K12" s="13">
-        <v>103983</v>
+        <v>100140</v>
       </c>
       <c r="L12" s="13">
-        <v>85178</v>
+        <v>65480</v>
       </c>
       <c r="M12" s="13">
-        <v>100140</v>
+        <v>60266</v>
       </c>
       <c r="N12" s="13">
+        <v>53360</v>
+      </c>
+      <c r="O12" s="13">
+        <v>65320</v>
+      </c>
+      <c r="P12" s="13">
+        <v>62380</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>88540</v>
+      </c>
+      <c r="R12" s="13">
+        <v>106040</v>
+      </c>
+      <c r="S12" s="13">
+        <v>82660</v>
+      </c>
+      <c r="T12" s="13">
+        <v>39800</v>
+      </c>
+      <c r="U12" s="13">
+        <v>86160</v>
+      </c>
+      <c r="V12" s="13">
+        <v>82480</v>
+      </c>
+      <c r="W12" s="13">
+        <v>113120</v>
+      </c>
+      <c r="X12" s="13">
+        <v>42200</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>94916</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>78380</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>80940</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>87120</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>82600</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>87940</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>94572</v>
+      </c>
+      <c r="AF12" s="13">
         <v>65480</v>
       </c>
-      <c r="O12" s="13">
-        <v>60266</v>
-      </c>
-      <c r="P12" s="13">
-        <v>53360</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>65320</v>
-      </c>
-      <c r="R12" s="13">
-        <v>62380</v>
-      </c>
-      <c r="S12" s="13">
-        <v>88540</v>
-      </c>
-      <c r="T12" s="13">
-        <v>106040</v>
-      </c>
-      <c r="U12" s="13">
-        <v>82660</v>
-      </c>
-      <c r="V12" s="13">
-        <v>39800</v>
-      </c>
-      <c r="W12" s="13">
-        <v>86160</v>
-      </c>
-      <c r="X12" s="13">
-        <v>82480</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>113120</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>42200</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>94916</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>78380</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>80940</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>87120</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>82600</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>87940</v>
-      </c>
       <c r="AG12" s="13">
-        <v>94572</v>
+        <v>77320</v>
       </c>
       <c r="AH12" s="13">
-        <v>65480</v>
+        <v>69060</v>
       </c>
       <c r="AI12" s="13">
-        <v>77320</v>
+        <v>73960</v>
       </c>
       <c r="AJ12" s="13">
-        <v>69060</v>
+        <v>28180</v>
       </c>
       <c r="AK12" s="13">
-        <v>73960</v>
+        <v>62680</v>
       </c>
       <c r="AL12" s="13">
-        <v>28180</v>
+        <v>50380</v>
       </c>
       <c r="AM12" s="13">
-        <v>62680</v>
+        <v>75240</v>
       </c>
       <c r="AN12" s="13">
-        <v>50380</v>
+        <v>78780</v>
       </c>
       <c r="AO12" s="13">
-        <v>75240</v>
+        <v>83840</v>
       </c>
       <c r="AP12" s="13">
-        <v>78780</v>
+        <v>53100</v>
       </c>
       <c r="AQ12" s="13">
-        <v>83840</v>
+        <v>58400</v>
       </c>
       <c r="AR12" s="13">
-        <v>53100</v>
+        <v>41840</v>
       </c>
       <c r="AS12" s="13">
-        <v>58400</v>
+        <v>60160</v>
       </c>
       <c r="AT12" s="13">
-        <v>41840</v>
+        <v>87040</v>
       </c>
       <c r="AU12" s="13">
-        <v>60160</v>
+        <v>71460</v>
       </c>
       <c r="AV12" s="13">
-        <v>87040</v>
+        <v>54880</v>
       </c>
       <c r="AW12" s="13">
-        <v>71460</v>
+        <v>58708</v>
       </c>
       <c r="AX12" s="13">
-        <v>54880</v>
+        <v>56360</v>
       </c>
       <c r="AY12" s="13">
-        <v>58708</v>
+        <v>82858</v>
       </c>
       <c r="AZ12" s="13">
-        <v>56360</v>
+        <v>80400</v>
       </c>
       <c r="BA12" s="13">
-        <v>82858</v>
+        <v>74420</v>
       </c>
       <c r="BB12" s="13">
-        <v>80400</v>
+        <v>79825</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1736,157 +1736,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>13890</v>
+        <v>13214</v>
       </c>
       <c r="F13" s="11">
-        <v>13772</v>
+        <v>13892</v>
       </c>
       <c r="G13" s="11">
-        <v>13214</v>
+        <v>13791</v>
       </c>
       <c r="H13" s="11">
-        <v>13892</v>
+        <v>9392</v>
       </c>
       <c r="I13" s="11">
-        <v>13791</v>
+        <v>16775</v>
       </c>
       <c r="J13" s="11">
-        <v>9392</v>
+        <v>11371</v>
       </c>
       <c r="K13" s="11">
-        <v>16775</v>
+        <v>13597</v>
       </c>
       <c r="L13" s="11">
-        <v>11371</v>
+        <v>17489</v>
       </c>
       <c r="M13" s="11">
-        <v>13597</v>
+        <v>17560</v>
       </c>
       <c r="N13" s="11">
-        <v>17489</v>
+        <v>13464</v>
       </c>
       <c r="O13" s="11">
-        <v>17560</v>
+        <v>16810</v>
       </c>
       <c r="P13" s="11">
-        <v>13464</v>
+        <v>17966</v>
       </c>
       <c r="Q13" s="11">
-        <v>16810</v>
+        <v>20260</v>
       </c>
       <c r="R13" s="11">
-        <v>17966</v>
+        <v>18519</v>
       </c>
       <c r="S13" s="11">
-        <v>20260</v>
+        <v>15457</v>
       </c>
       <c r="T13" s="11">
-        <v>18519</v>
+        <v>5730</v>
       </c>
       <c r="U13" s="11">
-        <v>15457</v>
+        <v>15029</v>
       </c>
       <c r="V13" s="11">
-        <v>5730</v>
+        <v>14761</v>
       </c>
       <c r="W13" s="11">
-        <v>15029</v>
+        <v>20291</v>
       </c>
       <c r="X13" s="11">
-        <v>14761</v>
+        <v>8937</v>
       </c>
       <c r="Y13" s="11">
-        <v>20291</v>
+        <v>15213</v>
       </c>
       <c r="Z13" s="11">
-        <v>8937</v>
+        <v>17303</v>
       </c>
       <c r="AA13" s="11">
-        <v>15213</v>
+        <v>17329</v>
       </c>
       <c r="AB13" s="11">
-        <v>17303</v>
+        <v>21615</v>
       </c>
       <c r="AC13" s="11">
-        <v>17329</v>
+        <v>17570</v>
       </c>
       <c r="AD13" s="11">
-        <v>21615</v>
+        <v>20098</v>
       </c>
       <c r="AE13" s="11">
-        <v>17570</v>
+        <v>17153</v>
       </c>
       <c r="AF13" s="11">
-        <v>20098</v>
+        <v>8571</v>
       </c>
       <c r="AG13" s="11">
-        <v>17153</v>
+        <v>18289</v>
       </c>
       <c r="AH13" s="11">
-        <v>8571</v>
+        <v>17938</v>
       </c>
       <c r="AI13" s="11">
-        <v>18289</v>
+        <v>17707</v>
       </c>
       <c r="AJ13" s="11">
-        <v>17938</v>
+        <v>6506</v>
       </c>
       <c r="AK13" s="11">
-        <v>17707</v>
+        <v>13382</v>
       </c>
       <c r="AL13" s="11">
-        <v>6506</v>
+        <v>14299</v>
       </c>
       <c r="AM13" s="11">
-        <v>13382</v>
+        <v>22628</v>
       </c>
       <c r="AN13" s="11">
-        <v>14299</v>
+        <v>21771</v>
       </c>
       <c r="AO13" s="11">
-        <v>22628</v>
+        <v>17138</v>
       </c>
       <c r="AP13" s="11">
-        <v>21771</v>
+        <v>11174</v>
       </c>
       <c r="AQ13" s="11">
-        <v>17138</v>
+        <v>15973</v>
       </c>
       <c r="AR13" s="11">
-        <v>11174</v>
+        <v>9483</v>
       </c>
       <c r="AS13" s="11">
-        <v>15973</v>
+        <v>15590</v>
       </c>
       <c r="AT13" s="11">
-        <v>9483</v>
+        <v>16494</v>
       </c>
       <c r="AU13" s="11">
-        <v>15590</v>
+        <v>15584</v>
       </c>
       <c r="AV13" s="11">
-        <v>16494</v>
+        <v>12780</v>
       </c>
       <c r="AW13" s="11">
-        <v>15584</v>
+        <v>16905</v>
       </c>
       <c r="AX13" s="11">
-        <v>12780</v>
+        <v>10837</v>
       </c>
       <c r="AY13" s="11">
-        <v>16905</v>
+        <v>15580</v>
       </c>
       <c r="AZ13" s="11">
-        <v>10837</v>
+        <v>12056</v>
       </c>
       <c r="BA13" s="11">
-        <v>15580</v>
+        <v>16510</v>
       </c>
       <c r="BB13" s="11">
-        <v>12056</v>
+        <v>18276</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>59</v>
       </c>
@@ -1895,157 +1895,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>95760</v>
+        <v>101700</v>
       </c>
       <c r="F14" s="13">
-        <v>101880</v>
+        <v>93060</v>
       </c>
       <c r="G14" s="13">
-        <v>101700</v>
+        <v>109981</v>
       </c>
       <c r="H14" s="13">
-        <v>93060</v>
+        <v>71712</v>
       </c>
       <c r="I14" s="13">
-        <v>109981</v>
+        <v>140760</v>
       </c>
       <c r="J14" s="13">
-        <v>71712</v>
+        <v>131724</v>
       </c>
       <c r="K14" s="13">
-        <v>140760</v>
+        <v>146376</v>
       </c>
       <c r="L14" s="13">
-        <v>131724</v>
+        <v>104400</v>
       </c>
       <c r="M14" s="13">
-        <v>146376</v>
+        <v>127800</v>
       </c>
       <c r="N14" s="13">
-        <v>104400</v>
+        <v>126000</v>
       </c>
       <c r="O14" s="13">
-        <v>127800</v>
+        <v>114144</v>
       </c>
       <c r="P14" s="13">
-        <v>126000</v>
+        <v>102250</v>
       </c>
       <c r="Q14" s="13">
-        <v>114144</v>
+        <v>114660</v>
       </c>
       <c r="R14" s="13">
-        <v>102250</v>
+        <v>124560</v>
       </c>
       <c r="S14" s="13">
-        <v>114660</v>
+        <v>108180</v>
       </c>
       <c r="T14" s="13">
-        <v>124560</v>
+        <v>47160</v>
       </c>
       <c r="U14" s="13">
+        <v>160680</v>
+      </c>
+      <c r="V14" s="13">
+        <v>105360</v>
+      </c>
+      <c r="W14" s="13">
+        <v>124814</v>
+      </c>
+      <c r="X14" s="13">
+        <v>82546</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>111530</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>90720</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>82800</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>120960</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>130680</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>136080</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>91440</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>128700</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>125640</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>109440</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>35280</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>2160</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>60120</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>43200</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>19080</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>47160</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>66800</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>105120</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>109980</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>108000</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>93600</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>110700</v>
+      </c>
+      <c r="AX14" s="13">
+        <v>79920</v>
+      </c>
+      <c r="AY14" s="13">
+        <v>95220</v>
+      </c>
+      <c r="AZ14" s="13">
+        <v>88380</v>
+      </c>
+      <c r="BA14" s="13">
+        <v>98640</v>
+      </c>
+      <c r="BB14" s="13">
         <v>108180</v>
       </c>
-      <c r="V14" s="13">
-        <v>47160</v>
-      </c>
-      <c r="W14" s="13">
-        <v>160680</v>
-      </c>
-      <c r="X14" s="13">
-        <v>105360</v>
-      </c>
-      <c r="Y14" s="13">
-        <v>124814</v>
-      </c>
-      <c r="Z14" s="13">
-        <v>82546</v>
-      </c>
-      <c r="AA14" s="13">
-        <v>111530</v>
-      </c>
-      <c r="AB14" s="13">
-        <v>90720</v>
-      </c>
-      <c r="AC14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="13">
-        <v>82800</v>
-      </c>
-      <c r="AE14" s="13">
-        <v>120960</v>
-      </c>
-      <c r="AF14" s="13">
-        <v>130680</v>
-      </c>
-      <c r="AG14" s="13">
-        <v>136080</v>
-      </c>
-      <c r="AH14" s="13">
-        <v>91440</v>
-      </c>
-      <c r="AI14" s="13">
-        <v>128700</v>
-      </c>
-      <c r="AJ14" s="13">
-        <v>125640</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>109440</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>35280</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>2160</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>60120</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>43200</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>19080</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>47160</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>66800</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>105120</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>109980</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>108000</v>
-      </c>
-      <c r="AX14" s="13">
-        <v>93600</v>
-      </c>
-      <c r="AY14" s="13">
-        <v>110700</v>
-      </c>
-      <c r="AZ14" s="13">
-        <v>79920</v>
-      </c>
-      <c r="BA14" s="13">
-        <v>95220</v>
-      </c>
-      <c r="BB14" s="13">
-        <v>88380</v>
-      </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>60</v>
       </c>
@@ -2185,26 +2185,26 @@
       <c r="AV15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AW15" s="11" t="s">
-        <v>62</v>
+      <c r="AW15" s="11">
+        <v>0</v>
       </c>
       <c r="AX15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AY15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB15" s="11" t="s">
-        <v>62</v>
+      <c r="AY15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ15" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2224,146 +2224,146 @@
       <c r="H16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>62</v>
+      <c r="I16" s="13">
+        <v>23</v>
+      </c>
+      <c r="J16" s="13">
+        <v>26</v>
       </c>
       <c r="K16" s="13">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="L16" s="13">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="M16" s="13">
-        <v>7</v>
-      </c>
-      <c r="N16" s="13">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="O16" s="13">
-        <v>33</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0</v>
       </c>
       <c r="Q16" s="13">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="R16" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S16" s="13">
+        <v>76</v>
+      </c>
+      <c r="T16" s="13">
+        <v>20</v>
+      </c>
+      <c r="U16" s="13">
+        <v>89</v>
+      </c>
+      <c r="V16" s="13">
+        <v>61</v>
+      </c>
+      <c r="W16" s="13">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>181</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>38</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>108</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>156</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>129</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>138</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>100</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>81</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>128</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>142</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>141</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>50</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>90</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>100</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>61</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>106</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>100</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>60</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>56</v>
+      </c>
+      <c r="AR16" s="13">
         <v>40</v>
       </c>
-      <c r="T16" s="13">
-        <v>50</v>
-      </c>
-      <c r="U16" s="13">
-        <v>76</v>
-      </c>
-      <c r="V16" s="13">
-        <v>20</v>
-      </c>
-      <c r="W16" s="13">
-        <v>89</v>
-      </c>
-      <c r="X16" s="13">
-        <v>61</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>181</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>38</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>108</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>156</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>129</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>138</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>100</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>81</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>128</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>142</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>141</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>50</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>90</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>100</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>61</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>106</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>100</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>60</v>
-      </c>
       <c r="AS16" s="13">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AT16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>13</v>
+      </c>
+      <c r="AV16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>43</v>
+      </c>
+      <c r="AX16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="13">
         <v>40</v>
       </c>
-      <c r="AU16" s="13">
-        <v>63</v>
-      </c>
-      <c r="AV16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="13">
-        <v>13</v>
-      </c>
-      <c r="AX16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="13">
-        <v>43</v>
-      </c>
       <c r="AZ16" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BA16" s="13">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="BB16" s="13">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2512,17 +2512,17 @@
       <c r="AY17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AZ17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA17" s="11" t="s">
-        <v>62</v>
+      <c r="AZ17" s="11">
+        <v>213</v>
+      </c>
+      <c r="BA17" s="11">
+        <v>0</v>
       </c>
       <c r="BB17" s="11">
-        <v>213</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2671,17 +2671,17 @@
       <c r="AY18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AZ18" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA18" s="13" t="s">
-        <v>62</v>
+      <c r="AZ18" s="13">
+        <v>144</v>
+      </c>
+      <c r="BA18" s="13">
+        <v>0</v>
       </c>
       <c r="BB18" s="13">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>66</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="BA19" s="15"/>
       <c r="BB19" s="15"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>67</v>
       </c>
@@ -2807,11 +2807,11 @@
       <c r="Y20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Z20" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA20" s="17" t="s">
-        <v>62</v>
+      <c r="Z20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="17">
+        <v>0</v>
       </c>
       <c r="AB20" s="17">
         <v>0</v>
@@ -2895,164 +2895,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19">
-        <v>188570</v>
+        <v>193336</v>
       </c>
       <c r="F21" s="19">
-        <v>198144</v>
+        <v>185764</v>
       </c>
       <c r="G21" s="19">
-        <v>193336</v>
+        <v>231712</v>
       </c>
       <c r="H21" s="19">
-        <v>185764</v>
+        <v>153490</v>
       </c>
       <c r="I21" s="19">
-        <v>231712</v>
+        <v>261541</v>
       </c>
       <c r="J21" s="19">
-        <v>153490</v>
+        <v>228299</v>
       </c>
       <c r="K21" s="19">
-        <v>261541</v>
+        <v>260120</v>
       </c>
       <c r="L21" s="19">
-        <v>228299</v>
+        <v>187375</v>
       </c>
       <c r="M21" s="19">
-        <v>260120</v>
+        <v>205659</v>
       </c>
       <c r="N21" s="19">
-        <v>187375</v>
+        <v>192824</v>
       </c>
       <c r="O21" s="19">
-        <v>205659</v>
+        <v>196321</v>
       </c>
       <c r="P21" s="19">
-        <v>192824</v>
+        <v>182596</v>
       </c>
       <c r="Q21" s="19">
-        <v>196321</v>
+        <v>223500</v>
       </c>
       <c r="R21" s="19">
-        <v>182596</v>
+        <v>249169</v>
       </c>
       <c r="S21" s="19">
-        <v>223500</v>
+        <v>206373</v>
       </c>
       <c r="T21" s="19">
-        <v>249169</v>
+        <v>92710</v>
       </c>
       <c r="U21" s="19">
-        <v>206373</v>
+        <v>261958</v>
       </c>
       <c r="V21" s="19">
-        <v>92710</v>
+        <v>202662</v>
       </c>
       <c r="W21" s="19">
-        <v>261958</v>
+        <v>258225</v>
       </c>
       <c r="X21" s="19">
-        <v>202662</v>
+        <v>133683</v>
       </c>
       <c r="Y21" s="19">
-        <v>258225</v>
+        <v>221840</v>
       </c>
       <c r="Z21" s="19">
-        <v>133683</v>
+        <v>186441</v>
       </c>
       <c r="AA21" s="19">
-        <v>221840</v>
+        <v>98377</v>
       </c>
       <c r="AB21" s="19">
-        <v>186441</v>
+        <v>191691</v>
       </c>
       <c r="AC21" s="19">
-        <v>98377</v>
+        <v>221259</v>
       </c>
       <c r="AD21" s="19">
-        <v>191691</v>
+        <v>238856</v>
       </c>
       <c r="AE21" s="19">
-        <v>221259</v>
+        <v>247905</v>
       </c>
       <c r="AF21" s="19">
-        <v>238856</v>
+        <v>165572</v>
       </c>
       <c r="AG21" s="19">
-        <v>247905</v>
+        <v>224437</v>
       </c>
       <c r="AH21" s="19">
-        <v>165572</v>
+        <v>212780</v>
       </c>
       <c r="AI21" s="19">
-        <v>224437</v>
+        <v>201248</v>
       </c>
       <c r="AJ21" s="19">
-        <v>212780</v>
+        <v>70016</v>
       </c>
       <c r="AK21" s="19">
-        <v>201248</v>
+        <v>78312</v>
       </c>
       <c r="AL21" s="19">
-        <v>70016</v>
+        <v>64779</v>
       </c>
       <c r="AM21" s="19">
-        <v>78312</v>
+        <v>97929</v>
       </c>
       <c r="AN21" s="19">
-        <v>64779</v>
+        <v>160777</v>
       </c>
       <c r="AO21" s="19">
-        <v>97929</v>
+        <v>144278</v>
       </c>
       <c r="AP21" s="19">
-        <v>160777</v>
+        <v>83414</v>
       </c>
       <c r="AQ21" s="19">
-        <v>144278</v>
+        <v>121589</v>
       </c>
       <c r="AR21" s="19">
-        <v>83414</v>
+        <v>118163</v>
       </c>
       <c r="AS21" s="19">
-        <v>121589</v>
+        <v>180933</v>
       </c>
       <c r="AT21" s="19">
-        <v>118163</v>
+        <v>213514</v>
       </c>
       <c r="AU21" s="19">
-        <v>180933</v>
+        <v>195057</v>
       </c>
       <c r="AV21" s="19">
-        <v>213514</v>
+        <v>161260</v>
       </c>
       <c r="AW21" s="19">
-        <v>195057</v>
+        <v>186356</v>
       </c>
       <c r="AX21" s="19">
-        <v>161260</v>
+        <v>147117</v>
       </c>
       <c r="AY21" s="19">
-        <v>186356</v>
+        <v>193698</v>
       </c>
       <c r="AZ21" s="19">
-        <v>147117</v>
+        <v>181222</v>
       </c>
       <c r="BA21" s="19">
-        <v>193698</v>
+        <v>189599</v>
       </c>
       <c r="BB21" s="19">
-        <v>181222</v>
+        <v>206332</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3107,7 +3107,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3162,7 +3162,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3217,7 +3217,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>69</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3429,7 +3429,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>69</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>55</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>57</v>
       </c>
@@ -3654,157 +3654,157 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>0</v>
+        <v>48731</v>
       </c>
       <c r="F29" s="13">
-        <v>3362</v>
+        <v>121406</v>
       </c>
       <c r="G29" s="13">
-        <v>48731</v>
+        <v>382543</v>
       </c>
       <c r="H29" s="13">
-        <v>121406</v>
+        <v>76687</v>
       </c>
       <c r="I29" s="13">
-        <v>382543</v>
+        <v>122004</v>
       </c>
       <c r="J29" s="13">
-        <v>76687</v>
+        <v>49240</v>
       </c>
       <c r="K29" s="13">
-        <v>122004</v>
+        <v>61299</v>
       </c>
       <c r="L29" s="13">
-        <v>49240</v>
+        <v>29817</v>
       </c>
       <c r="M29" s="13">
-        <v>61299</v>
+        <v>6216</v>
       </c>
       <c r="N29" s="13">
-        <v>29817</v>
+        <v>564</v>
       </c>
       <c r="O29" s="13">
-        <v>6216</v>
+        <v>0</v>
       </c>
       <c r="P29" s="13">
-        <v>564</v>
+        <v>5312</v>
       </c>
       <c r="Q29" s="13">
-        <v>0</v>
+        <v>182516</v>
       </c>
       <c r="R29" s="13">
-        <v>5312</v>
+        <v>253390</v>
       </c>
       <c r="S29" s="13">
-        <v>182516</v>
+        <v>205848</v>
       </c>
       <c r="T29" s="13">
-        <v>253390</v>
+        <v>25041</v>
       </c>
       <c r="U29" s="13">
-        <v>205848</v>
+        <v>160441</v>
       </c>
       <c r="V29" s="13">
-        <v>25041</v>
+        <v>121442</v>
       </c>
       <c r="W29" s="13">
-        <v>160441</v>
+        <v>116781</v>
       </c>
       <c r="X29" s="13">
-        <v>121442</v>
+        <v>16420</v>
       </c>
       <c r="Y29" s="13">
-        <v>116781</v>
+        <v>3521</v>
       </c>
       <c r="Z29" s="13">
-        <v>16420</v>
+        <v>1</v>
       </c>
       <c r="AA29" s="13">
-        <v>3521</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="13">
-        <v>1</v>
+        <v>41860</v>
       </c>
       <c r="AC29" s="13">
-        <v>0</v>
+        <v>68940</v>
       </c>
       <c r="AD29" s="13">
-        <v>41860</v>
+        <v>121564</v>
       </c>
       <c r="AE29" s="13">
-        <v>68940</v>
+        <v>212900</v>
       </c>
       <c r="AF29" s="13">
-        <v>121564</v>
+        <v>39940</v>
       </c>
       <c r="AG29" s="13">
-        <v>212900</v>
+        <v>87740</v>
       </c>
       <c r="AH29" s="13">
-        <v>39940</v>
+        <v>76961</v>
       </c>
       <c r="AI29" s="13">
-        <v>87740</v>
+        <v>58666</v>
       </c>
       <c r="AJ29" s="13">
-        <v>76961</v>
+        <v>30520</v>
       </c>
       <c r="AK29" s="13">
-        <v>58666</v>
+        <v>24060</v>
       </c>
       <c r="AL29" s="13">
-        <v>30520</v>
+        <v>16920</v>
       </c>
       <c r="AM29" s="13">
-        <v>24060</v>
+        <v>135200</v>
       </c>
       <c r="AN29" s="13">
-        <v>16920</v>
+        <v>56440</v>
       </c>
       <c r="AO29" s="13">
-        <v>135200</v>
+        <v>77160</v>
       </c>
       <c r="AP29" s="13">
-        <v>56440</v>
+        <v>18183</v>
       </c>
       <c r="AQ29" s="13">
-        <v>77160</v>
+        <v>148588</v>
       </c>
       <c r="AR29" s="13">
-        <v>18183</v>
+        <v>29720</v>
       </c>
       <c r="AS29" s="13">
-        <v>148588</v>
+        <v>96481</v>
       </c>
       <c r="AT29" s="13">
-        <v>29720</v>
+        <v>87092</v>
       </c>
       <c r="AU29" s="13">
-        <v>96481</v>
+        <v>49300</v>
       </c>
       <c r="AV29" s="13">
-        <v>87092</v>
+        <v>20046</v>
       </c>
       <c r="AW29" s="13">
-        <v>49300</v>
+        <v>2400</v>
       </c>
       <c r="AX29" s="13">
-        <v>20046</v>
+        <v>14800</v>
       </c>
       <c r="AY29" s="13">
-        <v>2400</v>
+        <v>5315</v>
       </c>
       <c r="AZ29" s="13">
-        <v>14800</v>
+        <v>177763</v>
       </c>
       <c r="BA29" s="13">
-        <v>5315</v>
+        <v>15990</v>
       </c>
       <c r="BB29" s="13">
-        <v>177763</v>
+        <v>281127</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>58</v>
       </c>
@@ -3813,157 +3813,157 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>13038</v>
+        <v>11077</v>
       </c>
       <c r="F30" s="11">
-        <v>13861</v>
+        <v>17634</v>
       </c>
       <c r="G30" s="11">
-        <v>11077</v>
+        <v>32098</v>
       </c>
       <c r="H30" s="11">
-        <v>17634</v>
+        <v>10101</v>
       </c>
       <c r="I30" s="11">
-        <v>32098</v>
+        <v>19364</v>
       </c>
       <c r="J30" s="11">
-        <v>10101</v>
+        <v>13344</v>
       </c>
       <c r="K30" s="11">
-        <v>19364</v>
+        <v>11472</v>
       </c>
       <c r="L30" s="11">
-        <v>13344</v>
+        <v>16069</v>
       </c>
       <c r="M30" s="11">
-        <v>11472</v>
+        <v>16275</v>
       </c>
       <c r="N30" s="11">
-        <v>16069</v>
+        <v>11634</v>
       </c>
       <c r="O30" s="11">
-        <v>16275</v>
+        <v>11757</v>
       </c>
       <c r="P30" s="11">
-        <v>11634</v>
+        <v>21780</v>
       </c>
       <c r="Q30" s="11">
-        <v>11757</v>
+        <v>18429</v>
       </c>
       <c r="R30" s="11">
-        <v>21780</v>
+        <v>12948</v>
       </c>
       <c r="S30" s="11">
-        <v>18429</v>
+        <v>23863</v>
       </c>
       <c r="T30" s="11">
-        <v>12948</v>
+        <v>3986</v>
       </c>
       <c r="U30" s="11">
-        <v>23863</v>
+        <v>21332</v>
       </c>
       <c r="V30" s="11">
-        <v>3986</v>
+        <v>14134</v>
       </c>
       <c r="W30" s="11">
-        <v>21332</v>
+        <v>24802</v>
       </c>
       <c r="X30" s="11">
-        <v>14134</v>
+        <v>16909</v>
       </c>
       <c r="Y30" s="11">
-        <v>24802</v>
+        <v>15287</v>
       </c>
       <c r="Z30" s="11">
-        <v>16909</v>
+        <v>12557</v>
       </c>
       <c r="AA30" s="11">
-        <v>15287</v>
+        <v>13730</v>
       </c>
       <c r="AB30" s="11">
-        <v>12557</v>
+        <v>10372</v>
       </c>
       <c r="AC30" s="11">
-        <v>13730</v>
+        <v>10427</v>
       </c>
       <c r="AD30" s="11">
-        <v>10372</v>
+        <v>12537</v>
       </c>
       <c r="AE30" s="11">
-        <v>10427</v>
+        <v>30323</v>
       </c>
       <c r="AF30" s="11">
-        <v>12537</v>
+        <v>3263</v>
       </c>
       <c r="AG30" s="11">
-        <v>30323</v>
+        <v>13004</v>
       </c>
       <c r="AH30" s="11">
-        <v>3263</v>
+        <v>12028</v>
       </c>
       <c r="AI30" s="11">
-        <v>13004</v>
+        <v>16432</v>
       </c>
       <c r="AJ30" s="11">
-        <v>12028</v>
+        <v>10966</v>
       </c>
       <c r="AK30" s="11">
-        <v>16432</v>
+        <v>19197</v>
       </c>
       <c r="AL30" s="11">
-        <v>10966</v>
+        <v>10538</v>
       </c>
       <c r="AM30" s="11">
-        <v>19197</v>
+        <v>15784</v>
       </c>
       <c r="AN30" s="11">
-        <v>10538</v>
+        <v>9869</v>
       </c>
       <c r="AO30" s="11">
-        <v>15784</v>
+        <v>12861</v>
       </c>
       <c r="AP30" s="11">
-        <v>9869</v>
+        <v>14648</v>
       </c>
       <c r="AQ30" s="11">
-        <v>12861</v>
+        <v>16438</v>
       </c>
       <c r="AR30" s="11">
-        <v>14648</v>
+        <v>396</v>
       </c>
       <c r="AS30" s="11">
-        <v>16438</v>
+        <v>12224</v>
       </c>
       <c r="AT30" s="11">
-        <v>396</v>
+        <v>21303</v>
       </c>
       <c r="AU30" s="11">
-        <v>12224</v>
+        <v>12289</v>
       </c>
       <c r="AV30" s="11">
-        <v>21303</v>
+        <v>10574</v>
       </c>
       <c r="AW30" s="11">
-        <v>12289</v>
+        <v>14475</v>
       </c>
       <c r="AX30" s="11">
-        <v>10574</v>
+        <v>16563</v>
       </c>
       <c r="AY30" s="11">
-        <v>14475</v>
+        <v>15141</v>
       </c>
       <c r="AZ30" s="11">
-        <v>16563</v>
+        <v>31072</v>
       </c>
       <c r="BA30" s="11">
-        <v>15141</v>
+        <v>13461</v>
       </c>
       <c r="BB30" s="11">
-        <v>31072</v>
+        <v>16659</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>59</v>
       </c>
@@ -3972,157 +3972,157 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>81</v>
+        <v>63359</v>
       </c>
       <c r="F31" s="13">
-        <v>7119</v>
+        <v>97560</v>
       </c>
       <c r="G31" s="13">
-        <v>63359</v>
+        <v>487620</v>
       </c>
       <c r="H31" s="13">
-        <v>97560</v>
+        <v>51048</v>
       </c>
       <c r="I31" s="13">
-        <v>487620</v>
+        <v>192851</v>
       </c>
       <c r="J31" s="13">
-        <v>51048</v>
+        <v>150500</v>
       </c>
       <c r="K31" s="13">
-        <v>192851</v>
+        <v>136800</v>
       </c>
       <c r="L31" s="13">
-        <v>150500</v>
+        <v>68040</v>
       </c>
       <c r="M31" s="13">
-        <v>136800</v>
+        <v>2</v>
       </c>
       <c r="N31" s="13">
-        <v>68040</v>
+        <v>900</v>
       </c>
       <c r="O31" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P31" s="13">
-        <v>900</v>
+        <v>10260</v>
       </c>
       <c r="Q31" s="13">
-        <v>0</v>
+        <v>152280</v>
       </c>
       <c r="R31" s="13">
-        <v>10260</v>
+        <v>320760</v>
       </c>
       <c r="S31" s="13">
-        <v>152280</v>
+        <v>147920</v>
       </c>
       <c r="T31" s="13">
-        <v>320760</v>
+        <v>23040</v>
       </c>
       <c r="U31" s="13">
-        <v>147920</v>
+        <v>345951</v>
       </c>
       <c r="V31" s="13">
-        <v>23040</v>
+        <v>154542</v>
       </c>
       <c r="W31" s="13">
-        <v>345951</v>
+        <v>499596</v>
       </c>
       <c r="X31" s="13">
-        <v>154542</v>
+        <v>27382</v>
       </c>
       <c r="Y31" s="13">
-        <v>499596</v>
+        <v>7200</v>
       </c>
       <c r="Z31" s="13">
-        <v>27382</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>41040</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>87661</v>
+      </c>
+      <c r="AD31" s="13">
+        <v>117880</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>230400</v>
+      </c>
+      <c r="AF31" s="13">
+        <v>38160</v>
+      </c>
+      <c r="AG31" s="13">
+        <v>152100</v>
+      </c>
+      <c r="AH31" s="13">
+        <v>59040</v>
+      </c>
+      <c r="AI31" s="13">
+        <v>26640</v>
+      </c>
+      <c r="AJ31" s="13">
+        <v>27900</v>
+      </c>
+      <c r="AK31" s="13">
+        <v>27360</v>
+      </c>
+      <c r="AL31" s="13">
         <v>7200</v>
       </c>
-      <c r="AB31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="13">
-        <v>41040</v>
-      </c>
-      <c r="AE31" s="13">
-        <v>87661</v>
-      </c>
-      <c r="AF31" s="13">
-        <v>117880</v>
-      </c>
-      <c r="AG31" s="13">
-        <v>230400</v>
-      </c>
-      <c r="AH31" s="13">
-        <v>38160</v>
-      </c>
-      <c r="AI31" s="13">
-        <v>152100</v>
-      </c>
-      <c r="AJ31" s="13">
-        <v>59040</v>
-      </c>
-      <c r="AK31" s="13">
-        <v>26640</v>
-      </c>
-      <c r="AL31" s="13">
-        <v>27900</v>
-      </c>
       <c r="AM31" s="13">
-        <v>27360</v>
+        <v>176584</v>
       </c>
       <c r="AN31" s="13">
-        <v>7200</v>
+        <v>40320</v>
       </c>
       <c r="AO31" s="13">
-        <v>176584</v>
+        <v>40320</v>
       </c>
       <c r="AP31" s="13">
-        <v>40320</v>
+        <v>65340</v>
       </c>
       <c r="AQ31" s="13">
-        <v>40320</v>
+        <v>249223</v>
       </c>
       <c r="AR31" s="13">
-        <v>65340</v>
+        <v>39260</v>
       </c>
       <c r="AS31" s="13">
-        <v>249223</v>
+        <v>93918</v>
       </c>
       <c r="AT31" s="13">
-        <v>39260</v>
+        <v>140270</v>
       </c>
       <c r="AU31" s="13">
-        <v>93918</v>
+        <v>55680</v>
       </c>
       <c r="AV31" s="13">
-        <v>140270</v>
+        <v>17100</v>
       </c>
       <c r="AW31" s="13">
-        <v>55680</v>
+        <v>0</v>
       </c>
       <c r="AX31" s="13">
-        <v>17100</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="13">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AZ31" s="13">
-        <v>0</v>
+        <v>165397</v>
       </c>
       <c r="BA31" s="13">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="13">
-        <v>165397</v>
+        <v>460811</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>60</v>
       </c>
@@ -4262,26 +4262,26 @@
       <c r="AV32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AW32" s="11" t="s">
-        <v>62</v>
+      <c r="AW32" s="11">
+        <v>0</v>
       </c>
       <c r="AX32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AY32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ32" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA32" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB32" s="11" t="s">
-        <v>62</v>
+      <c r="AY32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ32" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>63</v>
       </c>
@@ -4301,146 +4301,146 @@
       <c r="H33" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>62</v>
+      <c r="I33" s="13">
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
+        <v>9</v>
       </c>
       <c r="K33" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L33" s="13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M33" s="13">
-        <v>5</v>
-      </c>
-      <c r="N33" s="13">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="O33" s="13">
-        <v>1</v>
-      </c>
-      <c r="P33" s="13" t="s">
-        <v>62</v>
+        <v>12</v>
+      </c>
+      <c r="P33" s="13">
+        <v>14</v>
       </c>
       <c r="Q33" s="13">
+        <v>34</v>
+      </c>
+      <c r="R33" s="13">
+        <v>17</v>
+      </c>
+      <c r="S33" s="13">
+        <v>14</v>
+      </c>
+      <c r="T33" s="13">
+        <v>2</v>
+      </c>
+      <c r="U33" s="13">
+        <v>32</v>
+      </c>
+      <c r="V33" s="13">
+        <v>14</v>
+      </c>
+      <c r="W33" s="13">
+        <v>16</v>
+      </c>
+      <c r="X33" s="13">
+        <v>29</v>
+      </c>
+      <c r="Y33" s="13">
+        <v>50</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>68</v>
+      </c>
+      <c r="AA33" s="13">
+        <v>106</v>
+      </c>
+      <c r="AB33" s="13">
+        <v>39</v>
+      </c>
+      <c r="AC33" s="13">
+        <v>43</v>
+      </c>
+      <c r="AD33" s="13">
+        <v>72</v>
+      </c>
+      <c r="AE33" s="13">
+        <v>26</v>
+      </c>
+      <c r="AF33" s="13">
+        <v>10</v>
+      </c>
+      <c r="AG33" s="13">
+        <v>29</v>
+      </c>
+      <c r="AH33" s="13">
+        <v>43</v>
+      </c>
+      <c r="AI33" s="13">
+        <v>45</v>
+      </c>
+      <c r="AJ33" s="13">
+        <v>27</v>
+      </c>
+      <c r="AK33" s="13">
+        <v>34</v>
+      </c>
+      <c r="AL33" s="13">
         <v>12</v>
       </c>
-      <c r="R33" s="13">
-        <v>14</v>
-      </c>
-      <c r="S33" s="13">
-        <v>34</v>
-      </c>
-      <c r="T33" s="13">
-        <v>17</v>
-      </c>
-      <c r="U33" s="13">
-        <v>14</v>
-      </c>
-      <c r="V33" s="13">
-        <v>2</v>
-      </c>
-      <c r="W33" s="13">
-        <v>32</v>
-      </c>
-      <c r="X33" s="13">
-        <v>14</v>
-      </c>
-      <c r="Y33" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z33" s="13">
-        <v>29</v>
-      </c>
-      <c r="AA33" s="13">
-        <v>50</v>
-      </c>
-      <c r="AB33" s="13">
-        <v>68</v>
-      </c>
-      <c r="AC33" s="13">
-        <v>106</v>
-      </c>
-      <c r="AD33" s="13">
-        <v>39</v>
-      </c>
-      <c r="AE33" s="13">
-        <v>43</v>
-      </c>
-      <c r="AF33" s="13">
-        <v>72</v>
-      </c>
-      <c r="AG33" s="13">
-        <v>26</v>
-      </c>
-      <c r="AH33" s="13">
-        <v>10</v>
-      </c>
-      <c r="AI33" s="13">
-        <v>29</v>
-      </c>
-      <c r="AJ33" s="13">
-        <v>43</v>
-      </c>
-      <c r="AK33" s="13">
-        <v>45</v>
-      </c>
-      <c r="AL33" s="13">
+      <c r="AM33" s="13">
+        <v>62</v>
+      </c>
+      <c r="AN33" s="13">
+        <v>44</v>
+      </c>
+      <c r="AO33" s="13">
+        <v>49</v>
+      </c>
+      <c r="AP33" s="13">
+        <v>58</v>
+      </c>
+      <c r="AQ33" s="13">
+        <v>89</v>
+      </c>
+      <c r="AR33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="13">
+        <v>66</v>
+      </c>
+      <c r="AT33" s="13">
+        <v>57</v>
+      </c>
+      <c r="AU33" s="13">
+        <v>67</v>
+      </c>
+      <c r="AV33" s="13">
+        <v>92</v>
+      </c>
+      <c r="AW33" s="13">
+        <v>77</v>
+      </c>
+      <c r="AX33" s="13">
+        <v>74</v>
+      </c>
+      <c r="AY33" s="13">
+        <v>130</v>
+      </c>
+      <c r="AZ33" s="13">
+        <v>91</v>
+      </c>
+      <c r="BA33" s="13">
+        <v>110</v>
+      </c>
+      <c r="BB33" s="13">
         <v>27</v>
       </c>
-      <c r="AM33" s="13">
-        <v>34</v>
-      </c>
-      <c r="AN33" s="13">
-        <v>12</v>
-      </c>
-      <c r="AO33" s="13">
-        <v>62</v>
-      </c>
-      <c r="AP33" s="13">
-        <v>44</v>
-      </c>
-      <c r="AQ33" s="13">
-        <v>49</v>
-      </c>
-      <c r="AR33" s="13">
-        <v>58</v>
-      </c>
-      <c r="AS33" s="13">
-        <v>89</v>
-      </c>
-      <c r="AT33" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU33" s="13">
-        <v>66</v>
-      </c>
-      <c r="AV33" s="13">
-        <v>57</v>
-      </c>
-      <c r="AW33" s="13">
-        <v>67</v>
-      </c>
-      <c r="AX33" s="13">
-        <v>92</v>
-      </c>
-      <c r="AY33" s="13">
-        <v>77</v>
-      </c>
-      <c r="AZ33" s="13">
-        <v>74</v>
-      </c>
-      <c r="BA33" s="13">
-        <v>130</v>
-      </c>
-      <c r="BB33" s="13">
-        <v>91</v>
-      </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>64</v>
       </c>
@@ -4589,17 +4589,17 @@
       <c r="AY34" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AZ34" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA34" s="11" t="s">
-        <v>62</v>
+      <c r="AZ34" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="11">
+        <v>0</v>
       </c>
       <c r="BB34" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>65</v>
       </c>
@@ -4748,17 +4748,17 @@
       <c r="AY35" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AZ35" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA35" s="13" t="s">
-        <v>62</v>
+      <c r="AZ35" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="13">
+        <v>0</v>
       </c>
       <c r="BB35" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>66</v>
       </c>
@@ -4815,7 +4815,7 @@
       <c r="BA36" s="15"/>
       <c r="BB36" s="15"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>67</v>
       </c>
@@ -4884,11 +4884,11 @@
       <c r="Y37" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Z37" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA37" s="17" t="s">
-        <v>62</v>
+      <c r="Z37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="17">
+        <v>0</v>
       </c>
       <c r="AB37" s="17">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>70</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>55</v>
       </c>
@@ -5106,14 +5106,14 @@
       <c r="AA39" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AB39" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC39" s="11" t="s">
-        <v>62</v>
+      <c r="AB39" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>0</v>
       </c>
       <c r="AD39" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="11">
         <v>0</v>
@@ -5121,11 +5121,11 @@
       <c r="AF39" s="11">
         <v>0</v>
       </c>
-      <c r="AG39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="11">
-        <v>0</v>
+      <c r="AG39" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH39" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AI39" s="11" t="s">
         <v>62</v>
@@ -5154,8 +5154,8 @@
       <c r="AQ39" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AR39" s="11">
-        <v>0</v>
+      <c r="AR39" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AS39" s="11" t="s">
         <v>62</v>
@@ -5188,7 +5188,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>57</v>
       </c>
@@ -5262,29 +5262,29 @@
       <c r="Z40" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA40" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB40" s="13" t="s">
-        <v>62</v>
+      <c r="AA40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>0</v>
       </c>
       <c r="AC40" s="13">
         <v>0</v>
       </c>
       <c r="AD40" s="13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE40" s="13">
         <v>0</v>
       </c>
       <c r="AF40" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AG40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH40" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AI40" s="13" t="s">
         <v>62</v>
@@ -5313,8 +5313,8 @@
       <c r="AQ40" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AR40" s="13">
-        <v>0</v>
+      <c r="AR40" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AS40" s="13" t="s">
         <v>62</v>
@@ -5347,7 +5347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>58</v>
       </c>
@@ -5421,29 +5421,29 @@
       <c r="Z41" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AA41" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB41" s="11" t="s">
-        <v>62</v>
+      <c r="AA41" s="11">
+        <v>-10</v>
+      </c>
+      <c r="AB41" s="11">
+        <v>-9</v>
       </c>
       <c r="AC41" s="11">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="11">
-        <v>-9</v>
+        <v>-72</v>
       </c>
       <c r="AE41" s="11">
         <v>0</v>
       </c>
       <c r="AF41" s="11">
-        <v>-72</v>
-      </c>
-      <c r="AG41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH41" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AI41" s="11" t="s">
         <v>62</v>
@@ -5451,62 +5451,62 @@
       <c r="AJ41" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AK41" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL41" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM41" s="11">
+      <c r="AK41" s="11">
         <v>-1</v>
       </c>
-      <c r="AN41" s="11">
+      <c r="AL41" s="11">
         <v>-1</v>
       </c>
-      <c r="AO41" s="11" t="s">
-        <v>62</v>
+      <c r="AM41" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN41" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO41" s="11">
+        <v>-258</v>
       </c>
       <c r="AP41" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AQ41" s="11">
-        <v>-258</v>
-      </c>
-      <c r="AR41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS41" s="11">
         <v>-1</v>
       </c>
-      <c r="AT41" s="11" t="s">
-        <v>62</v>
+      <c r="AR41" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS41" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT41" s="11">
+        <v>-8</v>
       </c>
       <c r="AU41" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AV41" s="11">
-        <v>-8</v>
-      </c>
-      <c r="AW41" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX41" s="11">
         <v>-12</v>
       </c>
+      <c r="AW41" s="11">
+        <v>-7</v>
+      </c>
+      <c r="AX41" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="AY41" s="11">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="AZ41" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="BA41" s="11">
-        <v>-1</v>
+      <c r="BA41" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="BB41" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>59</v>
       </c>
@@ -5580,11 +5580,11 @@
       <c r="Z42" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA42" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB42" s="13" t="s">
-        <v>62</v>
+      <c r="AA42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="13">
+        <v>0</v>
       </c>
       <c r="AC42" s="13">
         <v>0</v>
@@ -5598,11 +5598,11 @@
       <c r="AF42" s="13">
         <v>0</v>
       </c>
-      <c r="AG42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="13">
-        <v>0</v>
+      <c r="AG42" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH42" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AI42" s="13" t="s">
         <v>62</v>
@@ -5665,7 +5665,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>63</v>
       </c>
@@ -5742,14 +5742,14 @@
       <c r="AA43" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AB43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC43" s="11" t="s">
-        <v>62</v>
+      <c r="AB43" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AC43" s="11">
+        <v>0</v>
       </c>
       <c r="AD43" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="11">
         <v>0</v>
@@ -5757,11 +5757,11 @@
       <c r="AF43" s="11">
         <v>0</v>
       </c>
-      <c r="AG43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="11">
-        <v>0</v>
+      <c r="AG43" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH43" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AI43" s="11" t="s">
         <v>62</v>
@@ -5790,8 +5790,8 @@
       <c r="AQ43" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AR43" s="11">
-        <v>0</v>
+      <c r="AR43" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AS43" s="11" t="s">
         <v>62</v>
@@ -5824,7 +5824,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>71</v>
       </c>
@@ -5893,26 +5893,26 @@
       <c r="Y44" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="Z44" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA44" s="19" t="s">
-        <v>62</v>
+      <c r="Z44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="19">
+        <v>-10</v>
       </c>
       <c r="AB44" s="19">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AC44" s="19">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="19">
-        <v>-11</v>
+        <v>-73</v>
       </c>
       <c r="AE44" s="19">
         <v>0</v>
       </c>
       <c r="AF44" s="19">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="19">
         <v>0</v>
@@ -5927,218 +5927,218 @@
         <v>0</v>
       </c>
       <c r="AK44" s="19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL44" s="19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="19">
+        <v>-258</v>
+      </c>
+      <c r="AP44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="19">
         <v>-1</v>
       </c>
-      <c r="AN44" s="19">
+      <c r="AR44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="19">
+        <v>-8</v>
+      </c>
+      <c r="AU44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="19">
+        <v>-12</v>
+      </c>
+      <c r="AW44" s="19">
+        <v>-7</v>
+      </c>
+      <c r="AX44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY44" s="19">
         <v>-1</v>
       </c>
-      <c r="AO44" s="19">
-        <v>0</v>
-      </c>
-      <c r="AP44" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="19">
-        <v>-258</v>
-      </c>
-      <c r="AR44" s="19">
-        <v>0</v>
-      </c>
-      <c r="AS44" s="19">
-        <v>-1</v>
-      </c>
-      <c r="AT44" s="19">
-        <v>0</v>
-      </c>
-      <c r="AU44" s="19">
-        <v>0</v>
-      </c>
-      <c r="AV44" s="19">
-        <v>-8</v>
-      </c>
-      <c r="AW44" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX44" s="19">
-        <v>-12</v>
-      </c>
-      <c r="AY44" s="19">
-        <v>-7</v>
-      </c>
       <c r="AZ44" s="19">
         <v>0</v>
       </c>
       <c r="BA44" s="19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17">
-        <v>13119</v>
+        <v>123167</v>
       </c>
       <c r="F45" s="17">
-        <v>24342</v>
+        <v>236600</v>
       </c>
       <c r="G45" s="17">
-        <v>123167</v>
+        <v>902261</v>
       </c>
       <c r="H45" s="17">
-        <v>236600</v>
+        <v>137836</v>
       </c>
       <c r="I45" s="17">
-        <v>902261</v>
+        <v>334219</v>
       </c>
       <c r="J45" s="17">
-        <v>137836</v>
+        <v>213093</v>
       </c>
       <c r="K45" s="17">
-        <v>334219</v>
+        <v>209576</v>
       </c>
       <c r="L45" s="17">
-        <v>213093</v>
+        <v>113930</v>
       </c>
       <c r="M45" s="17">
-        <v>209576</v>
+        <v>22494</v>
       </c>
       <c r="N45" s="17">
-        <v>113930</v>
+        <v>13098</v>
       </c>
       <c r="O45" s="17">
-        <v>22494</v>
+        <v>11769</v>
       </c>
       <c r="P45" s="17">
-        <v>13098</v>
+        <v>37366</v>
       </c>
       <c r="Q45" s="17">
-        <v>11769</v>
+        <v>353259</v>
       </c>
       <c r="R45" s="17">
-        <v>37366</v>
+        <v>587115</v>
       </c>
       <c r="S45" s="17">
-        <v>353259</v>
+        <v>377645</v>
       </c>
       <c r="T45" s="17">
-        <v>587115</v>
+        <v>52069</v>
       </c>
       <c r="U45" s="17">
-        <v>377645</v>
+        <v>527756</v>
       </c>
       <c r="V45" s="17">
-        <v>52069</v>
+        <v>290132</v>
       </c>
       <c r="W45" s="17">
-        <v>527756</v>
+        <v>641195</v>
       </c>
       <c r="X45" s="17">
-        <v>290132</v>
+        <v>60740</v>
       </c>
       <c r="Y45" s="17">
-        <v>641195</v>
+        <v>26058</v>
       </c>
       <c r="Z45" s="17">
-        <v>60740</v>
+        <v>12626</v>
       </c>
       <c r="AA45" s="17">
-        <v>26058</v>
+        <v>13826</v>
       </c>
       <c r="AB45" s="17">
-        <v>12626</v>
+        <v>93300</v>
       </c>
       <c r="AC45" s="17">
-        <v>13826</v>
+        <v>167071</v>
       </c>
       <c r="AD45" s="17">
-        <v>93300</v>
+        <v>251980</v>
       </c>
       <c r="AE45" s="17">
-        <v>167071</v>
+        <v>473649</v>
       </c>
       <c r="AF45" s="17">
-        <v>251980</v>
+        <v>81373</v>
       </c>
       <c r="AG45" s="17">
-        <v>473649</v>
+        <v>252873</v>
       </c>
       <c r="AH45" s="17">
-        <v>81373</v>
+        <v>148072</v>
       </c>
       <c r="AI45" s="17">
-        <v>252873</v>
+        <v>101783</v>
       </c>
       <c r="AJ45" s="17">
-        <v>148072</v>
+        <v>69413</v>
       </c>
       <c r="AK45" s="17">
-        <v>101783</v>
+        <v>70650</v>
       </c>
       <c r="AL45" s="17">
-        <v>69413</v>
+        <v>34669</v>
       </c>
       <c r="AM45" s="17">
-        <v>70650</v>
+        <v>327630</v>
       </c>
       <c r="AN45" s="17">
-        <v>34669</v>
+        <v>106673</v>
       </c>
       <c r="AO45" s="17">
-        <v>327630</v>
+        <v>130132</v>
       </c>
       <c r="AP45" s="17">
-        <v>106673</v>
+        <v>98229</v>
       </c>
       <c r="AQ45" s="17">
-        <v>130132</v>
+        <v>414337</v>
       </c>
       <c r="AR45" s="17">
-        <v>98229</v>
+        <v>69376</v>
       </c>
       <c r="AS45" s="17">
-        <v>414337</v>
+        <v>202689</v>
       </c>
       <c r="AT45" s="17">
-        <v>69376</v>
+        <v>248714</v>
       </c>
       <c r="AU45" s="17">
-        <v>202689</v>
+        <v>117336</v>
       </c>
       <c r="AV45" s="17">
-        <v>248714</v>
+        <v>47800</v>
       </c>
       <c r="AW45" s="17">
-        <v>117336</v>
+        <v>16945</v>
       </c>
       <c r="AX45" s="17">
-        <v>47800</v>
+        <v>31437</v>
       </c>
       <c r="AY45" s="17">
-        <v>16945</v>
+        <v>70585</v>
       </c>
       <c r="AZ45" s="17">
-        <v>31437</v>
+        <v>374323</v>
       </c>
       <c r="BA45" s="17">
-        <v>70585</v>
+        <v>29561</v>
       </c>
       <c r="BB45" s="17">
-        <v>374323</v>
+        <v>758624</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6193,7 +6193,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6248,7 +6248,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6303,7 +6303,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>72</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6515,7 +6515,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>72</v>
       </c>
@@ -6572,7 +6572,7 @@
       <c r="BA51" s="9"/>
       <c r="BB51" s="9"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>55</v>
       </c>
@@ -6581,157 +6581,157 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>6250</v>
+        <v>18536</v>
       </c>
       <c r="F52" s="11">
-        <v>85918</v>
+        <v>27524</v>
       </c>
       <c r="G52" s="11">
-        <v>18536</v>
+        <v>110952</v>
       </c>
       <c r="H52" s="11">
-        <v>27524</v>
+        <v>17805</v>
       </c>
       <c r="I52" s="11">
-        <v>110952</v>
+        <v>22497</v>
       </c>
       <c r="J52" s="11">
-        <v>17805</v>
+        <v>76075</v>
       </c>
       <c r="K52" s="11">
-        <v>22497</v>
+        <v>41595</v>
       </c>
       <c r="L52" s="11">
-        <v>76075</v>
+        <v>50009</v>
       </c>
       <c r="M52" s="11">
-        <v>41595</v>
+        <v>63789</v>
       </c>
       <c r="N52" s="11">
-        <v>50009</v>
+        <v>31525</v>
       </c>
       <c r="O52" s="11">
-        <v>63789</v>
+        <v>33210</v>
       </c>
       <c r="P52" s="11">
-        <v>31525</v>
+        <v>71041</v>
       </c>
       <c r="Q52" s="11">
-        <v>33210</v>
+        <v>46652</v>
       </c>
       <c r="R52" s="11">
-        <v>71041</v>
+        <v>65097</v>
       </c>
       <c r="S52" s="11">
-        <v>46652</v>
+        <v>75992</v>
       </c>
       <c r="T52" s="11">
-        <v>65097</v>
+        <v>8696</v>
       </c>
       <c r="U52" s="11">
-        <v>75992</v>
+        <v>36673</v>
       </c>
       <c r="V52" s="11">
-        <v>8696</v>
+        <v>20174</v>
       </c>
       <c r="W52" s="11">
-        <v>36673</v>
+        <v>32243</v>
       </c>
       <c r="X52" s="11">
-        <v>20174</v>
+        <v>114018</v>
       </c>
       <c r="Y52" s="11">
-        <v>32243</v>
+        <v>278187</v>
       </c>
       <c r="Z52" s="11">
-        <v>114018</v>
+        <v>21064</v>
       </c>
       <c r="AA52" s="11">
-        <v>278187</v>
+        <v>44239</v>
       </c>
       <c r="AB52" s="11">
-        <v>21064</v>
+        <v>136461</v>
       </c>
       <c r="AC52" s="11">
-        <v>44239</v>
+        <v>45394</v>
       </c>
       <c r="AD52" s="11">
-        <v>136461</v>
+        <v>64471</v>
       </c>
       <c r="AE52" s="11">
-        <v>45394</v>
+        <v>59456</v>
       </c>
       <c r="AF52" s="11">
-        <v>64471</v>
+        <v>45548</v>
       </c>
       <c r="AG52" s="11">
-        <v>59456</v>
+        <v>33395</v>
       </c>
       <c r="AH52" s="11">
-        <v>45548</v>
+        <v>555372</v>
       </c>
       <c r="AI52" s="11">
-        <v>33395</v>
+        <v>107399</v>
       </c>
       <c r="AJ52" s="11">
-        <v>555372</v>
+        <v>25731</v>
       </c>
       <c r="AK52" s="11">
-        <v>107399</v>
+        <v>188473</v>
       </c>
       <c r="AL52" s="11">
-        <v>25731</v>
+        <v>8228</v>
       </c>
       <c r="AM52" s="11">
-        <v>188473</v>
+        <v>183548</v>
       </c>
       <c r="AN52" s="11">
-        <v>8228</v>
+        <v>86669</v>
       </c>
       <c r="AO52" s="11">
-        <v>183548</v>
+        <v>57035</v>
       </c>
       <c r="AP52" s="11">
-        <v>86669</v>
+        <v>209268</v>
       </c>
       <c r="AQ52" s="11">
-        <v>57035</v>
+        <v>54146</v>
       </c>
       <c r="AR52" s="11">
-        <v>-277478</v>
+        <v>18802</v>
       </c>
       <c r="AS52" s="11">
-        <v>54146</v>
+        <v>30336</v>
       </c>
       <c r="AT52" s="11">
-        <v>18802</v>
+        <v>46393</v>
       </c>
       <c r="AU52" s="11">
-        <v>30336</v>
+        <v>23112</v>
       </c>
       <c r="AV52" s="11">
-        <v>46393</v>
+        <v>23316</v>
       </c>
       <c r="AW52" s="11">
-        <v>23112</v>
+        <v>30002</v>
       </c>
       <c r="AX52" s="11">
-        <v>23316</v>
+        <v>27550</v>
       </c>
       <c r="AY52" s="11">
-        <v>30002</v>
+        <v>46134</v>
       </c>
       <c r="AZ52" s="11">
-        <v>27550</v>
+        <v>55217</v>
       </c>
       <c r="BA52" s="11">
-        <v>46134</v>
+        <v>64503</v>
       </c>
       <c r="BB52" s="11">
-        <v>55217</v>
+        <v>7004</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>57</v>
       </c>
@@ -6740,157 +6740,157 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>0</v>
+        <v>151281</v>
       </c>
       <c r="F53" s="13">
-        <v>12268</v>
+        <v>401694</v>
       </c>
       <c r="G53" s="13">
-        <v>151281</v>
+        <v>1290359</v>
       </c>
       <c r="H53" s="13">
-        <v>401694</v>
+        <v>224376</v>
       </c>
       <c r="I53" s="13">
-        <v>1290359</v>
+        <v>486470</v>
       </c>
       <c r="J53" s="13">
-        <v>224376</v>
+        <v>189155</v>
       </c>
       <c r="K53" s="13">
-        <v>486470</v>
+        <v>239697</v>
       </c>
       <c r="L53" s="13">
-        <v>189155</v>
+        <v>126763</v>
       </c>
       <c r="M53" s="13">
-        <v>239697</v>
+        <v>25922</v>
       </c>
       <c r="N53" s="13">
-        <v>126763</v>
+        <v>1949</v>
       </c>
       <c r="O53" s="13">
-        <v>25922</v>
+        <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>1949</v>
+        <v>14003</v>
       </c>
       <c r="Q53" s="13">
-        <v>0</v>
+        <v>731288</v>
       </c>
       <c r="R53" s="13">
-        <v>14003</v>
+        <v>950740</v>
       </c>
       <c r="S53" s="13">
-        <v>731288</v>
+        <v>790104</v>
       </c>
       <c r="T53" s="13">
-        <v>950740</v>
+        <v>90761</v>
       </c>
       <c r="U53" s="13">
-        <v>790104</v>
+        <v>701235</v>
       </c>
       <c r="V53" s="13">
-        <v>90761</v>
+        <v>543705</v>
       </c>
       <c r="W53" s="13">
-        <v>701235</v>
+        <v>557702</v>
       </c>
       <c r="X53" s="13">
-        <v>543705</v>
+        <v>77764</v>
       </c>
       <c r="Y53" s="13">
-        <v>557702</v>
+        <v>18205</v>
       </c>
       <c r="Z53" s="13">
-        <v>77764</v>
+        <v>6</v>
       </c>
       <c r="AA53" s="13">
-        <v>18205</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="13">
-        <v>6</v>
+        <v>315287</v>
       </c>
       <c r="AC53" s="13">
-        <v>0</v>
+        <v>565369</v>
       </c>
       <c r="AD53" s="13">
-        <v>315287</v>
+        <v>1154082</v>
       </c>
       <c r="AE53" s="13">
-        <v>565369</v>
+        <v>1929855</v>
       </c>
       <c r="AF53" s="13">
-        <v>1154082</v>
+        <v>359198</v>
       </c>
       <c r="AG53" s="13">
-        <v>1929855</v>
+        <v>939323</v>
       </c>
       <c r="AH53" s="13">
-        <v>359198</v>
+        <v>796612</v>
       </c>
       <c r="AI53" s="13">
-        <v>939323</v>
+        <v>598485</v>
       </c>
       <c r="AJ53" s="13">
-        <v>796612</v>
+        <v>325004</v>
       </c>
       <c r="AK53" s="13">
-        <v>598485</v>
+        <v>248643</v>
       </c>
       <c r="AL53" s="13">
-        <v>325004</v>
+        <v>184980</v>
       </c>
       <c r="AM53" s="13">
-        <v>248643</v>
+        <v>1288847</v>
       </c>
       <c r="AN53" s="13">
-        <v>184980</v>
+        <v>613896</v>
       </c>
       <c r="AO53" s="13">
-        <v>1288847</v>
+        <v>822976</v>
       </c>
       <c r="AP53" s="13">
-        <v>613896</v>
+        <v>224478</v>
       </c>
       <c r="AQ53" s="13">
-        <v>822976</v>
+        <v>1707195</v>
       </c>
       <c r="AR53" s="13">
-        <v>224478</v>
+        <v>429525</v>
       </c>
       <c r="AS53" s="13">
-        <v>1707195</v>
+        <v>1196530</v>
       </c>
       <c r="AT53" s="13">
-        <v>429525</v>
+        <v>1167229</v>
       </c>
       <c r="AU53" s="13">
-        <v>1196530</v>
+        <v>704836</v>
       </c>
       <c r="AV53" s="13">
-        <v>1167229</v>
+        <v>294290</v>
       </c>
       <c r="AW53" s="13">
-        <v>704836</v>
+        <v>29297</v>
       </c>
       <c r="AX53" s="13">
-        <v>294290</v>
+        <v>220719</v>
       </c>
       <c r="AY53" s="13">
-        <v>29297</v>
+        <v>75963</v>
       </c>
       <c r="AZ53" s="13">
-        <v>220719</v>
+        <v>2197652</v>
       </c>
       <c r="BA53" s="13">
-        <v>75963</v>
+        <v>213554</v>
       </c>
       <c r="BB53" s="13">
-        <v>2197652</v>
+        <v>4264236</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>58</v>
       </c>
@@ -6899,157 +6899,157 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>159424</v>
+        <v>113947</v>
       </c>
       <c r="F54" s="11">
-        <v>169523</v>
+        <v>177476</v>
       </c>
       <c r="G54" s="11">
-        <v>113947</v>
+        <v>346802</v>
       </c>
       <c r="H54" s="11">
-        <v>177476</v>
+        <v>129868</v>
       </c>
       <c r="I54" s="11">
-        <v>346802</v>
+        <v>318887</v>
       </c>
       <c r="J54" s="11">
-        <v>129868</v>
+        <v>208936</v>
       </c>
       <c r="K54" s="11">
-        <v>318887</v>
+        <v>191326</v>
       </c>
       <c r="L54" s="11">
-        <v>208936</v>
+        <v>245759</v>
       </c>
       <c r="M54" s="11">
-        <v>191326</v>
+        <v>235435</v>
       </c>
       <c r="N54" s="11">
-        <v>245759</v>
+        <v>170871</v>
       </c>
       <c r="O54" s="11">
-        <v>235435</v>
+        <v>199461</v>
       </c>
       <c r="P54" s="11">
-        <v>170871</v>
+        <v>303601</v>
       </c>
       <c r="Q54" s="11">
-        <v>199461</v>
+        <v>274106</v>
       </c>
       <c r="R54" s="11">
-        <v>303601</v>
+        <v>220079</v>
       </c>
       <c r="S54" s="11">
-        <v>274106</v>
+        <v>443127</v>
       </c>
       <c r="T54" s="11">
-        <v>220079</v>
+        <v>95539</v>
       </c>
       <c r="U54" s="11">
-        <v>443127</v>
+        <v>375709</v>
       </c>
       <c r="V54" s="11">
-        <v>95539</v>
+        <v>288047</v>
       </c>
       <c r="W54" s="11">
-        <v>375709</v>
+        <v>575897</v>
       </c>
       <c r="X54" s="11">
-        <v>288047</v>
+        <v>468756</v>
       </c>
       <c r="Y54" s="11">
-        <v>575897</v>
+        <v>449137</v>
       </c>
       <c r="Z54" s="11">
-        <v>468756</v>
+        <v>404099</v>
       </c>
       <c r="AA54" s="11">
-        <v>449137</v>
+        <v>495649</v>
       </c>
       <c r="AB54" s="11">
-        <v>404099</v>
+        <v>406948</v>
       </c>
       <c r="AC54" s="11">
-        <v>495649</v>
+        <v>425872</v>
       </c>
       <c r="AD54" s="11">
-        <v>406948</v>
+        <v>511284</v>
       </c>
       <c r="AE54" s="11">
-        <v>425872</v>
+        <v>1092741</v>
       </c>
       <c r="AF54" s="11">
-        <v>511284</v>
+        <v>99941</v>
       </c>
       <c r="AG54" s="11">
-        <v>1092741</v>
+        <v>525307</v>
       </c>
       <c r="AH54" s="11">
-        <v>99941</v>
+        <v>546548</v>
       </c>
       <c r="AI54" s="11">
-        <v>525307</v>
+        <v>583610</v>
       </c>
       <c r="AJ54" s="11">
-        <v>546548</v>
+        <v>495296</v>
       </c>
       <c r="AK54" s="11">
-        <v>583610</v>
+        <v>880314</v>
       </c>
       <c r="AL54" s="11">
-        <v>495296</v>
+        <v>380334</v>
       </c>
       <c r="AM54" s="11">
-        <v>880314</v>
+        <v>591699</v>
       </c>
       <c r="AN54" s="11">
-        <v>380334</v>
+        <v>424291</v>
       </c>
       <c r="AO54" s="11">
-        <v>591699</v>
+        <v>606757</v>
       </c>
       <c r="AP54" s="11">
-        <v>424291</v>
+        <v>678753</v>
       </c>
       <c r="AQ54" s="11">
-        <v>606757</v>
+        <v>849264</v>
       </c>
       <c r="AR54" s="11">
-        <v>678753</v>
+        <v>21683</v>
       </c>
       <c r="AS54" s="11">
-        <v>849264</v>
+        <v>694320</v>
       </c>
       <c r="AT54" s="11">
-        <v>21683</v>
+        <v>1274597</v>
       </c>
       <c r="AU54" s="11">
-        <v>694320</v>
+        <v>733479</v>
       </c>
       <c r="AV54" s="11">
-        <v>1274597</v>
+        <v>591454</v>
       </c>
       <c r="AW54" s="11">
-        <v>733479</v>
+        <v>1009397</v>
       </c>
       <c r="AX54" s="11">
-        <v>591454</v>
+        <v>780408</v>
       </c>
       <c r="AY54" s="11">
-        <v>1009397</v>
+        <v>865742</v>
       </c>
       <c r="AZ54" s="11">
-        <v>780408</v>
+        <v>1619975</v>
       </c>
       <c r="BA54" s="11">
-        <v>865742</v>
+        <v>947653</v>
       </c>
       <c r="BB54" s="11">
-        <v>1619975</v>
+        <v>945978</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>59</v>
       </c>
@@ -7058,157 +7058,157 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13">
-        <v>218</v>
+        <v>21462</v>
       </c>
       <c r="F55" s="13">
-        <v>2109</v>
+        <v>33305</v>
       </c>
       <c r="G55" s="13">
-        <v>21462</v>
+        <v>167598</v>
       </c>
       <c r="H55" s="13">
-        <v>33305</v>
+        <v>16038</v>
       </c>
       <c r="I55" s="13">
-        <v>167598</v>
+        <v>79528</v>
       </c>
       <c r="J55" s="13">
-        <v>16038</v>
+        <v>62019</v>
       </c>
       <c r="K55" s="13">
-        <v>79528</v>
+        <v>56889</v>
       </c>
       <c r="L55" s="13">
-        <v>62019</v>
+        <v>28373</v>
       </c>
       <c r="M55" s="13">
-        <v>56889</v>
+        <v>1</v>
       </c>
       <c r="N55" s="13">
-        <v>28373</v>
+        <v>375</v>
       </c>
       <c r="O55" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" s="13">
-        <v>375</v>
+        <v>4228</v>
       </c>
       <c r="Q55" s="13">
-        <v>0</v>
+        <v>62412</v>
       </c>
       <c r="R55" s="13">
-        <v>4228</v>
+        <v>129080</v>
       </c>
       <c r="S55" s="13">
-        <v>62412</v>
+        <v>59200</v>
       </c>
       <c r="T55" s="13">
-        <v>129080</v>
+        <v>9210</v>
       </c>
       <c r="U55" s="13">
-        <v>59200</v>
+        <v>149372</v>
       </c>
       <c r="V55" s="13">
-        <v>9210</v>
+        <v>75049</v>
       </c>
       <c r="W55" s="13">
-        <v>149372</v>
+        <v>62357</v>
       </c>
       <c r="X55" s="13">
-        <v>75049</v>
+        <v>13631</v>
       </c>
       <c r="Y55" s="13">
-        <v>62357</v>
+        <v>4896</v>
       </c>
       <c r="Z55" s="13">
-        <v>13631</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="13">
-        <v>4896</v>
+        <v>0</v>
       </c>
       <c r="AB55" s="13">
-        <v>0</v>
+        <v>30626</v>
       </c>
       <c r="AC55" s="13">
-        <v>0</v>
+        <v>71002</v>
       </c>
       <c r="AD55" s="13">
-        <v>30626</v>
+        <v>109521</v>
       </c>
       <c r="AE55" s="13">
-        <v>71002</v>
+        <v>213248</v>
       </c>
       <c r="AF55" s="13">
-        <v>109521</v>
+        <v>39369</v>
       </c>
       <c r="AG55" s="13">
-        <v>213248</v>
+        <v>155903</v>
       </c>
       <c r="AH55" s="13">
-        <v>39369</v>
+        <v>60478</v>
       </c>
       <c r="AI55" s="13">
-        <v>155903</v>
+        <v>27514</v>
       </c>
       <c r="AJ55" s="13">
-        <v>60478</v>
+        <v>28783</v>
       </c>
       <c r="AK55" s="13">
-        <v>27514</v>
+        <v>28074</v>
       </c>
       <c r="AL55" s="13">
-        <v>28783</v>
+        <v>7466</v>
       </c>
       <c r="AM55" s="13">
-        <v>28074</v>
+        <v>179864</v>
       </c>
       <c r="AN55" s="13">
-        <v>7466</v>
+        <v>42879</v>
       </c>
       <c r="AO55" s="13">
-        <v>179864</v>
+        <v>45240</v>
       </c>
       <c r="AP55" s="13">
-        <v>42879</v>
+        <v>76463</v>
       </c>
       <c r="AQ55" s="13">
-        <v>45240</v>
+        <v>283151</v>
       </c>
       <c r="AR55" s="13">
-        <v>76463</v>
+        <v>57327</v>
       </c>
       <c r="AS55" s="13">
-        <v>283151</v>
+        <v>117396</v>
       </c>
       <c r="AT55" s="13">
-        <v>57327</v>
+        <v>194746</v>
       </c>
       <c r="AU55" s="13">
-        <v>117396</v>
+        <v>77291</v>
       </c>
       <c r="AV55" s="13">
-        <v>194746</v>
+        <v>22499</v>
       </c>
       <c r="AW55" s="13">
-        <v>77291</v>
+        <v>0</v>
       </c>
       <c r="AX55" s="13">
-        <v>22499</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="13">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="AZ55" s="13">
-        <v>0</v>
+        <v>216624</v>
       </c>
       <c r="BA55" s="13">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="13">
-        <v>216624</v>
+        <v>662717</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>60</v>
       </c>
@@ -7348,26 +7348,26 @@
       <c r="AV56" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AW56" s="11" t="s">
-        <v>62</v>
+      <c r="AW56" s="11">
+        <v>227700</v>
       </c>
       <c r="AX56" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AY56" s="11">
-        <v>227700</v>
-      </c>
-      <c r="AZ56" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA56" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB56" s="11" t="s">
-        <v>62</v>
+      <c r="AY56" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ56" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA56" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB56" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>63</v>
       </c>
@@ -7387,146 +7387,146 @@
       <c r="H57" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I57" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>62</v>
+      <c r="I57" s="13">
+        <v>0</v>
+      </c>
+      <c r="J57" s="13">
+        <v>729</v>
       </c>
       <c r="K57" s="13">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="L57" s="13">
-        <v>729</v>
+        <v>363</v>
       </c>
       <c r="M57" s="13">
-        <v>369</v>
-      </c>
-      <c r="N57" s="13">
-        <v>363</v>
+        <v>27</v>
+      </c>
+      <c r="N57" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="O57" s="13">
-        <v>27</v>
-      </c>
-      <c r="P57" s="13" t="s">
-        <v>62</v>
+        <v>644</v>
+      </c>
+      <c r="P57" s="13">
+        <v>373</v>
       </c>
       <c r="Q57" s="13">
-        <v>644</v>
+        <v>1957</v>
       </c>
       <c r="R57" s="13">
-        <v>373</v>
+        <v>1139</v>
       </c>
       <c r="S57" s="13">
-        <v>1957</v>
+        <v>631</v>
       </c>
       <c r="T57" s="13">
-        <v>1139</v>
+        <v>106</v>
       </c>
       <c r="U57" s="13">
-        <v>631</v>
+        <v>1837</v>
       </c>
       <c r="V57" s="13">
-        <v>106</v>
+        <v>551</v>
       </c>
       <c r="W57" s="13">
-        <v>1837</v>
+        <v>847</v>
       </c>
       <c r="X57" s="13">
-        <v>551</v>
+        <v>2063</v>
       </c>
       <c r="Y57" s="13">
-        <v>847</v>
+        <v>3229</v>
       </c>
       <c r="Z57" s="13">
-        <v>2063</v>
+        <v>5686</v>
       </c>
       <c r="AA57" s="13">
-        <v>3229</v>
+        <v>10657</v>
       </c>
       <c r="AB57" s="13">
-        <v>5686</v>
+        <v>3960</v>
       </c>
       <c r="AC57" s="13">
-        <v>10657</v>
+        <v>3782</v>
       </c>
       <c r="AD57" s="13">
-        <v>3960</v>
+        <v>6554</v>
       </c>
       <c r="AE57" s="13">
-        <v>3782</v>
+        <v>2480</v>
       </c>
       <c r="AF57" s="13">
-        <v>6554</v>
+        <v>1220</v>
       </c>
       <c r="AG57" s="13">
-        <v>2480</v>
+        <v>3122</v>
       </c>
       <c r="AH57" s="13">
-        <v>1220</v>
+        <v>4942</v>
       </c>
       <c r="AI57" s="13">
-        <v>3122</v>
+        <v>5274</v>
       </c>
       <c r="AJ57" s="13">
-        <v>4942</v>
+        <v>3009</v>
       </c>
       <c r="AK57" s="13">
-        <v>5274</v>
+        <v>4495</v>
       </c>
       <c r="AL57" s="13">
-        <v>3009</v>
+        <v>2135</v>
       </c>
       <c r="AM57" s="13">
-        <v>4495</v>
+        <v>8091</v>
       </c>
       <c r="AN57" s="13">
-        <v>2135</v>
+        <v>5442</v>
       </c>
       <c r="AO57" s="13">
-        <v>8091</v>
+        <v>5891</v>
       </c>
       <c r="AP57" s="13">
-        <v>5442</v>
+        <v>6355</v>
       </c>
       <c r="AQ57" s="13">
-        <v>5891</v>
+        <v>9655</v>
       </c>
       <c r="AR57" s="13">
-        <v>6355</v>
+        <v>0</v>
       </c>
       <c r="AS57" s="13">
-        <v>9655</v>
+        <v>9912</v>
       </c>
       <c r="AT57" s="13">
-        <v>0</v>
+        <v>8239</v>
       </c>
       <c r="AU57" s="13">
-        <v>9912</v>
+        <v>10905</v>
       </c>
       <c r="AV57" s="13">
-        <v>8239</v>
+        <v>14611</v>
       </c>
       <c r="AW57" s="13">
-        <v>10905</v>
+        <v>10854</v>
       </c>
       <c r="AX57" s="13">
-        <v>14611</v>
+        <v>10636</v>
       </c>
       <c r="AY57" s="13">
-        <v>10854</v>
+        <v>17059</v>
       </c>
       <c r="AZ57" s="13">
-        <v>10636</v>
+        <v>12869</v>
       </c>
       <c r="BA57" s="13">
-        <v>17059</v>
+        <v>16738</v>
       </c>
       <c r="BB57" s="13">
-        <v>12869</v>
+        <v>4787</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>64</v>
       </c>
@@ -7675,17 +7675,17 @@
       <c r="AY58" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AZ58" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA58" s="11" t="s">
-        <v>62</v>
+      <c r="AZ58" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA58" s="11">
+        <v>0</v>
       </c>
       <c r="BB58" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>65</v>
       </c>
@@ -7834,17 +7834,17 @@
       <c r="AY59" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AZ59" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA59" s="13" t="s">
-        <v>62</v>
+      <c r="AZ59" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA59" s="13">
+        <v>0</v>
       </c>
       <c r="BB59" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>73</v>
       </c>
@@ -7901,7 +7901,7 @@
       <c r="BA60" s="15"/>
       <c r="BB60" s="15"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>67</v>
       </c>
@@ -7972,11 +7972,11 @@
       <c r="Y61" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Z61" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA61" s="17" t="s">
-        <v>62</v>
+      <c r="Z61" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="17">
+        <v>0</v>
       </c>
       <c r="AB61" s="17">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>74</v>
       </c>
@@ -8117,7 +8117,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>55</v>
       </c>
@@ -8194,47 +8194,47 @@
       <c r="AA63" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AB63" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC63" s="11" t="s">
-        <v>62</v>
+      <c r="AB63" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AC63" s="11">
+        <v>0</v>
       </c>
       <c r="AD63" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="11">
         <v>0</v>
       </c>
       <c r="AF63" s="11">
-        <v>0</v>
+        <v>-2559</v>
       </c>
       <c r="AG63" s="11">
         <v>0</v>
       </c>
       <c r="AH63" s="11">
-        <v>-2559</v>
+        <v>0</v>
       </c>
       <c r="AI63" s="11">
         <v>0</v>
       </c>
       <c r="AJ63" s="11">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AK63" s="11">
         <v>0</v>
       </c>
-      <c r="AL63" s="11">
-        <v>-23</v>
-      </c>
-      <c r="AM63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN63" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO63" s="11" t="s">
-        <v>62</v>
+      <c r="AL63" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM63" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="11">
+        <v>0</v>
       </c>
       <c r="AP63" s="11">
         <v>0</v>
@@ -8255,16 +8255,16 @@
         <v>0</v>
       </c>
       <c r="AV63" s="11">
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="AW63" s="11">
         <v>0</v>
       </c>
-      <c r="AX63" s="11">
-        <v>-69</v>
-      </c>
-      <c r="AY63" s="11">
-        <v>0</v>
+      <c r="AX63" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY63" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AZ63" s="11" t="s">
         <v>62</v>
@@ -8276,7 +8276,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>57</v>
       </c>
@@ -8350,23 +8350,23 @@
       <c r="Z64" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA64" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB64" s="13" t="s">
-        <v>62</v>
+      <c r="AA64" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="13">
+        <v>0</v>
       </c>
       <c r="AC64" s="13">
         <v>0</v>
       </c>
       <c r="AD64" s="13">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AE64" s="13">
         <v>0</v>
       </c>
       <c r="AF64" s="13">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="13">
         <v>0</v>
@@ -8383,11 +8383,11 @@
       <c r="AK64" s="13">
         <v>0</v>
       </c>
-      <c r="AL64" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM64" s="13">
-        <v>0</v>
+      <c r="AL64" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM64" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AN64" s="13" t="s">
         <v>62</v>
@@ -8395,11 +8395,11 @@
       <c r="AO64" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AP64" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ64" s="13" t="s">
-        <v>62</v>
+      <c r="AP64" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="13">
+        <v>0</v>
       </c>
       <c r="AR64" s="13">
         <v>0</v>
@@ -8419,11 +8419,11 @@
       <c r="AW64" s="13">
         <v>0</v>
       </c>
-      <c r="AX64" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY64" s="13">
-        <v>0</v>
+      <c r="AX64" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY64" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AZ64" s="13" t="s">
         <v>62</v>
@@ -8435,7 +8435,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>58</v>
       </c>
@@ -8509,23 +8509,23 @@
       <c r="Z65" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AA65" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB65" s="11" t="s">
-        <v>62</v>
+      <c r="AA65" s="11">
+        <v>-670</v>
+      </c>
+      <c r="AB65" s="11">
+        <v>-583</v>
       </c>
       <c r="AC65" s="11">
-        <v>-670</v>
+        <v>0</v>
       </c>
       <c r="AD65" s="11">
-        <v>-583</v>
+        <v>-1830</v>
       </c>
       <c r="AE65" s="11">
         <v>0</v>
       </c>
       <c r="AF65" s="11">
-        <v>-1830</v>
+        <v>0</v>
       </c>
       <c r="AG65" s="11">
         <v>0</v>
@@ -8540,61 +8540,61 @@
         <v>0</v>
       </c>
       <c r="AK65" s="11">
-        <v>0</v>
+        <v>-1353</v>
       </c>
       <c r="AL65" s="11">
-        <v>0</v>
+        <v>-346</v>
       </c>
       <c r="AM65" s="11">
-        <v>-1353</v>
+        <v>0</v>
       </c>
       <c r="AN65" s="11">
-        <v>-346</v>
+        <v>0</v>
       </c>
       <c r="AO65" s="11">
-        <v>0</v>
+        <v>-7363</v>
       </c>
       <c r="AP65" s="11">
         <v>0</v>
       </c>
       <c r="AQ65" s="11">
-        <v>-7363</v>
+        <v>-207</v>
       </c>
       <c r="AR65" s="11">
         <v>0</v>
       </c>
       <c r="AS65" s="11">
-        <v>-207</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="11">
-        <v>0</v>
+        <v>-732</v>
       </c>
       <c r="AU65" s="11">
         <v>0</v>
       </c>
       <c r="AV65" s="11">
-        <v>-732</v>
+        <v>-171</v>
       </c>
       <c r="AW65" s="11">
-        <v>0</v>
+        <v>-798</v>
       </c>
       <c r="AX65" s="11">
-        <v>-171</v>
+        <v>0</v>
       </c>
       <c r="AY65" s="11">
-        <v>-798</v>
+        <v>-100</v>
       </c>
       <c r="AZ65" s="11">
         <v>0</v>
       </c>
       <c r="BA65" s="11">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>59</v>
       </c>
@@ -8668,11 +8668,11 @@
       <c r="Z66" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA66" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB66" s="13" t="s">
-        <v>62</v>
+      <c r="AA66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="13">
+        <v>0</v>
       </c>
       <c r="AC66" s="13">
         <v>0</v>
@@ -8701,11 +8701,11 @@
       <c r="AK66" s="13">
         <v>0</v>
       </c>
-      <c r="AL66" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM66" s="13">
-        <v>0</v>
+      <c r="AL66" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM66" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AN66" s="13" t="s">
         <v>62</v>
@@ -8753,7 +8753,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>63</v>
       </c>
@@ -8830,14 +8830,14 @@
       <c r="AA67" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AB67" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC67" s="11" t="s">
-        <v>62</v>
+      <c r="AB67" s="11">
+        <v>-123</v>
+      </c>
+      <c r="AC67" s="11">
+        <v>0</v>
       </c>
       <c r="AD67" s="11">
-        <v>-123</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="11">
         <v>0</v>
@@ -8863,14 +8863,14 @@
       <c r="AL67" s="11">
         <v>0</v>
       </c>
-      <c r="AM67" s="11">
-        <v>0</v>
+      <c r="AM67" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AN67" s="11">
         <v>0</v>
       </c>
-      <c r="AO67" s="11" t="s">
-        <v>62</v>
+      <c r="AO67" s="11">
+        <v>0</v>
       </c>
       <c r="AP67" s="11">
         <v>0</v>
@@ -8896,11 +8896,11 @@
       <c r="AW67" s="11">
         <v>0</v>
       </c>
-      <c r="AX67" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY67" s="11">
-        <v>0</v>
+      <c r="AX67" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY67" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AZ67" s="11" t="s">
         <v>62</v>
@@ -8912,7 +8912,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="18" t="s">
         <v>71</v>
       </c>
@@ -8983,95 +8983,95 @@
       <c r="Y68" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="Z68" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA68" s="19" t="s">
-        <v>62</v>
+      <c r="Z68" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="19">
+        <v>-670</v>
       </c>
       <c r="AB68" s="19">
-        <v>0</v>
+        <v>-707</v>
       </c>
       <c r="AC68" s="19">
-        <v>-670</v>
+        <v>0</v>
       </c>
       <c r="AD68" s="19">
-        <v>-707</v>
+        <v>-1839</v>
       </c>
       <c r="AE68" s="19">
         <v>0</v>
       </c>
       <c r="AF68" s="19">
-        <v>-1839</v>
+        <v>-2559</v>
       </c>
       <c r="AG68" s="19">
         <v>0</v>
       </c>
       <c r="AH68" s="19">
-        <v>-2559</v>
+        <v>0</v>
       </c>
       <c r="AI68" s="19">
         <v>0</v>
       </c>
       <c r="AJ68" s="19">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AK68" s="19">
-        <v>0</v>
+        <v>-1353</v>
       </c>
       <c r="AL68" s="19">
-        <v>-23</v>
+        <v>-346</v>
       </c>
       <c r="AM68" s="19">
-        <v>-1353</v>
+        <v>0</v>
       </c>
       <c r="AN68" s="19">
-        <v>-346</v>
+        <v>0</v>
       </c>
       <c r="AO68" s="19">
-        <v>0</v>
+        <v>-7363</v>
       </c>
       <c r="AP68" s="19">
         <v>0</v>
       </c>
       <c r="AQ68" s="19">
-        <v>-7363</v>
+        <v>-207</v>
       </c>
       <c r="AR68" s="19">
         <v>0</v>
       </c>
       <c r="AS68" s="19">
-        <v>-207</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="19">
-        <v>0</v>
+        <v>-732</v>
       </c>
       <c r="AU68" s="19">
         <v>0</v>
       </c>
       <c r="AV68" s="19">
-        <v>-732</v>
+        <v>-240</v>
       </c>
       <c r="AW68" s="19">
-        <v>0</v>
+        <v>-798</v>
       </c>
       <c r="AX68" s="19">
-        <v>-240</v>
+        <v>0</v>
       </c>
       <c r="AY68" s="19">
-        <v>-798</v>
+        <v>-100</v>
       </c>
       <c r="AZ68" s="19">
         <v>0</v>
       </c>
       <c r="BA68" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
         <v>75</v>
       </c>
@@ -9128,7 +9128,7 @@
       <c r="BA69" s="9"/>
       <c r="BB69" s="9"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>76</v>
       </c>
@@ -9199,11 +9199,11 @@
       <c r="Y70" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Z70" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA70" s="11" t="s">
-        <v>62</v>
+      <c r="Z70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="11">
+        <v>0</v>
       </c>
       <c r="AB70" s="11">
         <v>0</v>
@@ -9287,164 +9287,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19">
-        <v>165892</v>
+        <v>305226</v>
       </c>
       <c r="F71" s="19">
-        <v>269818</v>
+        <v>639999</v>
       </c>
       <c r="G71" s="19">
-        <v>305226</v>
+        <v>1915711</v>
       </c>
       <c r="H71" s="19">
-        <v>639999</v>
+        <v>388087</v>
       </c>
       <c r="I71" s="19">
-        <v>1915711</v>
+        <v>907382</v>
       </c>
       <c r="J71" s="19">
-        <v>388087</v>
+        <v>536914</v>
       </c>
       <c r="K71" s="19">
-        <v>907382</v>
+        <v>529876</v>
       </c>
       <c r="L71" s="19">
-        <v>536914</v>
+        <v>451267</v>
       </c>
       <c r="M71" s="19">
-        <v>529876</v>
+        <v>325174</v>
       </c>
       <c r="N71" s="19">
-        <v>451267</v>
+        <v>204720</v>
       </c>
       <c r="O71" s="19">
-        <v>325174</v>
+        <v>233315</v>
       </c>
       <c r="P71" s="19">
-        <v>204720</v>
+        <v>393246</v>
       </c>
       <c r="Q71" s="19">
-        <v>233315</v>
+        <v>1116415</v>
       </c>
       <c r="R71" s="19">
-        <v>393246</v>
+        <v>1366135</v>
       </c>
       <c r="S71" s="19">
-        <v>1116415</v>
+        <v>1369054</v>
       </c>
       <c r="T71" s="19">
-        <v>1366135</v>
+        <v>204312</v>
       </c>
       <c r="U71" s="19">
-        <v>1369054</v>
+        <v>1264826</v>
       </c>
       <c r="V71" s="19">
-        <v>204312</v>
+        <v>927526</v>
       </c>
       <c r="W71" s="19">
-        <v>1264826</v>
+        <v>1229046</v>
       </c>
       <c r="X71" s="19">
-        <v>927526</v>
+        <v>676232</v>
       </c>
       <c r="Y71" s="19">
-        <v>1229046</v>
+        <v>753654</v>
       </c>
       <c r="Z71" s="19">
-        <v>676232</v>
+        <v>430855</v>
       </c>
       <c r="AA71" s="19">
-        <v>753654</v>
+        <v>549875</v>
       </c>
       <c r="AB71" s="19">
-        <v>430855</v>
+        <v>892575</v>
       </c>
       <c r="AC71" s="19">
-        <v>549875</v>
+        <v>1111419</v>
       </c>
       <c r="AD71" s="19">
-        <v>892575</v>
+        <v>1844073</v>
       </c>
       <c r="AE71" s="19">
-        <v>1111419</v>
+        <v>3297780</v>
       </c>
       <c r="AF71" s="19">
-        <v>1844073</v>
+        <v>542717</v>
       </c>
       <c r="AG71" s="19">
-        <v>3297780</v>
+        <v>1657050</v>
       </c>
       <c r="AH71" s="19">
-        <v>542717</v>
+        <v>1963952</v>
       </c>
       <c r="AI71" s="19">
-        <v>1657050</v>
+        <v>1322282</v>
       </c>
       <c r="AJ71" s="19">
-        <v>1963952</v>
+        <v>877800</v>
       </c>
       <c r="AK71" s="19">
-        <v>1322282</v>
+        <v>1348646</v>
       </c>
       <c r="AL71" s="19">
-        <v>877800</v>
+        <v>582797</v>
       </c>
       <c r="AM71" s="19">
-        <v>1348646</v>
+        <v>2252049</v>
       </c>
       <c r="AN71" s="19">
-        <v>582797</v>
+        <v>1173177</v>
       </c>
       <c r="AO71" s="19">
-        <v>2252049</v>
+        <v>1530536</v>
       </c>
       <c r="AP71" s="19">
-        <v>1173177</v>
+        <v>1195317</v>
       </c>
       <c r="AQ71" s="19">
-        <v>1530536</v>
+        <v>2903204</v>
       </c>
       <c r="AR71" s="19">
-        <v>708571</v>
+        <v>527337</v>
       </c>
       <c r="AS71" s="19">
-        <v>2903204</v>
+        <v>2048494</v>
       </c>
       <c r="AT71" s="19">
-        <v>527337</v>
+        <v>2690472</v>
       </c>
       <c r="AU71" s="19">
-        <v>2048494</v>
+        <v>1549623</v>
       </c>
       <c r="AV71" s="19">
-        <v>2690472</v>
+        <v>945930</v>
       </c>
       <c r="AW71" s="19">
-        <v>1549623</v>
+        <v>1306452</v>
       </c>
       <c r="AX71" s="19">
-        <v>945930</v>
+        <v>1039313</v>
       </c>
       <c r="AY71" s="19">
-        <v>1306452</v>
+        <v>1074798</v>
       </c>
       <c r="AZ71" s="19">
-        <v>1039313</v>
+        <v>4102337</v>
       </c>
       <c r="BA71" s="19">
-        <v>1074798</v>
+        <v>1242448</v>
       </c>
       <c r="BB71" s="19">
-        <v>4102337</v>
+        <v>5884722</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9499,7 +9499,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9554,7 +9554,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9609,7 +9609,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>77</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -9821,7 +9821,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>78</v>
       </c>
@@ -9878,7 +9878,7 @@
       <c r="BA77" s="9"/>
       <c r="BB77" s="9"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>55</v>
       </c>
@@ -9949,11 +9949,11 @@
       <c r="Y78" s="11">
         <v>0</v>
       </c>
-      <c r="Z78" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="11">
-        <v>0</v>
+      <c r="Z78" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA78" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AB78" s="11" t="s">
         <v>62</v>
@@ -10037,7 +10037,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>57</v>
       </c>
@@ -10046,157 +10046,157 @@
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>0</v>
+        <v>3104410</v>
       </c>
       <c r="F79" s="13">
-        <v>3649018</v>
+        <v>3308683</v>
       </c>
       <c r="G79" s="13">
-        <v>3104410</v>
+        <v>3373108</v>
       </c>
       <c r="H79" s="13">
-        <v>3308683</v>
+        <v>2925867</v>
       </c>
       <c r="I79" s="13">
-        <v>3373108</v>
+        <v>3987328</v>
       </c>
       <c r="J79" s="13">
-        <v>2925867</v>
+        <v>3841491</v>
       </c>
       <c r="K79" s="13">
-        <v>3987328</v>
+        <v>3910292</v>
       </c>
       <c r="L79" s="13">
-        <v>3841491</v>
+        <v>4251367</v>
       </c>
       <c r="M79" s="13">
-        <v>3910292</v>
+        <v>4170206</v>
       </c>
       <c r="N79" s="13">
-        <v>4251367</v>
+        <v>3455674</v>
       </c>
       <c r="O79" s="13">
-        <v>4170206</v>
+        <v>0</v>
       </c>
       <c r="P79" s="13">
-        <v>3455674</v>
+        <v>2636107</v>
       </c>
       <c r="Q79" s="13">
-        <v>0</v>
+        <v>4006706</v>
       </c>
       <c r="R79" s="13">
-        <v>2636107</v>
+        <v>3752082</v>
       </c>
       <c r="S79" s="13">
-        <v>4006706</v>
+        <v>3838288</v>
       </c>
       <c r="T79" s="13">
-        <v>3752082</v>
+        <v>3624496</v>
       </c>
       <c r="U79" s="13">
-        <v>3838288</v>
+        <v>4370672</v>
       </c>
       <c r="V79" s="13">
-        <v>3624496</v>
+        <v>4477075</v>
       </c>
       <c r="W79" s="13">
-        <v>4370672</v>
+        <v>4775623</v>
       </c>
       <c r="X79" s="13">
-        <v>4477075</v>
+        <v>4735932</v>
       </c>
       <c r="Y79" s="13">
-        <v>4775623</v>
+        <v>5170406</v>
       </c>
       <c r="Z79" s="13">
-        <v>4735932</v>
-      </c>
-      <c r="AA79" s="13">
-        <v>5170406</v>
+        <v>6000000</v>
+      </c>
+      <c r="AA79" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AB79" s="13">
-        <v>6000000</v>
-      </c>
-      <c r="AC79" s="13" t="s">
-        <v>62</v>
+        <v>7531940</v>
+      </c>
+      <c r="AC79" s="13">
+        <v>8200885</v>
       </c>
       <c r="AD79" s="13">
-        <v>7531940</v>
+        <v>9493617</v>
       </c>
       <c r="AE79" s="13">
-        <v>8200885</v>
+        <v>9064608</v>
       </c>
       <c r="AF79" s="13">
-        <v>9493617</v>
+        <v>8993440</v>
       </c>
       <c r="AG79" s="13">
-        <v>9064608</v>
+        <v>10705756</v>
       </c>
       <c r="AH79" s="13">
-        <v>8993440</v>
+        <v>10350853</v>
       </c>
       <c r="AI79" s="13">
-        <v>10705756</v>
+        <v>10201565</v>
       </c>
       <c r="AJ79" s="13">
-        <v>10350853</v>
+        <v>10648886</v>
       </c>
       <c r="AK79" s="13">
-        <v>10201565</v>
+        <v>10334289</v>
       </c>
       <c r="AL79" s="13">
-        <v>10648886</v>
+        <v>10932624</v>
       </c>
       <c r="AM79" s="13">
-        <v>10334289</v>
+        <v>9532892</v>
       </c>
       <c r="AN79" s="13">
-        <v>10932624</v>
+        <v>10876967</v>
       </c>
       <c r="AO79" s="13">
-        <v>9532892</v>
+        <v>10665837</v>
       </c>
       <c r="AP79" s="13">
-        <v>10876967</v>
+        <v>12345488</v>
       </c>
       <c r="AQ79" s="13">
-        <v>10665837</v>
+        <v>11489454</v>
       </c>
       <c r="AR79" s="13">
-        <v>12345488</v>
+        <v>14452389</v>
       </c>
       <c r="AS79" s="13">
-        <v>11489454</v>
+        <v>12401716</v>
       </c>
       <c r="AT79" s="13">
-        <v>14452389</v>
+        <v>13402253</v>
       </c>
       <c r="AU79" s="13">
-        <v>12401716</v>
+        <v>14296876</v>
       </c>
       <c r="AV79" s="13">
-        <v>13402253</v>
+        <v>14680734</v>
       </c>
       <c r="AW79" s="13">
-        <v>14296876</v>
+        <v>12207083</v>
       </c>
       <c r="AX79" s="13">
-        <v>14680734</v>
+        <v>14913446</v>
       </c>
       <c r="AY79" s="13">
-        <v>12207083</v>
+        <v>14292192</v>
       </c>
       <c r="AZ79" s="13">
-        <v>14913446</v>
+        <v>12362820</v>
       </c>
       <c r="BA79" s="13">
-        <v>14292192</v>
+        <v>13355472</v>
       </c>
       <c r="BB79" s="13">
-        <v>12362820</v>
+        <v>15168362</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>58</v>
       </c>
@@ -10205,157 +10205,157 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>12227642</v>
+        <v>10286811</v>
       </c>
       <c r="F80" s="11">
-        <v>12230214</v>
+        <v>10064421</v>
       </c>
       <c r="G80" s="11">
-        <v>10286811</v>
+        <v>10804474</v>
       </c>
       <c r="H80" s="11">
-        <v>10064421</v>
+        <v>12856945</v>
       </c>
       <c r="I80" s="11">
-        <v>10804474</v>
+        <v>16468033</v>
       </c>
       <c r="J80" s="11">
-        <v>12856945</v>
+        <v>15657674</v>
       </c>
       <c r="K80" s="11">
-        <v>16468033</v>
+        <v>16677650</v>
       </c>
       <c r="L80" s="11">
-        <v>15657674</v>
+        <v>15293982</v>
       </c>
       <c r="M80" s="11">
-        <v>16677650</v>
+        <v>14466052</v>
       </c>
       <c r="N80" s="11">
-        <v>15293982</v>
+        <v>14687210</v>
       </c>
       <c r="O80" s="11">
-        <v>14466052</v>
+        <v>16965297</v>
       </c>
       <c r="P80" s="11">
-        <v>14687210</v>
+        <v>13939440</v>
       </c>
       <c r="Q80" s="11">
-        <v>16965297</v>
+        <v>14873623</v>
       </c>
       <c r="R80" s="11">
-        <v>13939440</v>
+        <v>16997142</v>
       </c>
       <c r="S80" s="11">
-        <v>14873623</v>
+        <v>18569627</v>
       </c>
       <c r="T80" s="11">
-        <v>16997142</v>
+        <v>23968640</v>
       </c>
       <c r="U80" s="11">
-        <v>18569627</v>
+        <v>17612460</v>
       </c>
       <c r="V80" s="11">
-        <v>23968640</v>
+        <v>20379723</v>
       </c>
       <c r="W80" s="11">
-        <v>17612460</v>
+        <v>23219781</v>
       </c>
       <c r="X80" s="11">
-        <v>20379723</v>
+        <v>27722278</v>
       </c>
       <c r="Y80" s="11">
-        <v>23219781</v>
+        <v>29380323</v>
       </c>
       <c r="Z80" s="11">
-        <v>27722278</v>
+        <v>32181174</v>
       </c>
       <c r="AA80" s="11">
-        <v>29380323</v>
+        <v>36099709</v>
       </c>
       <c r="AB80" s="11">
-        <v>32181174</v>
+        <v>39235249</v>
       </c>
       <c r="AC80" s="11">
-        <v>36099709</v>
+        <v>40843196</v>
       </c>
       <c r="AD80" s="11">
-        <v>39235249</v>
+        <v>40782005</v>
       </c>
       <c r="AE80" s="11">
-        <v>40843196</v>
+        <v>36036705</v>
       </c>
       <c r="AF80" s="11">
-        <v>40782005</v>
+        <v>30628563</v>
       </c>
       <c r="AG80" s="11">
-        <v>36036705</v>
+        <v>40395801</v>
       </c>
       <c r="AH80" s="11">
-        <v>30628563</v>
+        <v>45439641</v>
       </c>
       <c r="AI80" s="11">
-        <v>40395801</v>
+        <v>35516675</v>
       </c>
       <c r="AJ80" s="11">
-        <v>45439641</v>
+        <v>45166515</v>
       </c>
       <c r="AK80" s="11">
-        <v>35516675</v>
+        <v>45856853</v>
       </c>
       <c r="AL80" s="11">
-        <v>45166515</v>
+        <v>36091668</v>
       </c>
       <c r="AM80" s="11">
-        <v>45856853</v>
+        <v>37487266</v>
       </c>
       <c r="AN80" s="11">
-        <v>36091668</v>
+        <v>42992299</v>
       </c>
       <c r="AO80" s="11">
-        <v>37487266</v>
+        <v>47178058</v>
       </c>
       <c r="AP80" s="11">
-        <v>42992299</v>
+        <v>46337589</v>
       </c>
       <c r="AQ80" s="11">
-        <v>47178058</v>
+        <v>51664679</v>
       </c>
       <c r="AR80" s="11">
-        <v>46337589</v>
+        <v>54755051</v>
       </c>
       <c r="AS80" s="11">
-        <v>51664679</v>
+        <v>56799738</v>
       </c>
       <c r="AT80" s="11">
-        <v>54755051</v>
+        <v>59831808</v>
       </c>
       <c r="AU80" s="11">
-        <v>56799738</v>
+        <v>59685817</v>
       </c>
       <c r="AV80" s="11">
-        <v>59831808</v>
+        <v>55934746</v>
       </c>
       <c r="AW80" s="11">
-        <v>59685817</v>
+        <v>69733817</v>
       </c>
       <c r="AX80" s="11">
-        <v>55934746</v>
+        <v>47117551</v>
       </c>
       <c r="AY80" s="11">
-        <v>69733817</v>
+        <v>57178654</v>
       </c>
       <c r="AZ80" s="11">
-        <v>47117551</v>
+        <v>52136168</v>
       </c>
       <c r="BA80" s="11">
-        <v>57178654</v>
+        <v>70399896</v>
       </c>
       <c r="BB80" s="11">
-        <v>52136168</v>
+        <v>56784801</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>59</v>
       </c>
@@ -10364,157 +10364,157 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>2691358</v>
+        <v>338736</v>
       </c>
       <c r="F81" s="13">
-        <v>296249</v>
+        <v>341380</v>
       </c>
       <c r="G81" s="13">
-        <v>338736</v>
+        <v>343706</v>
       </c>
       <c r="H81" s="13">
-        <v>341380</v>
+        <v>314175</v>
       </c>
       <c r="I81" s="13">
-        <v>343706</v>
+        <v>412381</v>
       </c>
       <c r="J81" s="13">
-        <v>314175</v>
+        <v>412086</v>
       </c>
       <c r="K81" s="13">
-        <v>412381</v>
+        <v>415855</v>
       </c>
       <c r="L81" s="13">
+        <v>417005</v>
+      </c>
+      <c r="M81" s="13">
+        <v>500000</v>
+      </c>
+      <c r="N81" s="13">
+        <v>416667</v>
+      </c>
+      <c r="O81" s="13">
+        <v>0</v>
+      </c>
+      <c r="P81" s="13">
         <v>412086</v>
       </c>
-      <c r="M81" s="13">
-        <v>415855</v>
-      </c>
-      <c r="N81" s="13">
-        <v>417005</v>
-      </c>
-      <c r="O81" s="13">
-        <v>500000</v>
-      </c>
-      <c r="P81" s="13">
-        <v>416667</v>
-      </c>
       <c r="Q81" s="13">
-        <v>0</v>
+        <v>409850</v>
       </c>
       <c r="R81" s="13">
-        <v>412086</v>
+        <v>402419</v>
       </c>
       <c r="S81" s="13">
-        <v>409850</v>
+        <v>400216</v>
       </c>
       <c r="T81" s="13">
-        <v>402419</v>
+        <v>399740</v>
       </c>
       <c r="U81" s="13">
-        <v>400216</v>
+        <v>431772</v>
       </c>
       <c r="V81" s="13">
-        <v>399740</v>
+        <v>485622</v>
       </c>
       <c r="W81" s="13">
-        <v>431772</v>
+        <v>124815</v>
       </c>
       <c r="X81" s="13">
-        <v>485622</v>
+        <v>497809</v>
       </c>
       <c r="Y81" s="13">
-        <v>124815</v>
-      </c>
-      <c r="Z81" s="13">
-        <v>497809</v>
-      </c>
-      <c r="AA81" s="13">
         <v>680000</v>
       </c>
-      <c r="AB81" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC81" s="13" t="s">
-        <v>62</v>
+      <c r="Z81" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA81" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB81" s="13">
+        <v>746248</v>
+      </c>
+      <c r="AC81" s="13">
+        <v>809961</v>
       </c>
       <c r="AD81" s="13">
-        <v>746248</v>
+        <v>929089</v>
       </c>
       <c r="AE81" s="13">
-        <v>809961</v>
+        <v>925556</v>
       </c>
       <c r="AF81" s="13">
-        <v>929089</v>
+        <v>1031682</v>
       </c>
       <c r="AG81" s="13">
-        <v>925556</v>
+        <v>1025003</v>
       </c>
       <c r="AH81" s="13">
-        <v>1031682</v>
+        <v>1024356</v>
       </c>
       <c r="AI81" s="13">
-        <v>1025003</v>
+        <v>1032808</v>
       </c>
       <c r="AJ81" s="13">
-        <v>1024356</v>
+        <v>1031649</v>
       </c>
       <c r="AK81" s="13">
-        <v>1032808</v>
+        <v>1026096</v>
       </c>
       <c r="AL81" s="13">
-        <v>1031649</v>
+        <v>1036944</v>
       </c>
       <c r="AM81" s="13">
-        <v>1026096</v>
+        <v>1018575</v>
       </c>
       <c r="AN81" s="13">
-        <v>1036944</v>
+        <v>1063467</v>
       </c>
       <c r="AO81" s="13">
-        <v>1018575</v>
+        <v>1122024</v>
       </c>
       <c r="AP81" s="13">
-        <v>1063467</v>
+        <v>1170233</v>
       </c>
       <c r="AQ81" s="13">
-        <v>1122024</v>
+        <v>1136135</v>
       </c>
       <c r="AR81" s="13">
-        <v>1170233</v>
+        <v>1460188</v>
       </c>
       <c r="AS81" s="13">
-        <v>1136135</v>
+        <v>1249984</v>
       </c>
       <c r="AT81" s="13">
-        <v>1460188</v>
+        <v>1388365</v>
       </c>
       <c r="AU81" s="13">
-        <v>1249984</v>
+        <v>1388129</v>
       </c>
       <c r="AV81" s="13">
-        <v>1388365</v>
-      </c>
-      <c r="AW81" s="13">
-        <v>1388129</v>
-      </c>
-      <c r="AX81" s="13">
         <v>1315731</v>
       </c>
-      <c r="AY81" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ81" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA81" s="13">
+      <c r="AW81" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX81" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY81" s="13">
         <v>1400000</v>
       </c>
+      <c r="AZ81" s="13">
+        <v>1309721</v>
+      </c>
+      <c r="BA81" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="BB81" s="13">
-        <v>1309721</v>
+        <v>1438154</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>63</v>
       </c>
@@ -10534,143 +10534,143 @@
       <c r="H82" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I82" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J82" s="11" t="s">
-        <v>62</v>
+      <c r="I82" s="11">
+        <v>0</v>
+      </c>
+      <c r="J82" s="11">
+        <v>81000000</v>
       </c>
       <c r="K82" s="11">
-        <v>0</v>
+        <v>73800000</v>
       </c>
       <c r="L82" s="11">
-        <v>81000000</v>
+        <v>90750000</v>
       </c>
       <c r="M82" s="11">
-        <v>73800000</v>
-      </c>
-      <c r="N82" s="11">
-        <v>90750000</v>
+        <v>27000000</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="O82" s="11">
-        <v>27000000</v>
-      </c>
-      <c r="P82" s="11" t="s">
-        <v>62</v>
+        <v>53666667</v>
+      </c>
+      <c r="P82" s="11">
+        <v>26642857</v>
       </c>
       <c r="Q82" s="11">
-        <v>53666667</v>
+        <v>57558824</v>
       </c>
       <c r="R82" s="11">
-        <v>26642857</v>
+        <v>67000000</v>
       </c>
       <c r="S82" s="11">
-        <v>57558824</v>
+        <v>45071429</v>
       </c>
       <c r="T82" s="11">
-        <v>67000000</v>
+        <v>53000000</v>
       </c>
       <c r="U82" s="11">
-        <v>45071429</v>
+        <v>57406250</v>
       </c>
       <c r="V82" s="11">
-        <v>53000000</v>
+        <v>39357143</v>
       </c>
       <c r="W82" s="11">
-        <v>57406250</v>
+        <v>52937500</v>
       </c>
       <c r="X82" s="11">
-        <v>39357143</v>
+        <v>71137931</v>
       </c>
       <c r="Y82" s="11">
-        <v>52937500</v>
+        <v>64580000</v>
       </c>
       <c r="Z82" s="11">
-        <v>71137931</v>
+        <v>83617647</v>
       </c>
       <c r="AA82" s="11">
-        <v>64580000</v>
+        <v>100537736</v>
       </c>
       <c r="AB82" s="11">
-        <v>83617647</v>
+        <v>101538462</v>
       </c>
       <c r="AC82" s="11">
-        <v>100537736</v>
+        <v>87953488</v>
       </c>
       <c r="AD82" s="11">
-        <v>101538462</v>
+        <v>91027778</v>
       </c>
       <c r="AE82" s="11">
-        <v>87953488</v>
+        <v>95384615</v>
       </c>
       <c r="AF82" s="11">
-        <v>91027778</v>
+        <v>122000000</v>
       </c>
       <c r="AG82" s="11">
-        <v>95384615</v>
+        <v>107655172</v>
       </c>
       <c r="AH82" s="11">
-        <v>122000000</v>
+        <v>114930233</v>
       </c>
       <c r="AI82" s="11">
-        <v>107655172</v>
+        <v>117200000</v>
       </c>
       <c r="AJ82" s="11">
-        <v>114930233</v>
+        <v>111444444</v>
       </c>
       <c r="AK82" s="11">
-        <v>117200000</v>
+        <v>132205882</v>
       </c>
       <c r="AL82" s="11">
-        <v>111444444</v>
+        <v>177916667</v>
       </c>
       <c r="AM82" s="11">
-        <v>132205882</v>
+        <v>130500000</v>
       </c>
       <c r="AN82" s="11">
-        <v>177916667</v>
+        <v>123681818</v>
       </c>
       <c r="AO82" s="11">
-        <v>130500000</v>
+        <v>120224490</v>
       </c>
       <c r="AP82" s="11">
-        <v>123681818</v>
+        <v>109568966</v>
       </c>
       <c r="AQ82" s="11">
-        <v>120224490</v>
-      </c>
-      <c r="AR82" s="11">
-        <v>109568966</v>
+        <v>108483146</v>
+      </c>
+      <c r="AR82" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AS82" s="11">
-        <v>108483146</v>
-      </c>
-      <c r="AT82" s="11" t="s">
-        <v>62</v>
+        <v>150181818</v>
+      </c>
+      <c r="AT82" s="11">
+        <v>144543860</v>
       </c>
       <c r="AU82" s="11">
-        <v>150181818</v>
+        <v>162761194</v>
       </c>
       <c r="AV82" s="11">
-        <v>144543860</v>
+        <v>158815217</v>
       </c>
       <c r="AW82" s="11">
-        <v>162761194</v>
+        <v>140961039</v>
       </c>
       <c r="AX82" s="11">
-        <v>158815217</v>
+        <v>143729730</v>
       </c>
       <c r="AY82" s="11">
-        <v>140961039</v>
+        <v>131223077</v>
       </c>
       <c r="AZ82" s="11">
-        <v>143729730</v>
+        <v>141417582</v>
       </c>
       <c r="BA82" s="11">
-        <v>131223077</v>
+        <v>152163636</v>
       </c>
       <c r="BB82" s="11">
-        <v>141417582</v>
+        <v>177296296</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/bargh/bemoto/product/monthly.xlsx
+++ b/database/industries/bargh/bemoto/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="80">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3406,154 +3406,154 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="n">
-        <v>78812</v>
+        <v>107940</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>107940</v>
+        <v>72386</v>
       </c>
       <c r="G12" s="14" t="n">
-        <v>72386</v>
+        <v>103983</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>103983</v>
+        <v>85178</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>85178</v>
+        <v>100140</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>100140</v>
+        <v>65480</v>
       </c>
       <c r="K12" s="14" t="n">
+        <v>60266</v>
+      </c>
+      <c r="L12" s="14" t="n">
+        <v>53360</v>
+      </c>
+      <c r="M12" s="14" t="n">
+        <v>65320</v>
+      </c>
+      <c r="N12" s="14" t="n">
+        <v>62380</v>
+      </c>
+      <c r="O12" s="14" t="n">
+        <v>88540</v>
+      </c>
+      <c r="P12" s="14" t="n">
+        <v>106040</v>
+      </c>
+      <c r="Q12" s="14" t="n">
+        <v>82660</v>
+      </c>
+      <c r="R12" s="14" t="n">
+        <v>39800</v>
+      </c>
+      <c r="S12" s="14" t="n">
+        <v>86160</v>
+      </c>
+      <c r="T12" s="14" t="n">
+        <v>82480</v>
+      </c>
+      <c r="U12" s="14" t="n">
+        <v>113120</v>
+      </c>
+      <c r="V12" s="14" t="n">
+        <v>42200</v>
+      </c>
+      <c r="W12" s="14" t="n">
+        <v>94916</v>
+      </c>
+      <c r="X12" s="14" t="n">
+        <v>78380</v>
+      </c>
+      <c r="Y12" s="14" t="n">
+        <v>80940</v>
+      </c>
+      <c r="Z12" s="14" t="n">
+        <v>87120</v>
+      </c>
+      <c r="AA12" s="14" t="n">
+        <v>82600</v>
+      </c>
+      <c r="AB12" s="14" t="n">
+        <v>87940</v>
+      </c>
+      <c r="AC12" s="14" t="n">
+        <v>94572</v>
+      </c>
+      <c r="AD12" s="14" t="n">
         <v>65480</v>
       </c>
-      <c r="L12" s="14" t="n">
-        <v>60266</v>
-      </c>
-      <c r="M12" s="14" t="n">
-        <v>53360</v>
-      </c>
-      <c r="N12" s="14" t="n">
-        <v>65320</v>
-      </c>
-      <c r="O12" s="14" t="n">
-        <v>62380</v>
-      </c>
-      <c r="P12" s="14" t="n">
-        <v>88540</v>
-      </c>
-      <c r="Q12" s="14" t="n">
-        <v>106040</v>
-      </c>
-      <c r="R12" s="14" t="n">
-        <v>82660</v>
-      </c>
-      <c r="S12" s="14" t="n">
-        <v>39800</v>
-      </c>
-      <c r="T12" s="14" t="n">
-        <v>86160</v>
-      </c>
-      <c r="U12" s="14" t="n">
-        <v>82480</v>
-      </c>
-      <c r="V12" s="14" t="n">
-        <v>113120</v>
-      </c>
-      <c r="W12" s="14" t="n">
-        <v>42200</v>
-      </c>
-      <c r="X12" s="14" t="n">
-        <v>94916</v>
-      </c>
-      <c r="Y12" s="14" t="n">
-        <v>78380</v>
-      </c>
-      <c r="Z12" s="14" t="n">
-        <v>80940</v>
-      </c>
-      <c r="AA12" s="14" t="n">
-        <v>87120</v>
-      </c>
-      <c r="AB12" s="14" t="n">
-        <v>82600</v>
-      </c>
-      <c r="AC12" s="14" t="n">
-        <v>87940</v>
-      </c>
-      <c r="AD12" s="14" t="n">
-        <v>94572</v>
-      </c>
       <c r="AE12" s="14" t="n">
-        <v>65480</v>
+        <v>77320</v>
       </c>
       <c r="AF12" s="14" t="n">
-        <v>77320</v>
+        <v>69060</v>
       </c>
       <c r="AG12" s="14" t="n">
-        <v>69060</v>
+        <v>73960</v>
       </c>
       <c r="AH12" s="14" t="n">
-        <v>73960</v>
+        <v>28180</v>
       </c>
       <c r="AI12" s="14" t="n">
-        <v>28180</v>
+        <v>62680</v>
       </c>
       <c r="AJ12" s="14" t="n">
-        <v>62680</v>
+        <v>50380</v>
       </c>
       <c r="AK12" s="14" t="n">
-        <v>50380</v>
+        <v>75240</v>
       </c>
       <c r="AL12" s="14" t="n">
-        <v>75240</v>
+        <v>78780</v>
       </c>
       <c r="AM12" s="14" t="n">
-        <v>78780</v>
+        <v>83840</v>
       </c>
       <c r="AN12" s="14" t="n">
-        <v>83840</v>
+        <v>53100</v>
       </c>
       <c r="AO12" s="14" t="n">
-        <v>53100</v>
+        <v>58400</v>
       </c>
       <c r="AP12" s="14" t="n">
-        <v>58400</v>
+        <v>41840</v>
       </c>
       <c r="AQ12" s="14" t="n">
-        <v>41840</v>
+        <v>60160</v>
       </c>
       <c r="AR12" s="14" t="n">
-        <v>60160</v>
+        <v>87040</v>
       </c>
       <c r="AS12" s="14" t="n">
-        <v>87040</v>
+        <v>71460</v>
       </c>
       <c r="AT12" s="14" t="n">
-        <v>71460</v>
+        <v>54880</v>
       </c>
       <c r="AU12" s="14" t="n">
-        <v>54880</v>
+        <v>58708</v>
       </c>
       <c r="AV12" s="14" t="n">
-        <v>58708</v>
+        <v>56360</v>
       </c>
       <c r="AW12" s="14" t="n">
-        <v>56360</v>
+        <v>82858</v>
       </c>
       <c r="AX12" s="14" t="n">
-        <v>82858</v>
+        <v>80400</v>
       </c>
       <c r="AY12" s="14" t="n">
-        <v>80400</v>
+        <v>74420</v>
       </c>
       <c r="AZ12" s="14" t="n">
-        <v>74420</v>
+        <v>79825</v>
       </c>
       <c r="BA12" s="14" t="n">
-        <v>79825</v>
+        <v>86011</v>
       </c>
       <c r="BB12" s="14" t="n">
-        <v>90331</v>
+        <v>54224</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3565,154 +3565,154 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="n">
-        <v>13892</v>
+        <v>13791</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>13791</v>
+        <v>9392</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>9392</v>
+        <v>16775</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>16775</v>
+        <v>11371</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>11371</v>
+        <v>13597</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>13597</v>
+        <v>17489</v>
       </c>
       <c r="K13" s="12" t="n">
-        <v>17489</v>
+        <v>17560</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>17560</v>
+        <v>13464</v>
       </c>
       <c r="M13" s="12" t="n">
-        <v>13464</v>
+        <v>16810</v>
       </c>
       <c r="N13" s="12" t="n">
-        <v>16810</v>
+        <v>17966</v>
       </c>
       <c r="O13" s="12" t="n">
-        <v>17966</v>
+        <v>20260</v>
       </c>
       <c r="P13" s="12" t="n">
-        <v>20260</v>
+        <v>18519</v>
       </c>
       <c r="Q13" s="12" t="n">
-        <v>18519</v>
+        <v>15457</v>
       </c>
       <c r="R13" s="12" t="n">
-        <v>15457</v>
+        <v>5730</v>
       </c>
       <c r="S13" s="12" t="n">
-        <v>5730</v>
+        <v>15029</v>
       </c>
       <c r="T13" s="12" t="n">
-        <v>15029</v>
+        <v>14761</v>
       </c>
       <c r="U13" s="12" t="n">
-        <v>14761</v>
+        <v>20291</v>
       </c>
       <c r="V13" s="12" t="n">
-        <v>20291</v>
+        <v>8937</v>
       </c>
       <c r="W13" s="12" t="n">
-        <v>8937</v>
+        <v>15213</v>
       </c>
       <c r="X13" s="12" t="n">
-        <v>15213</v>
+        <v>17303</v>
       </c>
       <c r="Y13" s="12" t="n">
-        <v>17303</v>
+        <v>17329</v>
       </c>
       <c r="Z13" s="12" t="n">
-        <v>17329</v>
+        <v>21615</v>
       </c>
       <c r="AA13" s="12" t="n">
-        <v>21615</v>
+        <v>17570</v>
       </c>
       <c r="AB13" s="12" t="n">
-        <v>17570</v>
+        <v>20098</v>
       </c>
       <c r="AC13" s="12" t="n">
-        <v>20098</v>
+        <v>17153</v>
       </c>
       <c r="AD13" s="12" t="n">
-        <v>17153</v>
+        <v>8571</v>
       </c>
       <c r="AE13" s="12" t="n">
-        <v>8571</v>
+        <v>18289</v>
       </c>
       <c r="AF13" s="12" t="n">
-        <v>18289</v>
+        <v>17938</v>
       </c>
       <c r="AG13" s="12" t="n">
-        <v>17938</v>
+        <v>17707</v>
       </c>
       <c r="AH13" s="12" t="n">
-        <v>17707</v>
+        <v>6506</v>
       </c>
       <c r="AI13" s="12" t="n">
-        <v>6506</v>
+        <v>13382</v>
       </c>
       <c r="AJ13" s="12" t="n">
-        <v>13382</v>
+        <v>14299</v>
       </c>
       <c r="AK13" s="12" t="n">
-        <v>14299</v>
+        <v>22628</v>
       </c>
       <c r="AL13" s="12" t="n">
-        <v>22628</v>
+        <v>21771</v>
       </c>
       <c r="AM13" s="12" t="n">
-        <v>21771</v>
+        <v>17138</v>
       </c>
       <c r="AN13" s="12" t="n">
-        <v>17138</v>
+        <v>11174</v>
       </c>
       <c r="AO13" s="12" t="n">
-        <v>11174</v>
+        <v>15973</v>
       </c>
       <c r="AP13" s="12" t="n">
-        <v>15973</v>
+        <v>9483</v>
       </c>
       <c r="AQ13" s="12" t="n">
-        <v>9483</v>
+        <v>15590</v>
       </c>
       <c r="AR13" s="12" t="n">
-        <v>15590</v>
+        <v>16494</v>
       </c>
       <c r="AS13" s="12" t="n">
-        <v>16494</v>
+        <v>15584</v>
       </c>
       <c r="AT13" s="12" t="n">
-        <v>15584</v>
+        <v>12780</v>
       </c>
       <c r="AU13" s="12" t="n">
-        <v>12780</v>
+        <v>16905</v>
       </c>
       <c r="AV13" s="12" t="n">
-        <v>16905</v>
+        <v>10837</v>
       </c>
       <c r="AW13" s="12" t="n">
-        <v>10837</v>
+        <v>15580</v>
       </c>
       <c r="AX13" s="12" t="n">
-        <v>15580</v>
+        <v>12056</v>
       </c>
       <c r="AY13" s="12" t="n">
-        <v>12056</v>
+        <v>16510</v>
       </c>
       <c r="AZ13" s="12" t="n">
-        <v>16510</v>
+        <v>18276</v>
       </c>
       <c r="BA13" s="12" t="n">
-        <v>18276</v>
+        <v>16589</v>
       </c>
       <c r="BB13" s="12" t="n">
-        <v>16587</v>
+        <v>8806</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3724,154 +3724,154 @@
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="n">
-        <v>93060</v>
+        <v>109981</v>
       </c>
       <c r="F14" s="14" t="n">
-        <v>109981</v>
+        <v>71712</v>
       </c>
       <c r="G14" s="14" t="n">
-        <v>71712</v>
+        <v>140760</v>
       </c>
       <c r="H14" s="14" t="n">
-        <v>140760</v>
+        <v>131724</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>131724</v>
+        <v>146376</v>
       </c>
       <c r="J14" s="14" t="n">
-        <v>146376</v>
+        <v>104400</v>
       </c>
       <c r="K14" s="14" t="n">
-        <v>104400</v>
+        <v>127800</v>
       </c>
       <c r="L14" s="14" t="n">
-        <v>127800</v>
+        <v>126000</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>126000</v>
+        <v>114144</v>
       </c>
       <c r="N14" s="14" t="n">
-        <v>114144</v>
+        <v>102250</v>
       </c>
       <c r="O14" s="14" t="n">
-        <v>102250</v>
+        <v>114660</v>
       </c>
       <c r="P14" s="14" t="n">
-        <v>114660</v>
+        <v>124560</v>
       </c>
       <c r="Q14" s="14" t="n">
-        <v>124560</v>
+        <v>108180</v>
       </c>
       <c r="R14" s="14" t="n">
+        <v>47160</v>
+      </c>
+      <c r="S14" s="14" t="n">
+        <v>160680</v>
+      </c>
+      <c r="T14" s="14" t="n">
+        <v>105360</v>
+      </c>
+      <c r="U14" s="14" t="n">
+        <v>124814</v>
+      </c>
+      <c r="V14" s="14" t="n">
+        <v>82546</v>
+      </c>
+      <c r="W14" s="14" t="n">
+        <v>111530</v>
+      </c>
+      <c r="X14" s="14" t="n">
+        <v>90720</v>
+      </c>
+      <c r="Y14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="14" t="n">
+        <v>82800</v>
+      </c>
+      <c r="AA14" s="14" t="n">
+        <v>120960</v>
+      </c>
+      <c r="AB14" s="14" t="n">
+        <v>130680</v>
+      </c>
+      <c r="AC14" s="14" t="n">
+        <v>136080</v>
+      </c>
+      <c r="AD14" s="14" t="n">
+        <v>91440</v>
+      </c>
+      <c r="AE14" s="14" t="n">
+        <v>128700</v>
+      </c>
+      <c r="AF14" s="14" t="n">
+        <v>125640</v>
+      </c>
+      <c r="AG14" s="14" t="n">
+        <v>109440</v>
+      </c>
+      <c r="AH14" s="14" t="n">
+        <v>35280</v>
+      </c>
+      <c r="AI14" s="14" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AJ14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="14" t="n">
+        <v>60120</v>
+      </c>
+      <c r="AM14" s="14" t="n">
+        <v>43200</v>
+      </c>
+      <c r="AN14" s="14" t="n">
+        <v>19080</v>
+      </c>
+      <c r="AO14" s="14" t="n">
+        <v>47160</v>
+      </c>
+      <c r="AP14" s="14" t="n">
+        <v>66800</v>
+      </c>
+      <c r="AQ14" s="14" t="n">
+        <v>105120</v>
+      </c>
+      <c r="AR14" s="14" t="n">
+        <v>109980</v>
+      </c>
+      <c r="AS14" s="14" t="n">
+        <v>108000</v>
+      </c>
+      <c r="AT14" s="14" t="n">
+        <v>93600</v>
+      </c>
+      <c r="AU14" s="14" t="n">
+        <v>110700</v>
+      </c>
+      <c r="AV14" s="14" t="n">
+        <v>79920</v>
+      </c>
+      <c r="AW14" s="14" t="n">
+        <v>95220</v>
+      </c>
+      <c r="AX14" s="14" t="n">
+        <v>88380</v>
+      </c>
+      <c r="AY14" s="14" t="n">
+        <v>98640</v>
+      </c>
+      <c r="AZ14" s="14" t="n">
         <v>108180</v>
       </c>
-      <c r="S14" s="14" t="n">
-        <v>47160</v>
-      </c>
-      <c r="T14" s="14" t="n">
-        <v>160680</v>
-      </c>
-      <c r="U14" s="14" t="n">
-        <v>105360</v>
-      </c>
-      <c r="V14" s="14" t="n">
-        <v>124814</v>
-      </c>
-      <c r="W14" s="14" t="n">
-        <v>82546</v>
-      </c>
-      <c r="X14" s="14" t="n">
-        <v>111530</v>
-      </c>
-      <c r="Y14" s="14" t="n">
-        <v>90720</v>
-      </c>
-      <c r="Z14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="14" t="n">
-        <v>82800</v>
-      </c>
-      <c r="AB14" s="14" t="n">
-        <v>120960</v>
-      </c>
-      <c r="AC14" s="14" t="n">
-        <v>130680</v>
-      </c>
-      <c r="AD14" s="14" t="n">
-        <v>136080</v>
-      </c>
-      <c r="AE14" s="14" t="n">
-        <v>91440</v>
-      </c>
-      <c r="AF14" s="14" t="n">
-        <v>128700</v>
-      </c>
-      <c r="AG14" s="14" t="n">
-        <v>125640</v>
-      </c>
-      <c r="AH14" s="14" t="n">
-        <v>109440</v>
-      </c>
-      <c r="AI14" s="14" t="n">
-        <v>35280</v>
-      </c>
-      <c r="AJ14" s="14" t="n">
-        <v>2160</v>
-      </c>
-      <c r="AK14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="14" t="n">
-        <v>60120</v>
-      </c>
-      <c r="AN14" s="14" t="n">
-        <v>43200</v>
-      </c>
-      <c r="AO14" s="14" t="n">
-        <v>19080</v>
-      </c>
-      <c r="AP14" s="14" t="n">
-        <v>47160</v>
-      </c>
-      <c r="AQ14" s="14" t="n">
-        <v>66800</v>
-      </c>
-      <c r="AR14" s="14" t="n">
-        <v>105120</v>
-      </c>
-      <c r="AS14" s="14" t="n">
-        <v>109980</v>
-      </c>
-      <c r="AT14" s="14" t="n">
+      <c r="BA14" s="14" t="n">
         <v>108000</v>
       </c>
-      <c r="AU14" s="14" t="n">
-        <v>93600</v>
-      </c>
-      <c r="AV14" s="14" t="n">
-        <v>110700</v>
-      </c>
-      <c r="AW14" s="14" t="n">
-        <v>79920</v>
-      </c>
-      <c r="AX14" s="14" t="n">
-        <v>95220</v>
-      </c>
-      <c r="AY14" s="14" t="n">
-        <v>88380</v>
-      </c>
-      <c r="AZ14" s="14" t="n">
-        <v>98640</v>
-      </c>
-      <c r="BA14" s="14" t="n">
-        <v>108180</v>
-      </c>
       <c r="BB14" s="14" t="n">
-        <v>115200</v>
+        <v>72720</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4008,17 +4008,17 @@
       <c r="AT15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AU15" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV15" s="15" t="n">
-        <v>0</v>
+      <c r="AU15" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="AW15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AX15" s="15" t="s">
-        <v>62</v>
+      <c r="AX15" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AY15" s="15" t="n">
         <v>0</v>
@@ -4047,149 +4047,149 @@
       <c r="F16" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>62</v>
+      <c r="G16" s="16" t="n">
+        <v>23</v>
       </c>
       <c r="H16" s="16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I16" s="16" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J16" s="16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K16" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="L16" s="16" t="n">
         <v>33</v>
       </c>
-      <c r="M16" s="16" t="s">
-        <v>62</v>
+      <c r="L16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="16" t="n">
+        <v>47</v>
       </c>
       <c r="N16" s="16" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="O16" s="16" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P16" s="16" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="16" t="n">
+        <v>76</v>
+      </c>
+      <c r="R16" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="S16" s="16" t="n">
+        <v>89</v>
+      </c>
+      <c r="T16" s="16" t="n">
+        <v>61</v>
+      </c>
+      <c r="U16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="16" t="n">
+        <v>181</v>
+      </c>
+      <c r="X16" s="16" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y16" s="16" t="n">
+        <v>108</v>
+      </c>
+      <c r="Z16" s="16" t="n">
+        <v>156</v>
+      </c>
+      <c r="AA16" s="16" t="n">
+        <v>129</v>
+      </c>
+      <c r="AB16" s="16" t="n">
+        <v>138</v>
+      </c>
+      <c r="AC16" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD16" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE16" s="16" t="n">
+        <v>128</v>
+      </c>
+      <c r="AF16" s="16" t="n">
+        <v>142</v>
+      </c>
+      <c r="AG16" s="16" t="n">
+        <v>141</v>
+      </c>
+      <c r="AH16" s="16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI16" s="16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ16" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK16" s="16" t="n">
+        <v>61</v>
+      </c>
+      <c r="AL16" s="16" t="n">
+        <v>106</v>
+      </c>
+      <c r="AM16" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN16" s="16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO16" s="16" t="n">
+        <v>56</v>
+      </c>
+      <c r="AP16" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="Q16" s="16" t="n">
-        <v>50</v>
-      </c>
-      <c r="R16" s="16" t="n">
-        <v>76</v>
-      </c>
-      <c r="S16" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="T16" s="16" t="n">
-        <v>89</v>
-      </c>
-      <c r="U16" s="16" t="n">
-        <v>61</v>
-      </c>
-      <c r="V16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="16" t="n">
-        <v>181</v>
-      </c>
-      <c r="Y16" s="16" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z16" s="16" t="n">
-        <v>108</v>
-      </c>
-      <c r="AA16" s="16" t="n">
-        <v>156</v>
-      </c>
-      <c r="AB16" s="16" t="n">
-        <v>129</v>
-      </c>
-      <c r="AC16" s="16" t="n">
-        <v>138</v>
-      </c>
-      <c r="AD16" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE16" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AF16" s="16" t="n">
-        <v>128</v>
-      </c>
-      <c r="AG16" s="16" t="n">
-        <v>142</v>
-      </c>
-      <c r="AH16" s="16" t="n">
-        <v>141</v>
-      </c>
-      <c r="AI16" s="16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ16" s="16" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK16" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL16" s="16" t="n">
-        <v>61</v>
-      </c>
-      <c r="AM16" s="16" t="n">
-        <v>106</v>
-      </c>
-      <c r="AN16" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO16" s="16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP16" s="16" t="n">
-        <v>56</v>
-      </c>
       <c r="AQ16" s="16" t="n">
+        <v>63</v>
+      </c>
+      <c r="AR16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="16" t="n">
+        <v>43</v>
+      </c>
+      <c r="AV16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="AR16" s="16" t="n">
-        <v>63</v>
-      </c>
-      <c r="AS16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="16" t="n">
-        <v>43</v>
-      </c>
-      <c r="AW16" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AX16" s="16" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AY16" s="16" t="n">
         <v>29</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4335,11 +4335,11 @@
       <c r="AW17" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AX17" s="15" t="s">
-        <v>62</v>
+      <c r="AX17" s="15" t="n">
+        <v>213</v>
       </c>
       <c r="AY17" s="15" t="n">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="15" t="n">
         <v>0</v>
@@ -4494,20 +4494,20 @@
       <c r="AW18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AX18" s="16" t="s">
-        <v>62</v>
+      <c r="AX18" s="16" t="n">
+        <v>144</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,8 +4630,8 @@
       <c r="W20" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="X20" s="20" t="s">
-        <v>62</v>
+      <c r="X20" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="Y20" s="20" t="n">
         <v>0</v>
@@ -4731,154 +4731,154 @@
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="n">
-        <v>185764</v>
+        <v>231712</v>
       </c>
       <c r="F21" s="22" t="n">
-        <v>231712</v>
+        <v>153490</v>
       </c>
       <c r="G21" s="22" t="n">
-        <v>153490</v>
+        <v>261541</v>
       </c>
       <c r="H21" s="22" t="n">
-        <v>261541</v>
+        <v>228299</v>
       </c>
       <c r="I21" s="22" t="n">
-        <v>228299</v>
+        <v>260120</v>
       </c>
       <c r="J21" s="22" t="n">
-        <v>260120</v>
+        <v>187375</v>
       </c>
       <c r="K21" s="22" t="n">
-        <v>187375</v>
+        <v>205659</v>
       </c>
       <c r="L21" s="22" t="n">
-        <v>205659</v>
+        <v>192824</v>
       </c>
       <c r="M21" s="22" t="n">
-        <v>192824</v>
+        <v>196321</v>
       </c>
       <c r="N21" s="22" t="n">
-        <v>196321</v>
+        <v>182596</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>182596</v>
+        <v>223500</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>223500</v>
+        <v>249169</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>249169</v>
+        <v>206373</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>206373</v>
+        <v>92710</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>92710</v>
+        <v>261958</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>261958</v>
+        <v>202662</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>202662</v>
+        <v>258225</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>258225</v>
+        <v>133683</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>133683</v>
+        <v>221840</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>221840</v>
+        <v>186441</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>186441</v>
+        <v>98377</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>98377</v>
+        <v>191691</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>191691</v>
+        <v>221259</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>221259</v>
+        <v>238856</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>238856</v>
+        <v>247905</v>
       </c>
       <c r="AD21" s="22" t="n">
-        <v>247905</v>
+        <v>165572</v>
       </c>
       <c r="AE21" s="22" t="n">
-        <v>165572</v>
+        <v>224437</v>
       </c>
       <c r="AF21" s="22" t="n">
-        <v>224437</v>
+        <v>212780</v>
       </c>
       <c r="AG21" s="22" t="n">
-        <v>212780</v>
+        <v>201248</v>
       </c>
       <c r="AH21" s="22" t="n">
-        <v>201248</v>
+        <v>70016</v>
       </c>
       <c r="AI21" s="22" t="n">
-        <v>70016</v>
+        <v>78312</v>
       </c>
       <c r="AJ21" s="22" t="n">
-        <v>78312</v>
+        <v>64779</v>
       </c>
       <c r="AK21" s="22" t="n">
-        <v>64779</v>
+        <v>97929</v>
       </c>
       <c r="AL21" s="22" t="n">
-        <v>97929</v>
+        <v>160777</v>
       </c>
       <c r="AM21" s="22" t="n">
-        <v>160777</v>
+        <v>144278</v>
       </c>
       <c r="AN21" s="22" t="n">
-        <v>144278</v>
+        <v>83414</v>
       </c>
       <c r="AO21" s="22" t="n">
-        <v>83414</v>
+        <v>121589</v>
       </c>
       <c r="AP21" s="22" t="n">
-        <v>121589</v>
+        <v>118163</v>
       </c>
       <c r="AQ21" s="22" t="n">
-        <v>118163</v>
+        <v>180933</v>
       </c>
       <c r="AR21" s="22" t="n">
-        <v>180933</v>
+        <v>213514</v>
       </c>
       <c r="AS21" s="22" t="n">
-        <v>213514</v>
+        <v>195057</v>
       </c>
       <c r="AT21" s="22" t="n">
-        <v>195057</v>
+        <v>161260</v>
       </c>
       <c r="AU21" s="22" t="n">
-        <v>161260</v>
+        <v>186356</v>
       </c>
       <c r="AV21" s="22" t="n">
-        <v>186356</v>
+        <v>147117</v>
       </c>
       <c r="AW21" s="22" t="n">
-        <v>147117</v>
+        <v>193698</v>
       </c>
       <c r="AX21" s="22" t="n">
-        <v>193698</v>
+        <v>181222</v>
       </c>
       <c r="AY21" s="22" t="n">
-        <v>181222</v>
+        <v>189599</v>
       </c>
       <c r="AZ21" s="22" t="n">
-        <v>189599</v>
+        <v>206332</v>
       </c>
       <c r="BA21" s="22" t="n">
-        <v>206332</v>
+        <v>210776</v>
       </c>
       <c r="BB21" s="22" t="n">
-        <v>222294</v>
+        <v>135884</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5483,154 +5483,154 @@
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16" t="n">
-        <v>121406</v>
+        <v>382543</v>
       </c>
       <c r="F29" s="16" t="n">
-        <v>382543</v>
+        <v>76687</v>
       </c>
       <c r="G29" s="16" t="n">
-        <v>76687</v>
+        <v>122004</v>
       </c>
       <c r="H29" s="16" t="n">
-        <v>122004</v>
+        <v>49240</v>
       </c>
       <c r="I29" s="16" t="n">
-        <v>49240</v>
+        <v>61299</v>
       </c>
       <c r="J29" s="16" t="n">
-        <v>61299</v>
+        <v>29817</v>
       </c>
       <c r="K29" s="16" t="n">
-        <v>29817</v>
+        <v>6216</v>
       </c>
       <c r="L29" s="16" t="n">
-        <v>6216</v>
+        <v>564</v>
       </c>
       <c r="M29" s="16" t="n">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="N29" s="16" t="n">
-        <v>0</v>
+        <v>5312</v>
       </c>
       <c r="O29" s="16" t="n">
-        <v>5312</v>
+        <v>182516</v>
       </c>
       <c r="P29" s="16" t="n">
-        <v>182516</v>
+        <v>253390</v>
       </c>
       <c r="Q29" s="16" t="n">
-        <v>253390</v>
+        <v>205848</v>
       </c>
       <c r="R29" s="16" t="n">
-        <v>205848</v>
+        <v>25041</v>
       </c>
       <c r="S29" s="16" t="n">
-        <v>25041</v>
+        <v>160441</v>
       </c>
       <c r="T29" s="16" t="n">
-        <v>160441</v>
+        <v>121442</v>
       </c>
       <c r="U29" s="16" t="n">
-        <v>121442</v>
+        <v>116781</v>
       </c>
       <c r="V29" s="16" t="n">
-        <v>116781</v>
+        <v>16420</v>
       </c>
       <c r="W29" s="16" t="n">
-        <v>16420</v>
+        <v>3521</v>
       </c>
       <c r="X29" s="16" t="n">
-        <v>3521</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="16" t="n">
-        <v>0</v>
+        <v>41860</v>
       </c>
       <c r="AA29" s="16" t="n">
-        <v>41860</v>
+        <v>68940</v>
       </c>
       <c r="AB29" s="16" t="n">
-        <v>68940</v>
+        <v>121564</v>
       </c>
       <c r="AC29" s="16" t="n">
-        <v>121564</v>
+        <v>212900</v>
       </c>
       <c r="AD29" s="16" t="n">
-        <v>212900</v>
+        <v>39940</v>
       </c>
       <c r="AE29" s="16" t="n">
-        <v>39940</v>
+        <v>87740</v>
       </c>
       <c r="AF29" s="16" t="n">
-        <v>87740</v>
+        <v>76961</v>
       </c>
       <c r="AG29" s="16" t="n">
-        <v>76961</v>
+        <v>58666</v>
       </c>
       <c r="AH29" s="16" t="n">
-        <v>58666</v>
+        <v>30520</v>
       </c>
       <c r="AI29" s="16" t="n">
-        <v>30520</v>
+        <v>24060</v>
       </c>
       <c r="AJ29" s="16" t="n">
-        <v>24060</v>
+        <v>16920</v>
       </c>
       <c r="AK29" s="16" t="n">
-        <v>16920</v>
+        <v>135200</v>
       </c>
       <c r="AL29" s="16" t="n">
-        <v>135200</v>
+        <v>56440</v>
       </c>
       <c r="AM29" s="16" t="n">
-        <v>56440</v>
+        <v>77160</v>
       </c>
       <c r="AN29" s="16" t="n">
-        <v>77160</v>
+        <v>18183</v>
       </c>
       <c r="AO29" s="16" t="n">
-        <v>18183</v>
+        <v>148588</v>
       </c>
       <c r="AP29" s="16" t="n">
-        <v>148588</v>
+        <v>29720</v>
       </c>
       <c r="AQ29" s="16" t="n">
-        <v>29720</v>
+        <v>96481</v>
       </c>
       <c r="AR29" s="16" t="n">
-        <v>96481</v>
+        <v>87092</v>
       </c>
       <c r="AS29" s="16" t="n">
-        <v>87092</v>
+        <v>49300</v>
       </c>
       <c r="AT29" s="16" t="n">
-        <v>49300</v>
+        <v>20046</v>
       </c>
       <c r="AU29" s="16" t="n">
-        <v>20046</v>
+        <v>2400</v>
       </c>
       <c r="AV29" s="16" t="n">
-        <v>2400</v>
+        <v>14800</v>
       </c>
       <c r="AW29" s="16" t="n">
-        <v>14800</v>
+        <v>5315</v>
       </c>
       <c r="AX29" s="16" t="n">
-        <v>5315</v>
+        <v>177763</v>
       </c>
       <c r="AY29" s="16" t="n">
-        <v>177763</v>
+        <v>15990</v>
       </c>
       <c r="AZ29" s="16" t="n">
-        <v>15990</v>
+        <v>281127</v>
       </c>
       <c r="BA29" s="16" t="n">
-        <v>281127</v>
+        <v>124214</v>
       </c>
       <c r="BB29" s="16" t="n">
-        <v>127254</v>
+        <v>19552</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5642,154 +5642,154 @@
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="n">
-        <v>17634</v>
+        <v>32098</v>
       </c>
       <c r="F30" s="15" t="n">
-        <v>32098</v>
+        <v>10101</v>
       </c>
       <c r="G30" s="15" t="n">
-        <v>10101</v>
+        <v>19364</v>
       </c>
       <c r="H30" s="15" t="n">
-        <v>19364</v>
+        <v>13344</v>
       </c>
       <c r="I30" s="15" t="n">
-        <v>13344</v>
+        <v>11472</v>
       </c>
       <c r="J30" s="15" t="n">
-        <v>11472</v>
+        <v>16069</v>
       </c>
       <c r="K30" s="15" t="n">
-        <v>16069</v>
+        <v>16275</v>
       </c>
       <c r="L30" s="15" t="n">
-        <v>16275</v>
+        <v>11634</v>
       </c>
       <c r="M30" s="15" t="n">
-        <v>11634</v>
+        <v>11757</v>
       </c>
       <c r="N30" s="15" t="n">
-        <v>11757</v>
+        <v>21780</v>
       </c>
       <c r="O30" s="15" t="n">
-        <v>21780</v>
+        <v>18429</v>
       </c>
       <c r="P30" s="15" t="n">
-        <v>18429</v>
+        <v>12948</v>
       </c>
       <c r="Q30" s="15" t="n">
-        <v>12948</v>
+        <v>23863</v>
       </c>
       <c r="R30" s="15" t="n">
-        <v>23863</v>
+        <v>3986</v>
       </c>
       <c r="S30" s="15" t="n">
-        <v>3986</v>
+        <v>21332</v>
       </c>
       <c r="T30" s="15" t="n">
-        <v>21332</v>
+        <v>14134</v>
       </c>
       <c r="U30" s="15" t="n">
-        <v>14134</v>
+        <v>24802</v>
       </c>
       <c r="V30" s="15" t="n">
-        <v>24802</v>
+        <v>16909</v>
       </c>
       <c r="W30" s="15" t="n">
-        <v>16909</v>
+        <v>15287</v>
       </c>
       <c r="X30" s="15" t="n">
-        <v>15287</v>
+        <v>12557</v>
       </c>
       <c r="Y30" s="15" t="n">
-        <v>12557</v>
+        <v>13730</v>
       </c>
       <c r="Z30" s="15" t="n">
-        <v>13730</v>
+        <v>10372</v>
       </c>
       <c r="AA30" s="15" t="n">
-        <v>10372</v>
+        <v>10427</v>
       </c>
       <c r="AB30" s="15" t="n">
-        <v>10427</v>
+        <v>12537</v>
       </c>
       <c r="AC30" s="15" t="n">
-        <v>12537</v>
+        <v>30323</v>
       </c>
       <c r="AD30" s="15" t="n">
-        <v>30323</v>
+        <v>3263</v>
       </c>
       <c r="AE30" s="15" t="n">
-        <v>3263</v>
+        <v>13004</v>
       </c>
       <c r="AF30" s="15" t="n">
-        <v>13004</v>
+        <v>12028</v>
       </c>
       <c r="AG30" s="15" t="n">
-        <v>12028</v>
+        <v>16432</v>
       </c>
       <c r="AH30" s="15" t="n">
-        <v>16432</v>
+        <v>10966</v>
       </c>
       <c r="AI30" s="15" t="n">
-        <v>10966</v>
+        <v>19197</v>
       </c>
       <c r="AJ30" s="15" t="n">
-        <v>19197</v>
+        <v>10538</v>
       </c>
       <c r="AK30" s="15" t="n">
-        <v>10538</v>
+        <v>15784</v>
       </c>
       <c r="AL30" s="15" t="n">
-        <v>15784</v>
+        <v>9869</v>
       </c>
       <c r="AM30" s="15" t="n">
-        <v>9869</v>
+        <v>12861</v>
       </c>
       <c r="AN30" s="15" t="n">
-        <v>12861</v>
+        <v>14648</v>
       </c>
       <c r="AO30" s="15" t="n">
-        <v>14648</v>
+        <v>16438</v>
       </c>
       <c r="AP30" s="15" t="n">
-        <v>16438</v>
+        <v>396</v>
       </c>
       <c r="AQ30" s="15" t="n">
-        <v>396</v>
+        <v>12224</v>
       </c>
       <c r="AR30" s="15" t="n">
-        <v>12224</v>
+        <v>21303</v>
       </c>
       <c r="AS30" s="15" t="n">
-        <v>21303</v>
+        <v>12289</v>
       </c>
       <c r="AT30" s="15" t="n">
-        <v>12289</v>
+        <v>10574</v>
       </c>
       <c r="AU30" s="15" t="n">
-        <v>10574</v>
+        <v>14475</v>
       </c>
       <c r="AV30" s="15" t="n">
-        <v>14475</v>
+        <v>16563</v>
       </c>
       <c r="AW30" s="15" t="n">
-        <v>16563</v>
+        <v>15141</v>
       </c>
       <c r="AX30" s="15" t="n">
-        <v>15141</v>
+        <v>31072</v>
       </c>
       <c r="AY30" s="15" t="n">
-        <v>31072</v>
+        <v>13461</v>
       </c>
       <c r="AZ30" s="15" t="n">
-        <v>13461</v>
+        <v>16659</v>
       </c>
       <c r="BA30" s="15" t="n">
-        <v>16659</v>
+        <v>18722</v>
       </c>
       <c r="BB30" s="15" t="n">
-        <v>18696</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5801,154 +5801,154 @@
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16" t="n">
-        <v>97560</v>
+        <v>487620</v>
       </c>
       <c r="F31" s="16" t="n">
-        <v>487620</v>
+        <v>51048</v>
       </c>
       <c r="G31" s="16" t="n">
-        <v>51048</v>
+        <v>192851</v>
       </c>
       <c r="H31" s="16" t="n">
-        <v>192851</v>
+        <v>150500</v>
       </c>
       <c r="I31" s="16" t="n">
-        <v>150500</v>
+        <v>136800</v>
       </c>
       <c r="J31" s="16" t="n">
-        <v>136800</v>
+        <v>68040</v>
       </c>
       <c r="K31" s="16" t="n">
-        <v>68040</v>
+        <v>2</v>
       </c>
       <c r="L31" s="16" t="n">
-        <v>2</v>
+        <v>900</v>
       </c>
       <c r="M31" s="16" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="N31" s="16" t="n">
-        <v>0</v>
+        <v>10260</v>
       </c>
       <c r="O31" s="16" t="n">
-        <v>10260</v>
+        <v>152280</v>
       </c>
       <c r="P31" s="16" t="n">
-        <v>152280</v>
+        <v>320760</v>
       </c>
       <c r="Q31" s="16" t="n">
-        <v>320760</v>
+        <v>147920</v>
       </c>
       <c r="R31" s="16" t="n">
-        <v>147920</v>
+        <v>23040</v>
       </c>
       <c r="S31" s="16" t="n">
-        <v>23040</v>
+        <v>345951</v>
       </c>
       <c r="T31" s="16" t="n">
-        <v>345951</v>
+        <v>154542</v>
       </c>
       <c r="U31" s="16" t="n">
-        <v>154542</v>
+        <v>499596</v>
       </c>
       <c r="V31" s="16" t="n">
-        <v>499596</v>
+        <v>27382</v>
       </c>
       <c r="W31" s="16" t="n">
-        <v>27382</v>
+        <v>7200</v>
       </c>
       <c r="X31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="16" t="n">
+        <v>41040</v>
+      </c>
+      <c r="AA31" s="16" t="n">
+        <v>87661</v>
+      </c>
+      <c r="AB31" s="16" t="n">
+        <v>117880</v>
+      </c>
+      <c r="AC31" s="16" t="n">
+        <v>230400</v>
+      </c>
+      <c r="AD31" s="16" t="n">
+        <v>38160</v>
+      </c>
+      <c r="AE31" s="16" t="n">
+        <v>152100</v>
+      </c>
+      <c r="AF31" s="16" t="n">
+        <v>59040</v>
+      </c>
+      <c r="AG31" s="16" t="n">
+        <v>26640</v>
+      </c>
+      <c r="AH31" s="16" t="n">
+        <v>27900</v>
+      </c>
+      <c r="AI31" s="16" t="n">
+        <v>27360</v>
+      </c>
+      <c r="AJ31" s="16" t="n">
         <v>7200</v>
       </c>
-      <c r="Y31" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="16" t="n">
-        <v>41040</v>
-      </c>
-      <c r="AB31" s="16" t="n">
-        <v>87661</v>
-      </c>
-      <c r="AC31" s="16" t="n">
-        <v>117880</v>
-      </c>
-      <c r="AD31" s="16" t="n">
-        <v>230400</v>
-      </c>
-      <c r="AE31" s="16" t="n">
-        <v>38160</v>
-      </c>
-      <c r="AF31" s="16" t="n">
-        <v>152100</v>
-      </c>
-      <c r="AG31" s="16" t="n">
-        <v>59040</v>
-      </c>
-      <c r="AH31" s="16" t="n">
-        <v>26640</v>
-      </c>
-      <c r="AI31" s="16" t="n">
-        <v>27900</v>
-      </c>
-      <c r="AJ31" s="16" t="n">
-        <v>27360</v>
-      </c>
       <c r="AK31" s="16" t="n">
-        <v>7200</v>
+        <v>176584</v>
       </c>
       <c r="AL31" s="16" t="n">
-        <v>176584</v>
+        <v>40320</v>
       </c>
       <c r="AM31" s="16" t="n">
         <v>40320</v>
       </c>
       <c r="AN31" s="16" t="n">
-        <v>40320</v>
+        <v>65340</v>
       </c>
       <c r="AO31" s="16" t="n">
-        <v>65340</v>
+        <v>249223</v>
       </c>
       <c r="AP31" s="16" t="n">
-        <v>249223</v>
+        <v>39260</v>
       </c>
       <c r="AQ31" s="16" t="n">
-        <v>39260</v>
+        <v>93918</v>
       </c>
       <c r="AR31" s="16" t="n">
-        <v>93918</v>
+        <v>140270</v>
       </c>
       <c r="AS31" s="16" t="n">
-        <v>140270</v>
+        <v>55680</v>
       </c>
       <c r="AT31" s="16" t="n">
-        <v>55680</v>
+        <v>17100</v>
       </c>
       <c r="AU31" s="16" t="n">
-        <v>17100</v>
+        <v>0</v>
       </c>
       <c r="AV31" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AW31" s="16" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AX31" s="16" t="n">
-        <v>50000</v>
+        <v>165397</v>
       </c>
       <c r="AY31" s="16" t="n">
-        <v>165397</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="16" t="n">
-        <v>0</v>
+        <v>460811</v>
       </c>
       <c r="BA31" s="16" t="n">
-        <v>460811</v>
+        <v>171389</v>
       </c>
       <c r="BB31" s="16" t="n">
-        <v>171389</v>
+        <v>38700</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6085,17 +6085,17 @@
       <c r="AT32" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AU32" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV32" s="15" t="n">
-        <v>0</v>
+      <c r="AU32" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="AW32" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AX32" s="15" t="s">
-        <v>62</v>
+      <c r="AX32" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AY32" s="15" t="n">
         <v>0</v>
@@ -6124,149 +6124,149 @@
       <c r="F33" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="16" t="s">
-        <v>62</v>
+      <c r="G33" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="H33" s="16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I33" s="16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J33" s="16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K33" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="L33" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="M33" s="16" t="s">
-        <v>62</v>
+      <c r="L33" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="16" t="n">
+        <v>12</v>
       </c>
       <c r="N33" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="O33" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="P33" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q33" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="R33" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" s="16" t="n">
+        <v>32</v>
+      </c>
+      <c r="T33" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="U33" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="V33" s="16" t="n">
+        <v>29</v>
+      </c>
+      <c r="W33" s="16" t="n">
+        <v>50</v>
+      </c>
+      <c r="X33" s="16" t="n">
+        <v>68</v>
+      </c>
+      <c r="Y33" s="16" t="n">
+        <v>106</v>
+      </c>
+      <c r="Z33" s="16" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA33" s="16" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB33" s="16" t="n">
+        <v>72</v>
+      </c>
+      <c r="AC33" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD33" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE33" s="16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF33" s="16" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG33" s="16" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH33" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI33" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ33" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="O33" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="P33" s="16" t="n">
+      <c r="AK33" s="16" t="n">
+        <v>62</v>
+      </c>
+      <c r="AL33" s="16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM33" s="16" t="n">
+        <v>49</v>
+      </c>
+      <c r="AN33" s="16" t="n">
+        <v>58</v>
+      </c>
+      <c r="AO33" s="16" t="n">
+        <v>89</v>
+      </c>
+      <c r="AP33" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="16" t="n">
+        <v>66</v>
+      </c>
+      <c r="AR33" s="16" t="n">
+        <v>57</v>
+      </c>
+      <c r="AS33" s="16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT33" s="16" t="n">
+        <v>92</v>
+      </c>
+      <c r="AU33" s="16" t="n">
+        <v>77</v>
+      </c>
+      <c r="AV33" s="16" t="n">
+        <v>74</v>
+      </c>
+      <c r="AW33" s="16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AX33" s="16" t="n">
+        <v>91</v>
+      </c>
+      <c r="AY33" s="16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AZ33" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA33" s="16" t="n">
         <v>34</v>
       </c>
-      <c r="Q33" s="16" t="n">
-        <v>17</v>
-      </c>
-      <c r="R33" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="S33" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="T33" s="16" t="n">
-        <v>32</v>
-      </c>
-      <c r="U33" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="V33" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="W33" s="16" t="n">
-        <v>29</v>
-      </c>
-      <c r="X33" s="16" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y33" s="16" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z33" s="16" t="n">
-        <v>106</v>
-      </c>
-      <c r="AA33" s="16" t="n">
-        <v>39</v>
-      </c>
-      <c r="AB33" s="16" t="n">
-        <v>43</v>
-      </c>
-      <c r="AC33" s="16" t="n">
-        <v>72</v>
-      </c>
-      <c r="AD33" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE33" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF33" s="16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG33" s="16" t="n">
-        <v>43</v>
-      </c>
-      <c r="AH33" s="16" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI33" s="16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ33" s="16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK33" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL33" s="16" t="n">
-        <v>62</v>
-      </c>
-      <c r="AM33" s="16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AN33" s="16" t="n">
-        <v>49</v>
-      </c>
-      <c r="AO33" s="16" t="n">
-        <v>58</v>
-      </c>
-      <c r="AP33" s="16" t="n">
-        <v>89</v>
-      </c>
-      <c r="AQ33" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR33" s="16" t="n">
-        <v>66</v>
-      </c>
-      <c r="AS33" s="16" t="n">
-        <v>57</v>
-      </c>
-      <c r="AT33" s="16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AU33" s="16" t="n">
-        <v>92</v>
-      </c>
-      <c r="AV33" s="16" t="n">
-        <v>77</v>
-      </c>
-      <c r="AW33" s="16" t="n">
-        <v>74</v>
-      </c>
-      <c r="AX33" s="16" t="n">
-        <v>130</v>
-      </c>
-      <c r="AY33" s="16" t="n">
-        <v>91</v>
-      </c>
-      <c r="AZ33" s="16" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA33" s="16" t="n">
-        <v>27</v>
-      </c>
       <c r="BB33" s="16" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6412,8 +6412,8 @@
       <c r="AW34" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AX34" s="15" t="s">
-        <v>62</v>
+      <c r="AX34" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AY34" s="15" t="n">
         <v>0</v>
@@ -6571,8 +6571,8 @@
       <c r="AW35" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AX35" s="16" t="s">
-        <v>62</v>
+      <c r="AX35" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AY35" s="16" t="n">
         <v>0</v>
@@ -6707,8 +6707,8 @@
       <c r="W37" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="X37" s="20" t="s">
-        <v>62</v>
+      <c r="X37" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="Y37" s="20" t="n">
         <v>0</v>
@@ -6929,11 +6929,11 @@
       <c r="Y39" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Z39" s="15" t="s">
-        <v>62</v>
+      <c r="Z39" s="15" t="n">
+        <v>-1</v>
       </c>
       <c r="AA39" s="15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="15" t="n">
         <v>0</v>
@@ -6944,8 +6944,8 @@
       <c r="AD39" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AE39" s="15" t="n">
-        <v>0</v>
+      <c r="AE39" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="AF39" s="15" t="s">
         <v>62</v>
@@ -7085,8 +7085,8 @@
       <c r="X40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Y40" s="16" t="s">
-        <v>62</v>
+      <c r="Y40" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Z40" s="16" t="n">
         <v>0</v>
@@ -7095,16 +7095,16 @@
         <v>0</v>
       </c>
       <c r="AB40" s="16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC40" s="16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE40" s="16" t="n">
-        <v>0</v>
+      <c r="AE40" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="AF40" s="16" t="s">
         <v>62</v>
@@ -7244,26 +7244,26 @@
       <c r="X41" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Y41" s="15" t="s">
-        <v>62</v>
+      <c r="Y41" s="15" t="n">
+        <v>-10</v>
       </c>
       <c r="Z41" s="15" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="AA41" s="15" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="15" t="n">
-        <v>0</v>
+        <v>-72</v>
       </c>
       <c r="AC41" s="15" t="n">
-        <v>-72</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AE41" s="15" t="n">
-        <v>0</v>
+      <c r="AE41" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="AF41" s="15" t="s">
         <v>62</v>
@@ -7274,53 +7274,53 @@
       <c r="AH41" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AI41" s="15" t="s">
-        <v>62</v>
+      <c r="AI41" s="15" t="n">
+        <v>-1</v>
       </c>
       <c r="AJ41" s="15" t="n">
         <v>-1</v>
       </c>
-      <c r="AK41" s="15" t="n">
+      <c r="AK41" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL41" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM41" s="15" t="n">
+        <v>-258</v>
+      </c>
+      <c r="AN41" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO41" s="15" t="n">
         <v>-1</v>
       </c>
-      <c r="AL41" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM41" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN41" s="15" t="n">
-        <v>-258</v>
-      </c>
-      <c r="AO41" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP41" s="15" t="n">
+      <c r="AP41" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ41" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR41" s="15" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AS41" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT41" s="15" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AU41" s="15" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AV41" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW41" s="15" t="n">
         <v>-1</v>
       </c>
-      <c r="AQ41" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR41" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS41" s="15" t="n">
-        <v>-8</v>
-      </c>
-      <c r="AT41" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU41" s="15" t="n">
-        <v>-12</v>
-      </c>
-      <c r="AV41" s="15" t="n">
-        <v>-7</v>
-      </c>
-      <c r="AW41" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX41" s="15" t="n">
-        <v>-1</v>
+      <c r="AX41" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="AY41" s="15" t="s">
         <v>62</v>
@@ -7403,8 +7403,8 @@
       <c r="X42" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Y42" s="16" t="s">
-        <v>62</v>
+      <c r="Y42" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Z42" s="16" t="n">
         <v>0</v>
@@ -7421,8 +7421,8 @@
       <c r="AD42" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE42" s="16" t="n">
-        <v>0</v>
+      <c r="AE42" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="AF42" s="16" t="s">
         <v>62</v>
@@ -7565,11 +7565,11 @@
       <c r="Y43" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Z43" s="15" t="s">
-        <v>62</v>
+      <c r="Z43" s="15" t="n">
+        <v>-1</v>
       </c>
       <c r="AA43" s="15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="15" t="n">
         <v>0</v>
@@ -7580,8 +7580,8 @@
       <c r="AD43" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AE43" s="15" t="n">
-        <v>0</v>
+      <c r="AE43" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="AF43" s="15" t="s">
         <v>62</v>
@@ -7649,8 +7649,8 @@
       <c r="BA43" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BB43" s="15" t="s">
-        <v>62</v>
+      <c r="BB43" s="15" t="n">
+        <v>-4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7716,23 +7716,23 @@
       <c r="W44" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="X44" s="22" t="s">
-        <v>62</v>
+      <c r="X44" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="Y44" s="22" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="Z44" s="22" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="AA44" s="22" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="22" t="n">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="AC44" s="22" t="n">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="22" t="n">
         <v>0</v>
@@ -7750,52 +7750,52 @@
         <v>0</v>
       </c>
       <c r="AI44" s="22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ44" s="22" t="n">
         <v>-1</v>
       </c>
       <c r="AK44" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="22" t="n">
+        <v>-258</v>
+      </c>
+      <c r="AN44" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="22" t="n">
         <v>-1</v>
       </c>
-      <c r="AL44" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN44" s="22" t="n">
-        <v>-258</v>
-      </c>
-      <c r="AO44" s="22" t="n">
-        <v>0</v>
-      </c>
       <c r="AP44" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="22" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AS44" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="22" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AU44" s="22" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AV44" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="22" t="n">
         <v>-1</v>
       </c>
-      <c r="AQ44" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS44" s="22" t="n">
-        <v>-8</v>
-      </c>
-      <c r="AT44" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" s="22" t="n">
-        <v>-12</v>
-      </c>
-      <c r="AV44" s="22" t="n">
-        <v>-7</v>
-      </c>
-      <c r="AW44" s="22" t="n">
-        <v>0</v>
-      </c>
       <c r="AX44" s="22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY44" s="22" t="n">
         <v>0</v>
@@ -7807,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="BB44" s="22" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7817,154 +7817,154 @@
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20" t="n">
-        <v>236600</v>
+        <v>902261</v>
       </c>
       <c r="F45" s="20" t="n">
-        <v>902261</v>
+        <v>137836</v>
       </c>
       <c r="G45" s="20" t="n">
-        <v>137836</v>
+        <v>334219</v>
       </c>
       <c r="H45" s="20" t="n">
-        <v>334219</v>
+        <v>213093</v>
       </c>
       <c r="I45" s="20" t="n">
-        <v>213093</v>
+        <v>209576</v>
       </c>
       <c r="J45" s="20" t="n">
-        <v>209576</v>
+        <v>113930</v>
       </c>
       <c r="K45" s="20" t="n">
-        <v>113930</v>
+        <v>22494</v>
       </c>
       <c r="L45" s="20" t="n">
-        <v>22494</v>
+        <v>13098</v>
       </c>
       <c r="M45" s="20" t="n">
-        <v>13098</v>
+        <v>11769</v>
       </c>
       <c r="N45" s="20" t="n">
-        <v>11769</v>
+        <v>37366</v>
       </c>
       <c r="O45" s="20" t="n">
-        <v>37366</v>
+        <v>353259</v>
       </c>
       <c r="P45" s="20" t="n">
-        <v>353259</v>
+        <v>587115</v>
       </c>
       <c r="Q45" s="20" t="n">
-        <v>587115</v>
+        <v>377645</v>
       </c>
       <c r="R45" s="20" t="n">
-        <v>377645</v>
+        <v>52069</v>
       </c>
       <c r="S45" s="20" t="n">
-        <v>52069</v>
+        <v>527756</v>
       </c>
       <c r="T45" s="20" t="n">
-        <v>527756</v>
+        <v>290132</v>
       </c>
       <c r="U45" s="20" t="n">
-        <v>290132</v>
+        <v>641195</v>
       </c>
       <c r="V45" s="20" t="n">
-        <v>641195</v>
+        <v>60740</v>
       </c>
       <c r="W45" s="20" t="n">
-        <v>60740</v>
+        <v>26058</v>
       </c>
       <c r="X45" s="20" t="n">
-        <v>26058</v>
+        <v>12626</v>
       </c>
       <c r="Y45" s="20" t="n">
-        <v>12626</v>
+        <v>13826</v>
       </c>
       <c r="Z45" s="20" t="n">
-        <v>13826</v>
+        <v>93300</v>
       </c>
       <c r="AA45" s="20" t="n">
-        <v>93300</v>
+        <v>167071</v>
       </c>
       <c r="AB45" s="20" t="n">
-        <v>167071</v>
+        <v>251980</v>
       </c>
       <c r="AC45" s="20" t="n">
-        <v>251980</v>
+        <v>473649</v>
       </c>
       <c r="AD45" s="20" t="n">
-        <v>473649</v>
+        <v>81373</v>
       </c>
       <c r="AE45" s="20" t="n">
-        <v>81373</v>
+        <v>252873</v>
       </c>
       <c r="AF45" s="20" t="n">
-        <v>252873</v>
+        <v>148072</v>
       </c>
       <c r="AG45" s="20" t="n">
-        <v>148072</v>
+        <v>101783</v>
       </c>
       <c r="AH45" s="20" t="n">
-        <v>101783</v>
+        <v>69413</v>
       </c>
       <c r="AI45" s="20" t="n">
-        <v>69413</v>
+        <v>70650</v>
       </c>
       <c r="AJ45" s="20" t="n">
-        <v>70650</v>
+        <v>34669</v>
       </c>
       <c r="AK45" s="20" t="n">
-        <v>34669</v>
+        <v>327630</v>
       </c>
       <c r="AL45" s="20" t="n">
-        <v>327630</v>
+        <v>106673</v>
       </c>
       <c r="AM45" s="20" t="n">
-        <v>106673</v>
+        <v>130132</v>
       </c>
       <c r="AN45" s="20" t="n">
-        <v>130132</v>
+        <v>98229</v>
       </c>
       <c r="AO45" s="20" t="n">
-        <v>98229</v>
+        <v>414337</v>
       </c>
       <c r="AP45" s="20" t="n">
-        <v>414337</v>
+        <v>69376</v>
       </c>
       <c r="AQ45" s="20" t="n">
-        <v>69376</v>
+        <v>202689</v>
       </c>
       <c r="AR45" s="20" t="n">
-        <v>202689</v>
+        <v>248714</v>
       </c>
       <c r="AS45" s="20" t="n">
-        <v>248714</v>
+        <v>117336</v>
       </c>
       <c r="AT45" s="20" t="n">
-        <v>117336</v>
+        <v>47800</v>
       </c>
       <c r="AU45" s="20" t="n">
-        <v>47800</v>
+        <v>16945</v>
       </c>
       <c r="AV45" s="20" t="n">
-        <v>16945</v>
+        <v>31437</v>
       </c>
       <c r="AW45" s="20" t="n">
-        <v>31437</v>
+        <v>70585</v>
       </c>
       <c r="AX45" s="20" t="n">
-        <v>70585</v>
+        <v>374323</v>
       </c>
       <c r="AY45" s="20" t="n">
-        <v>374323</v>
+        <v>29561</v>
       </c>
       <c r="AZ45" s="20" t="n">
-        <v>29561</v>
+        <v>758624</v>
       </c>
       <c r="BA45" s="20" t="n">
-        <v>758624</v>
+        <v>314359</v>
       </c>
       <c r="BB45" s="20" t="n">
-        <v>317373</v>
+        <v>61015</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8410,154 +8410,154 @@
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15" t="n">
-        <v>27524</v>
+        <v>110952</v>
       </c>
       <c r="F52" s="15" t="n">
-        <v>110952</v>
+        <v>17805</v>
       </c>
       <c r="G52" s="15" t="n">
-        <v>17805</v>
+        <v>22497</v>
       </c>
       <c r="H52" s="15" t="n">
-        <v>22497</v>
+        <v>76075</v>
       </c>
       <c r="I52" s="15" t="n">
-        <v>76075</v>
+        <v>41595</v>
       </c>
       <c r="J52" s="15" t="n">
-        <v>41595</v>
+        <v>50009</v>
       </c>
       <c r="K52" s="15" t="n">
-        <v>50009</v>
+        <v>63789</v>
       </c>
       <c r="L52" s="15" t="n">
-        <v>63789</v>
+        <v>31525</v>
       </c>
       <c r="M52" s="15" t="n">
-        <v>31525</v>
+        <v>33210</v>
       </c>
       <c r="N52" s="15" t="n">
-        <v>33210</v>
+        <v>71041</v>
       </c>
       <c r="O52" s="15" t="n">
-        <v>71041</v>
+        <v>46652</v>
       </c>
       <c r="P52" s="15" t="n">
-        <v>46652</v>
+        <v>65097</v>
       </c>
       <c r="Q52" s="15" t="n">
-        <v>65097</v>
+        <v>75992</v>
       </c>
       <c r="R52" s="15" t="n">
-        <v>75992</v>
+        <v>8696</v>
       </c>
       <c r="S52" s="15" t="n">
-        <v>8696</v>
+        <v>36673</v>
       </c>
       <c r="T52" s="15" t="n">
-        <v>36673</v>
+        <v>20174</v>
       </c>
       <c r="U52" s="15" t="n">
-        <v>20174</v>
+        <v>32243</v>
       </c>
       <c r="V52" s="15" t="n">
-        <v>32243</v>
+        <v>114018</v>
       </c>
       <c r="W52" s="15" t="n">
-        <v>114018</v>
+        <v>278187</v>
       </c>
       <c r="X52" s="15" t="n">
-        <v>278187</v>
+        <v>21064</v>
       </c>
       <c r="Y52" s="15" t="n">
-        <v>21064</v>
+        <v>44239</v>
       </c>
       <c r="Z52" s="15" t="n">
-        <v>44239</v>
+        <v>136461</v>
       </c>
       <c r="AA52" s="15" t="n">
-        <v>136461</v>
+        <v>45394</v>
       </c>
       <c r="AB52" s="15" t="n">
-        <v>45394</v>
+        <v>64471</v>
       </c>
       <c r="AC52" s="15" t="n">
-        <v>64471</v>
+        <v>59456</v>
       </c>
       <c r="AD52" s="15" t="n">
-        <v>59456</v>
+        <v>45548</v>
       </c>
       <c r="AE52" s="15" t="n">
-        <v>45548</v>
+        <v>33395</v>
       </c>
       <c r="AF52" s="15" t="n">
-        <v>33395</v>
+        <v>555372</v>
       </c>
       <c r="AG52" s="15" t="n">
-        <v>555372</v>
+        <v>107399</v>
       </c>
       <c r="AH52" s="15" t="n">
-        <v>107399</v>
+        <v>25731</v>
       </c>
       <c r="AI52" s="15" t="n">
-        <v>25731</v>
+        <v>188473</v>
       </c>
       <c r="AJ52" s="15" t="n">
-        <v>188473</v>
+        <v>8228</v>
       </c>
       <c r="AK52" s="15" t="n">
-        <v>8228</v>
+        <v>183548</v>
       </c>
       <c r="AL52" s="15" t="n">
-        <v>183548</v>
+        <v>86669</v>
       </c>
       <c r="AM52" s="15" t="n">
-        <v>86669</v>
+        <v>57035</v>
       </c>
       <c r="AN52" s="15" t="n">
-        <v>57035</v>
+        <v>209268</v>
       </c>
       <c r="AO52" s="15" t="n">
-        <v>209268</v>
+        <v>54146</v>
       </c>
       <c r="AP52" s="15" t="n">
-        <v>54146</v>
+        <v>18802</v>
       </c>
       <c r="AQ52" s="15" t="n">
-        <v>18802</v>
+        <v>30336</v>
       </c>
       <c r="AR52" s="15" t="n">
-        <v>30336</v>
+        <v>46393</v>
       </c>
       <c r="AS52" s="15" t="n">
-        <v>46393</v>
+        <v>23112</v>
       </c>
       <c r="AT52" s="15" t="n">
-        <v>23112</v>
+        <v>23316</v>
       </c>
       <c r="AU52" s="15" t="n">
-        <v>23316</v>
+        <v>30002</v>
       </c>
       <c r="AV52" s="15" t="n">
-        <v>30002</v>
+        <v>27550</v>
       </c>
       <c r="AW52" s="15" t="n">
-        <v>27550</v>
+        <v>46134</v>
       </c>
       <c r="AX52" s="15" t="n">
-        <v>46134</v>
+        <v>55217</v>
       </c>
       <c r="AY52" s="15" t="n">
-        <v>55217</v>
+        <v>64503</v>
       </c>
       <c r="AZ52" s="15" t="n">
-        <v>64503</v>
+        <v>7004</v>
       </c>
       <c r="BA52" s="15" t="n">
-        <v>7004</v>
+        <v>127146</v>
       </c>
       <c r="BB52" s="15" t="n">
-        <v>127116</v>
+        <v>28985</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8569,154 +8569,154 @@
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16" t="n">
-        <v>401694</v>
+        <v>1290359</v>
       </c>
       <c r="F53" s="16" t="n">
-        <v>1290359</v>
+        <v>224376</v>
       </c>
       <c r="G53" s="16" t="n">
-        <v>224376</v>
+        <v>486470</v>
       </c>
       <c r="H53" s="16" t="n">
-        <v>486470</v>
+        <v>189155</v>
       </c>
       <c r="I53" s="16" t="n">
-        <v>189155</v>
+        <v>239697</v>
       </c>
       <c r="J53" s="16" t="n">
-        <v>239697</v>
+        <v>126763</v>
       </c>
       <c r="K53" s="16" t="n">
-        <v>126763</v>
+        <v>25922</v>
       </c>
       <c r="L53" s="16" t="n">
-        <v>25922</v>
+        <v>1949</v>
       </c>
       <c r="M53" s="16" t="n">
-        <v>1949</v>
+        <v>0</v>
       </c>
       <c r="N53" s="16" t="n">
-        <v>0</v>
+        <v>14003</v>
       </c>
       <c r="O53" s="16" t="n">
-        <v>14003</v>
+        <v>731288</v>
       </c>
       <c r="P53" s="16" t="n">
-        <v>731288</v>
+        <v>950740</v>
       </c>
       <c r="Q53" s="16" t="n">
-        <v>950740</v>
+        <v>790104</v>
       </c>
       <c r="R53" s="16" t="n">
-        <v>790104</v>
+        <v>90761</v>
       </c>
       <c r="S53" s="16" t="n">
-        <v>90761</v>
+        <v>701235</v>
       </c>
       <c r="T53" s="16" t="n">
-        <v>701235</v>
+        <v>543705</v>
       </c>
       <c r="U53" s="16" t="n">
-        <v>543705</v>
+        <v>557702</v>
       </c>
       <c r="V53" s="16" t="n">
-        <v>557702</v>
+        <v>77764</v>
       </c>
       <c r="W53" s="16" t="n">
-        <v>77764</v>
+        <v>18205</v>
       </c>
       <c r="X53" s="16" t="n">
-        <v>18205</v>
+        <v>6</v>
       </c>
       <c r="Y53" s="16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="16" t="n">
-        <v>0</v>
+        <v>315287</v>
       </c>
       <c r="AA53" s="16" t="n">
-        <v>315287</v>
+        <v>565369</v>
       </c>
       <c r="AB53" s="16" t="n">
-        <v>565369</v>
+        <v>1154082</v>
       </c>
       <c r="AC53" s="16" t="n">
-        <v>1154082</v>
+        <v>1929855</v>
       </c>
       <c r="AD53" s="16" t="n">
-        <v>1929855</v>
+        <v>359198</v>
       </c>
       <c r="AE53" s="16" t="n">
-        <v>359198</v>
+        <v>939323</v>
       </c>
       <c r="AF53" s="16" t="n">
-        <v>939323</v>
+        <v>796612</v>
       </c>
       <c r="AG53" s="16" t="n">
-        <v>796612</v>
+        <v>598485</v>
       </c>
       <c r="AH53" s="16" t="n">
-        <v>598485</v>
+        <v>325004</v>
       </c>
       <c r="AI53" s="16" t="n">
-        <v>325004</v>
+        <v>248643</v>
       </c>
       <c r="AJ53" s="16" t="n">
-        <v>248643</v>
+        <v>184980</v>
       </c>
       <c r="AK53" s="16" t="n">
-        <v>184980</v>
+        <v>1288847</v>
       </c>
       <c r="AL53" s="16" t="n">
-        <v>1288847</v>
+        <v>613896</v>
       </c>
       <c r="AM53" s="16" t="n">
-        <v>613896</v>
+        <v>822976</v>
       </c>
       <c r="AN53" s="16" t="n">
-        <v>822976</v>
+        <v>224478</v>
       </c>
       <c r="AO53" s="16" t="n">
-        <v>224478</v>
+        <v>1707195</v>
       </c>
       <c r="AP53" s="16" t="n">
-        <v>1707195</v>
+        <v>429525</v>
       </c>
       <c r="AQ53" s="16" t="n">
-        <v>429525</v>
+        <v>1196530</v>
       </c>
       <c r="AR53" s="16" t="n">
-        <v>1196530</v>
+        <v>1167229</v>
       </c>
       <c r="AS53" s="16" t="n">
-        <v>1167229</v>
+        <v>704836</v>
       </c>
       <c r="AT53" s="16" t="n">
-        <v>704836</v>
+        <v>294290</v>
       </c>
       <c r="AU53" s="16" t="n">
-        <v>294290</v>
+        <v>29297</v>
       </c>
       <c r="AV53" s="16" t="n">
-        <v>29297</v>
+        <v>220719</v>
       </c>
       <c r="AW53" s="16" t="n">
-        <v>220719</v>
+        <v>75963</v>
       </c>
       <c r="AX53" s="16" t="n">
-        <v>75963</v>
+        <v>2197652</v>
       </c>
       <c r="AY53" s="16" t="n">
-        <v>2197652</v>
+        <v>213554</v>
       </c>
       <c r="AZ53" s="16" t="n">
-        <v>213554</v>
+        <v>4264236</v>
       </c>
       <c r="BA53" s="16" t="n">
-        <v>4264236</v>
+        <v>2232120</v>
       </c>
       <c r="BB53" s="16" t="n">
-        <v>2197150</v>
+        <v>314407</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8728,154 +8728,154 @@
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15" t="n">
-        <v>177476</v>
+        <v>346802</v>
       </c>
       <c r="F54" s="15" t="n">
-        <v>346802</v>
+        <v>129868</v>
       </c>
       <c r="G54" s="15" t="n">
-        <v>129868</v>
+        <v>318887</v>
       </c>
       <c r="H54" s="15" t="n">
-        <v>318887</v>
+        <v>208936</v>
       </c>
       <c r="I54" s="15" t="n">
-        <v>208936</v>
+        <v>191326</v>
       </c>
       <c r="J54" s="15" t="n">
-        <v>191326</v>
+        <v>245759</v>
       </c>
       <c r="K54" s="15" t="n">
-        <v>245759</v>
+        <v>235435</v>
       </c>
       <c r="L54" s="15" t="n">
-        <v>235435</v>
+        <v>170871</v>
       </c>
       <c r="M54" s="15" t="n">
-        <v>170871</v>
+        <v>199461</v>
       </c>
       <c r="N54" s="15" t="n">
-        <v>199461</v>
+        <v>303601</v>
       </c>
       <c r="O54" s="15" t="n">
-        <v>303601</v>
+        <v>274106</v>
       </c>
       <c r="P54" s="15" t="n">
-        <v>274106</v>
+        <v>220079</v>
       </c>
       <c r="Q54" s="15" t="n">
-        <v>220079</v>
+        <v>443127</v>
       </c>
       <c r="R54" s="15" t="n">
-        <v>443127</v>
+        <v>95539</v>
       </c>
       <c r="S54" s="15" t="n">
-        <v>95539</v>
+        <v>375709</v>
       </c>
       <c r="T54" s="15" t="n">
-        <v>375709</v>
+        <v>288047</v>
       </c>
       <c r="U54" s="15" t="n">
-        <v>288047</v>
+        <v>575897</v>
       </c>
       <c r="V54" s="15" t="n">
-        <v>575897</v>
+        <v>468756</v>
       </c>
       <c r="W54" s="15" t="n">
-        <v>468756</v>
+        <v>449137</v>
       </c>
       <c r="X54" s="15" t="n">
-        <v>449137</v>
+        <v>404099</v>
       </c>
       <c r="Y54" s="15" t="n">
-        <v>404099</v>
+        <v>495649</v>
       </c>
       <c r="Z54" s="15" t="n">
-        <v>495649</v>
+        <v>406948</v>
       </c>
       <c r="AA54" s="15" t="n">
-        <v>406948</v>
+        <v>425872</v>
       </c>
       <c r="AB54" s="15" t="n">
-        <v>425872</v>
+        <v>511284</v>
       </c>
       <c r="AC54" s="15" t="n">
-        <v>511284</v>
+        <v>1092741</v>
       </c>
       <c r="AD54" s="15" t="n">
-        <v>1092741</v>
+        <v>99941</v>
       </c>
       <c r="AE54" s="15" t="n">
-        <v>99941</v>
+        <v>525307</v>
       </c>
       <c r="AF54" s="15" t="n">
-        <v>525307</v>
+        <v>546548</v>
       </c>
       <c r="AG54" s="15" t="n">
-        <v>546548</v>
+        <v>583610</v>
       </c>
       <c r="AH54" s="15" t="n">
-        <v>583610</v>
+        <v>495296</v>
       </c>
       <c r="AI54" s="15" t="n">
-        <v>495296</v>
+        <v>880314</v>
       </c>
       <c r="AJ54" s="15" t="n">
-        <v>880314</v>
+        <v>380334</v>
       </c>
       <c r="AK54" s="15" t="n">
-        <v>380334</v>
+        <v>591699</v>
       </c>
       <c r="AL54" s="15" t="n">
-        <v>591699</v>
+        <v>424291</v>
       </c>
       <c r="AM54" s="15" t="n">
-        <v>424291</v>
+        <v>606757</v>
       </c>
       <c r="AN54" s="15" t="n">
-        <v>606757</v>
+        <v>678753</v>
       </c>
       <c r="AO54" s="15" t="n">
-        <v>678753</v>
+        <v>849264</v>
       </c>
       <c r="AP54" s="15" t="n">
-        <v>849264</v>
+        <v>21683</v>
       </c>
       <c r="AQ54" s="15" t="n">
-        <v>21683</v>
+        <v>694320</v>
       </c>
       <c r="AR54" s="15" t="n">
-        <v>694320</v>
+        <v>1274597</v>
       </c>
       <c r="AS54" s="15" t="n">
-        <v>1274597</v>
+        <v>733479</v>
       </c>
       <c r="AT54" s="15" t="n">
-        <v>733479</v>
+        <v>591454</v>
       </c>
       <c r="AU54" s="15" t="n">
-        <v>591454</v>
+        <v>1009397</v>
       </c>
       <c r="AV54" s="15" t="n">
-        <v>1009397</v>
+        <v>780408</v>
       </c>
       <c r="AW54" s="15" t="n">
-        <v>780408</v>
+        <v>865742</v>
       </c>
       <c r="AX54" s="15" t="n">
-        <v>865742</v>
+        <v>1619975</v>
       </c>
       <c r="AY54" s="15" t="n">
-        <v>1619975</v>
+        <v>947653</v>
       </c>
       <c r="AZ54" s="15" t="n">
-        <v>947653</v>
+        <v>945978</v>
       </c>
       <c r="BA54" s="15" t="n">
-        <v>945978</v>
+        <v>1751418</v>
       </c>
       <c r="BB54" s="15" t="n">
-        <v>1769708</v>
+        <v>276089</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8887,154 +8887,154 @@
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16" t="n">
-        <v>33305</v>
+        <v>167598</v>
       </c>
       <c r="F55" s="16" t="n">
-        <v>167598</v>
+        <v>16038</v>
       </c>
       <c r="G55" s="16" t="n">
-        <v>16038</v>
+        <v>79528</v>
       </c>
       <c r="H55" s="16" t="n">
-        <v>79528</v>
+        <v>62019</v>
       </c>
       <c r="I55" s="16" t="n">
-        <v>62019</v>
+        <v>56889</v>
       </c>
       <c r="J55" s="16" t="n">
-        <v>56889</v>
+        <v>28373</v>
       </c>
       <c r="K55" s="16" t="n">
-        <v>28373</v>
+        <v>1</v>
       </c>
       <c r="L55" s="16" t="n">
-        <v>1</v>
+        <v>375</v>
       </c>
       <c r="M55" s="16" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="N55" s="16" t="n">
-        <v>0</v>
+        <v>4228</v>
       </c>
       <c r="O55" s="16" t="n">
-        <v>4228</v>
+        <v>62412</v>
       </c>
       <c r="P55" s="16" t="n">
-        <v>62412</v>
+        <v>129080</v>
       </c>
       <c r="Q55" s="16" t="n">
-        <v>129080</v>
+        <v>59200</v>
       </c>
       <c r="R55" s="16" t="n">
-        <v>59200</v>
+        <v>9210</v>
       </c>
       <c r="S55" s="16" t="n">
-        <v>9210</v>
+        <v>149372</v>
       </c>
       <c r="T55" s="16" t="n">
-        <v>149372</v>
+        <v>75049</v>
       </c>
       <c r="U55" s="16" t="n">
-        <v>75049</v>
+        <v>62357</v>
       </c>
       <c r="V55" s="16" t="n">
-        <v>62357</v>
+        <v>13631</v>
       </c>
       <c r="W55" s="16" t="n">
-        <v>13631</v>
+        <v>4896</v>
       </c>
       <c r="X55" s="16" t="n">
-        <v>4896</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Z55" s="16" t="n">
-        <v>0</v>
+        <v>30626</v>
       </c>
       <c r="AA55" s="16" t="n">
-        <v>30626</v>
+        <v>71002</v>
       </c>
       <c r="AB55" s="16" t="n">
-        <v>71002</v>
+        <v>109521</v>
       </c>
       <c r="AC55" s="16" t="n">
-        <v>109521</v>
+        <v>213248</v>
       </c>
       <c r="AD55" s="16" t="n">
-        <v>213248</v>
+        <v>39369</v>
       </c>
       <c r="AE55" s="16" t="n">
-        <v>39369</v>
+        <v>155903</v>
       </c>
       <c r="AF55" s="16" t="n">
-        <v>155903</v>
+        <v>60478</v>
       </c>
       <c r="AG55" s="16" t="n">
-        <v>60478</v>
+        <v>27514</v>
       </c>
       <c r="AH55" s="16" t="n">
-        <v>27514</v>
+        <v>28783</v>
       </c>
       <c r="AI55" s="16" t="n">
-        <v>28783</v>
+        <v>28074</v>
       </c>
       <c r="AJ55" s="16" t="n">
-        <v>28074</v>
+        <v>7466</v>
       </c>
       <c r="AK55" s="16" t="n">
-        <v>7466</v>
+        <v>179864</v>
       </c>
       <c r="AL55" s="16" t="n">
-        <v>179864</v>
+        <v>42879</v>
       </c>
       <c r="AM55" s="16" t="n">
-        <v>42879</v>
+        <v>45240</v>
       </c>
       <c r="AN55" s="16" t="n">
-        <v>45240</v>
+        <v>76463</v>
       </c>
       <c r="AO55" s="16" t="n">
-        <v>76463</v>
+        <v>283151</v>
       </c>
       <c r="AP55" s="16" t="n">
-        <v>283151</v>
+        <v>57327</v>
       </c>
       <c r="AQ55" s="16" t="n">
-        <v>57327</v>
+        <v>117396</v>
       </c>
       <c r="AR55" s="16" t="n">
-        <v>117396</v>
+        <v>194746</v>
       </c>
       <c r="AS55" s="16" t="n">
-        <v>194746</v>
+        <v>77291</v>
       </c>
       <c r="AT55" s="16" t="n">
-        <v>77291</v>
+        <v>22499</v>
       </c>
       <c r="AU55" s="16" t="n">
-        <v>22499</v>
+        <v>0</v>
       </c>
       <c r="AV55" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AW55" s="16" t="n">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="AX55" s="16" t="n">
-        <v>70000</v>
+        <v>216624</v>
       </c>
       <c r="AY55" s="16" t="n">
-        <v>216624</v>
+        <v>0</v>
       </c>
       <c r="AZ55" s="16" t="n">
-        <v>0</v>
+        <v>662717</v>
       </c>
       <c r="BA55" s="16" t="n">
-        <v>662717</v>
+        <v>288596</v>
       </c>
       <c r="BB55" s="16" t="n">
-        <v>283279</v>
+        <v>69286</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9171,17 +9171,17 @@
       <c r="AT56" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AU56" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV56" s="15" t="n">
+      <c r="AU56" s="15" t="n">
         <v>227700</v>
       </c>
+      <c r="AV56" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="AW56" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AX56" s="15" t="s">
-        <v>62</v>
+      <c r="AX56" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AY56" s="15" t="n">
         <v>0</v>
@@ -9210,149 +9210,149 @@
       <c r="F57" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G57" s="16" t="s">
-        <v>62</v>
+      <c r="G57" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="H57" s="16" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="I57" s="16" t="n">
-        <v>729</v>
+        <v>369</v>
       </c>
       <c r="J57" s="16" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K57" s="16" t="n">
-        <v>363</v>
-      </c>
-      <c r="L57" s="16" t="n">
         <v>27</v>
       </c>
-      <c r="M57" s="16" t="s">
-        <v>62</v>
+      <c r="L57" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M57" s="16" t="n">
+        <v>644</v>
       </c>
       <c r="N57" s="16" t="n">
-        <v>644</v>
+        <v>373</v>
       </c>
       <c r="O57" s="16" t="n">
-        <v>373</v>
+        <v>1957</v>
       </c>
       <c r="P57" s="16" t="n">
-        <v>1957</v>
+        <v>1139</v>
       </c>
       <c r="Q57" s="16" t="n">
-        <v>1139</v>
+        <v>631</v>
       </c>
       <c r="R57" s="16" t="n">
-        <v>631</v>
+        <v>106</v>
       </c>
       <c r="S57" s="16" t="n">
-        <v>106</v>
+        <v>1837</v>
       </c>
       <c r="T57" s="16" t="n">
-        <v>1837</v>
+        <v>551</v>
       </c>
       <c r="U57" s="16" t="n">
-        <v>551</v>
+        <v>847</v>
       </c>
       <c r="V57" s="16" t="n">
-        <v>847</v>
+        <v>2063</v>
       </c>
       <c r="W57" s="16" t="n">
-        <v>2063</v>
+        <v>3229</v>
       </c>
       <c r="X57" s="16" t="n">
-        <v>3229</v>
+        <v>5686</v>
       </c>
       <c r="Y57" s="16" t="n">
-        <v>5686</v>
+        <v>10657</v>
       </c>
       <c r="Z57" s="16" t="n">
-        <v>10657</v>
+        <v>3960</v>
       </c>
       <c r="AA57" s="16" t="n">
-        <v>3960</v>
+        <v>3782</v>
       </c>
       <c r="AB57" s="16" t="n">
-        <v>3782</v>
+        <v>6554</v>
       </c>
       <c r="AC57" s="16" t="n">
-        <v>6554</v>
+        <v>2480</v>
       </c>
       <c r="AD57" s="16" t="n">
-        <v>2480</v>
+        <v>1220</v>
       </c>
       <c r="AE57" s="16" t="n">
-        <v>1220</v>
+        <v>3122</v>
       </c>
       <c r="AF57" s="16" t="n">
-        <v>3122</v>
+        <v>4942</v>
       </c>
       <c r="AG57" s="16" t="n">
-        <v>4942</v>
+        <v>5274</v>
       </c>
       <c r="AH57" s="16" t="n">
-        <v>5274</v>
+        <v>3009</v>
       </c>
       <c r="AI57" s="16" t="n">
-        <v>3009</v>
+        <v>4495</v>
       </c>
       <c r="AJ57" s="16" t="n">
-        <v>4495</v>
+        <v>2135</v>
       </c>
       <c r="AK57" s="16" t="n">
-        <v>2135</v>
+        <v>8091</v>
       </c>
       <c r="AL57" s="16" t="n">
-        <v>8091</v>
+        <v>5442</v>
       </c>
       <c r="AM57" s="16" t="n">
-        <v>5442</v>
+        <v>5891</v>
       </c>
       <c r="AN57" s="16" t="n">
-        <v>5891</v>
+        <v>6355</v>
       </c>
       <c r="AO57" s="16" t="n">
-        <v>6355</v>
+        <v>9655</v>
       </c>
       <c r="AP57" s="16" t="n">
-        <v>9655</v>
+        <v>0</v>
       </c>
       <c r="AQ57" s="16" t="n">
-        <v>0</v>
+        <v>9912</v>
       </c>
       <c r="AR57" s="16" t="n">
-        <v>9912</v>
+        <v>8239</v>
       </c>
       <c r="AS57" s="16" t="n">
-        <v>8239</v>
+        <v>10905</v>
       </c>
       <c r="AT57" s="16" t="n">
-        <v>10905</v>
+        <v>14611</v>
       </c>
       <c r="AU57" s="16" t="n">
-        <v>14611</v>
+        <v>10854</v>
       </c>
       <c r="AV57" s="16" t="n">
-        <v>10854</v>
+        <v>10636</v>
       </c>
       <c r="AW57" s="16" t="n">
-        <v>10636</v>
+        <v>17059</v>
       </c>
       <c r="AX57" s="16" t="n">
-        <v>17059</v>
+        <v>12869</v>
       </c>
       <c r="AY57" s="16" t="n">
-        <v>12869</v>
+        <v>16738</v>
       </c>
       <c r="AZ57" s="16" t="n">
-        <v>16738</v>
+        <v>4787</v>
       </c>
       <c r="BA57" s="16" t="n">
-        <v>4787</v>
+        <v>12174</v>
       </c>
       <c r="BB57" s="16" t="n">
-        <v>12174</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9498,8 +9498,8 @@
       <c r="AW58" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AX58" s="15" t="s">
-        <v>62</v>
+      <c r="AX58" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AY58" s="15" t="n">
         <v>0</v>
@@ -9657,8 +9657,8 @@
       <c r="AW59" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AX59" s="16" t="s">
-        <v>62</v>
+      <c r="AX59" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AY59" s="16" t="n">
         <v>0</v>
@@ -9795,8 +9795,8 @@
       <c r="W61" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="X61" s="20" t="s">
-        <v>62</v>
+      <c r="X61" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="Y61" s="23" t="n">
         <v>0</v>
@@ -10017,11 +10017,11 @@
       <c r="Y63" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Z63" s="15" t="s">
-        <v>62</v>
+      <c r="Z63" s="15" t="n">
+        <v>-1</v>
       </c>
       <c r="AA63" s="15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB63" s="15" t="n">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="AD63" s="15" t="n">
-        <v>0</v>
+        <v>-2559</v>
       </c>
       <c r="AE63" s="15" t="n">
-        <v>-2559</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="15" t="n">
         <v>0</v>
@@ -10042,19 +10042,19 @@
         <v>0</v>
       </c>
       <c r="AH63" s="15" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AI63" s="15" t="n">
-        <v>-23</v>
-      </c>
-      <c r="AJ63" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="AK63" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AL63" s="15" t="s">
-        <v>62</v>
+      <c r="AL63" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AM63" s="15" t="n">
         <v>0</v>
@@ -10078,13 +10078,13 @@
         <v>0</v>
       </c>
       <c r="AT63" s="15" t="n">
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="AU63" s="15" t="n">
-        <v>-69</v>
-      </c>
-      <c r="AV63" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AV63" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="AW63" s="15" t="s">
         <v>62</v>
@@ -10173,8 +10173,8 @@
       <c r="X64" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Y64" s="16" t="s">
-        <v>62</v>
+      <c r="Y64" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Z64" s="16" t="n">
         <v>0</v>
@@ -10183,10 +10183,10 @@
         <v>0</v>
       </c>
       <c r="AB64" s="16" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AC64" s="16" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AD64" s="16" t="n">
         <v>0</v>
@@ -10206,8 +10206,8 @@
       <c r="AI64" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ64" s="16" t="n">
-        <v>0</v>
+      <c r="AJ64" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="AK64" s="16" t="s">
         <v>62</v>
@@ -10218,8 +10218,8 @@
       <c r="AM64" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AN64" s="16" t="s">
-        <v>62</v>
+      <c r="AN64" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AO64" s="16" t="n">
         <v>0</v>
@@ -10242,8 +10242,8 @@
       <c r="AU64" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AV64" s="16" t="n">
-        <v>0</v>
+      <c r="AV64" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="AW64" s="16" t="s">
         <v>62</v>
@@ -10332,20 +10332,20 @@
       <c r="X65" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Y65" s="15" t="s">
-        <v>62</v>
+      <c r="Y65" s="15" t="n">
+        <v>-670</v>
       </c>
       <c r="Z65" s="15" t="n">
-        <v>-670</v>
+        <v>-583</v>
       </c>
       <c r="AA65" s="15" t="n">
-        <v>-583</v>
+        <v>0</v>
       </c>
       <c r="AB65" s="15" t="n">
-        <v>0</v>
+        <v>-1830</v>
       </c>
       <c r="AC65" s="15" t="n">
-        <v>-1830</v>
+        <v>0</v>
       </c>
       <c r="AD65" s="15" t="n">
         <v>0</v>
@@ -10363,52 +10363,52 @@
         <v>0</v>
       </c>
       <c r="AI65" s="15" t="n">
-        <v>0</v>
+        <v>-1353</v>
       </c>
       <c r="AJ65" s="15" t="n">
-        <v>-1353</v>
+        <v>-346</v>
       </c>
       <c r="AK65" s="15" t="n">
-        <v>-346</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AM65" s="15" t="n">
-        <v>0</v>
+        <v>-7363</v>
       </c>
       <c r="AN65" s="15" t="n">
-        <v>-7363</v>
+        <v>0</v>
       </c>
       <c r="AO65" s="15" t="n">
-        <v>0</v>
+        <v>-207</v>
       </c>
       <c r="AP65" s="15" t="n">
-        <v>-207</v>
+        <v>0</v>
       </c>
       <c r="AQ65" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AR65" s="15" t="n">
-        <v>0</v>
+        <v>-732</v>
       </c>
       <c r="AS65" s="15" t="n">
-        <v>-732</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="15" t="n">
-        <v>0</v>
+        <v>-171</v>
       </c>
       <c r="AU65" s="15" t="n">
-        <v>-171</v>
+        <v>-798</v>
       </c>
       <c r="AV65" s="15" t="n">
-        <v>-798</v>
+        <v>0</v>
       </c>
       <c r="AW65" s="15" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AX65" s="15" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AY65" s="15" t="n">
         <v>0</v>
@@ -10491,8 +10491,8 @@
       <c r="X66" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Y66" s="16" t="s">
-        <v>62</v>
+      <c r="Y66" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Z66" s="16" t="n">
         <v>0</v>
@@ -10524,8 +10524,8 @@
       <c r="AI66" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ66" s="16" t="n">
-        <v>0</v>
+      <c r="AJ66" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="AK66" s="16" t="s">
         <v>62</v>
@@ -10653,11 +10653,11 @@
       <c r="Y67" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Z67" s="15" t="s">
-        <v>62</v>
+      <c r="Z67" s="15" t="n">
+        <v>-123</v>
       </c>
       <c r="AA67" s="15" t="n">
-        <v>-123</v>
+        <v>0</v>
       </c>
       <c r="AB67" s="15" t="n">
         <v>0</v>
@@ -10686,11 +10686,11 @@
       <c r="AJ67" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AK67" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL67" s="15" t="s">
-        <v>62</v>
+      <c r="AK67" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL67" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AM67" s="15" t="n">
         <v>0</v>
@@ -10719,8 +10719,8 @@
       <c r="AU67" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AV67" s="15" t="n">
-        <v>0</v>
+      <c r="AV67" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="AW67" s="15" t="s">
         <v>62</v>
@@ -10737,8 +10737,8 @@
       <c r="BA67" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BB67" s="15" t="s">
-        <v>62</v>
+      <c r="BB67" s="15" t="n">
+        <v>-1635</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10806,29 +10806,29 @@
       <c r="W68" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="X68" s="22" t="s">
-        <v>62</v>
+      <c r="X68" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="Y68" s="24" t="n">
-        <v>0</v>
+        <v>-670</v>
       </c>
       <c r="Z68" s="24" t="n">
-        <v>-670</v>
+        <v>-707</v>
       </c>
       <c r="AA68" s="24" t="n">
-        <v>-707</v>
+        <v>0</v>
       </c>
       <c r="AB68" s="24" t="n">
-        <v>0</v>
+        <v>-1839</v>
       </c>
       <c r="AC68" s="24" t="n">
-        <v>-1839</v>
+        <v>0</v>
       </c>
       <c r="AD68" s="24" t="n">
-        <v>0</v>
+        <v>-2559</v>
       </c>
       <c r="AE68" s="24" t="n">
-        <v>-2559</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="24" t="n">
         <v>0</v>
@@ -10837,55 +10837,55 @@
         <v>0</v>
       </c>
       <c r="AH68" s="24" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AI68" s="24" t="n">
-        <v>-23</v>
+        <v>-1353</v>
       </c>
       <c r="AJ68" s="24" t="n">
-        <v>-1353</v>
+        <v>-346</v>
       </c>
       <c r="AK68" s="24" t="n">
-        <v>-346</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="24" t="n">
         <v>0</v>
       </c>
       <c r="AM68" s="24" t="n">
-        <v>0</v>
+        <v>-7363</v>
       </c>
       <c r="AN68" s="24" t="n">
-        <v>-7363</v>
+        <v>0</v>
       </c>
       <c r="AO68" s="24" t="n">
-        <v>0</v>
+        <v>-207</v>
       </c>
       <c r="AP68" s="24" t="n">
-        <v>-207</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="24" t="n">
         <v>0</v>
       </c>
       <c r="AR68" s="24" t="n">
-        <v>0</v>
+        <v>-732</v>
       </c>
       <c r="AS68" s="24" t="n">
-        <v>-732</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="24" t="n">
-        <v>0</v>
+        <v>-240</v>
       </c>
       <c r="AU68" s="24" t="n">
-        <v>-240</v>
+        <v>-798</v>
       </c>
       <c r="AV68" s="24" t="n">
-        <v>-798</v>
+        <v>0</v>
       </c>
       <c r="AW68" s="24" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AX68" s="24" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AY68" s="24" t="n">
         <v>0</v>
@@ -10897,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="BB68" s="24" t="n">
-        <v>0</v>
+        <v>-1635</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11022,8 +11022,8 @@
       <c r="W70" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="X70" s="15" t="s">
-        <v>62</v>
+      <c r="X70" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="Y70" s="15" t="n">
         <v>0</v>
@@ -11123,154 +11123,154 @@
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24" t="n">
-        <v>639999</v>
+        <v>1915711</v>
       </c>
       <c r="F71" s="24" t="n">
-        <v>1915711</v>
+        <v>388087</v>
       </c>
       <c r="G71" s="24" t="n">
-        <v>388087</v>
+        <v>907382</v>
       </c>
       <c r="H71" s="24" t="n">
-        <v>907382</v>
+        <v>536914</v>
       </c>
       <c r="I71" s="24" t="n">
-        <v>536914</v>
+        <v>529876</v>
       </c>
       <c r="J71" s="24" t="n">
-        <v>529876</v>
+        <v>451267</v>
       </c>
       <c r="K71" s="24" t="n">
-        <v>451267</v>
+        <v>325174</v>
       </c>
       <c r="L71" s="24" t="n">
-        <v>325174</v>
+        <v>204720</v>
       </c>
       <c r="M71" s="24" t="n">
-        <v>204720</v>
+        <v>233315</v>
       </c>
       <c r="N71" s="24" t="n">
-        <v>233315</v>
+        <v>393246</v>
       </c>
       <c r="O71" s="24" t="n">
-        <v>393246</v>
+        <v>1116415</v>
       </c>
       <c r="P71" s="24" t="n">
-        <v>1116415</v>
+        <v>1366135</v>
       </c>
       <c r="Q71" s="24" t="n">
-        <v>1366135</v>
+        <v>1369054</v>
       </c>
       <c r="R71" s="24" t="n">
-        <v>1369054</v>
+        <v>204312</v>
       </c>
       <c r="S71" s="24" t="n">
-        <v>204312</v>
+        <v>1264826</v>
       </c>
       <c r="T71" s="24" t="n">
-        <v>1264826</v>
+        <v>927526</v>
       </c>
       <c r="U71" s="24" t="n">
-        <v>927526</v>
+        <v>1229046</v>
       </c>
       <c r="V71" s="24" t="n">
-        <v>1229046</v>
+        <v>676232</v>
       </c>
       <c r="W71" s="24" t="n">
-        <v>676232</v>
+        <v>753654</v>
       </c>
       <c r="X71" s="24" t="n">
-        <v>753654</v>
+        <v>430855</v>
       </c>
       <c r="Y71" s="24" t="n">
-        <v>430855</v>
+        <v>549875</v>
       </c>
       <c r="Z71" s="24" t="n">
-        <v>549875</v>
+        <v>892575</v>
       </c>
       <c r="AA71" s="24" t="n">
-        <v>892575</v>
+        <v>1111419</v>
       </c>
       <c r="AB71" s="24" t="n">
-        <v>1111419</v>
+        <v>1844073</v>
       </c>
       <c r="AC71" s="24" t="n">
-        <v>1844073</v>
+        <v>3297780</v>
       </c>
       <c r="AD71" s="24" t="n">
-        <v>3297780</v>
+        <v>542717</v>
       </c>
       <c r="AE71" s="24" t="n">
-        <v>542717</v>
+        <v>1657050</v>
       </c>
       <c r="AF71" s="24" t="n">
-        <v>1657050</v>
+        <v>1963952</v>
       </c>
       <c r="AG71" s="24" t="n">
-        <v>1963952</v>
+        <v>1322282</v>
       </c>
       <c r="AH71" s="24" t="n">
-        <v>1322282</v>
+        <v>877800</v>
       </c>
       <c r="AI71" s="24" t="n">
-        <v>877800</v>
+        <v>1348646</v>
       </c>
       <c r="AJ71" s="24" t="n">
-        <v>1348646</v>
+        <v>582797</v>
       </c>
       <c r="AK71" s="24" t="n">
-        <v>582797</v>
+        <v>2252049</v>
       </c>
       <c r="AL71" s="24" t="n">
-        <v>2252049</v>
+        <v>1173177</v>
       </c>
       <c r="AM71" s="24" t="n">
-        <v>1173177</v>
+        <v>1530536</v>
       </c>
       <c r="AN71" s="24" t="n">
-        <v>1530536</v>
+        <v>1195317</v>
       </c>
       <c r="AO71" s="24" t="n">
-        <v>1195317</v>
+        <v>2903204</v>
       </c>
       <c r="AP71" s="24" t="n">
-        <v>2903204</v>
+        <v>527337</v>
       </c>
       <c r="AQ71" s="24" t="n">
-        <v>527337</v>
+        <v>2048494</v>
       </c>
       <c r="AR71" s="24" t="n">
-        <v>2048494</v>
+        <v>2690472</v>
       </c>
       <c r="AS71" s="24" t="n">
-        <v>2690472</v>
+        <v>1549623</v>
       </c>
       <c r="AT71" s="24" t="n">
-        <v>1549623</v>
+        <v>945930</v>
       </c>
       <c r="AU71" s="24" t="n">
-        <v>945930</v>
+        <v>1306452</v>
       </c>
       <c r="AV71" s="24" t="n">
-        <v>1306452</v>
+        <v>1039313</v>
       </c>
       <c r="AW71" s="24" t="n">
-        <v>1039313</v>
+        <v>1074798</v>
       </c>
       <c r="AX71" s="24" t="n">
-        <v>1074798</v>
+        <v>4102337</v>
       </c>
       <c r="AY71" s="24" t="n">
-        <v>4102337</v>
+        <v>1242448</v>
       </c>
       <c r="AZ71" s="24" t="n">
-        <v>1242448</v>
+        <v>5884722</v>
       </c>
       <c r="BA71" s="24" t="n">
-        <v>5884722</v>
+        <v>4411454</v>
       </c>
       <c r="BB71" s="24" t="n">
-        <v>4389427</v>
+        <v>690248</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11772,8 +11772,8 @@
       <c r="W78" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="X78" s="15" t="n">
-        <v>0</v>
+      <c r="X78" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Y78" s="15" t="s">
         <v>62</v>
@@ -11875,154 +11875,154 @@
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16" t="n">
-        <v>3308683</v>
+        <v>3373108</v>
       </c>
       <c r="F79" s="16" t="n">
-        <v>3373108</v>
+        <v>2925867</v>
       </c>
       <c r="G79" s="16" t="n">
-        <v>2925867</v>
+        <v>3987328</v>
       </c>
       <c r="H79" s="16" t="n">
-        <v>3987328</v>
+        <v>3841491</v>
       </c>
       <c r="I79" s="16" t="n">
-        <v>3841491</v>
+        <v>3910292</v>
       </c>
       <c r="J79" s="16" t="n">
-        <v>3910292</v>
+        <v>4251367</v>
       </c>
       <c r="K79" s="16" t="n">
-        <v>4251367</v>
+        <v>4170206</v>
       </c>
       <c r="L79" s="16" t="n">
-        <v>4170206</v>
+        <v>3455674</v>
       </c>
       <c r="M79" s="16" t="n">
-        <v>3455674</v>
+        <v>0</v>
       </c>
       <c r="N79" s="16" t="n">
-        <v>0</v>
+        <v>2636107</v>
       </c>
       <c r="O79" s="16" t="n">
-        <v>2636107</v>
+        <v>4006706</v>
       </c>
       <c r="P79" s="16" t="n">
-        <v>4006706</v>
+        <v>3752082</v>
       </c>
       <c r="Q79" s="16" t="n">
-        <v>3752082</v>
+        <v>3838288</v>
       </c>
       <c r="R79" s="16" t="n">
-        <v>3838288</v>
+        <v>3624496</v>
       </c>
       <c r="S79" s="16" t="n">
-        <v>3624496</v>
+        <v>4370672</v>
       </c>
       <c r="T79" s="16" t="n">
-        <v>4370672</v>
+        <v>4477075</v>
       </c>
       <c r="U79" s="16" t="n">
-        <v>4477075</v>
+        <v>4775623</v>
       </c>
       <c r="V79" s="16" t="n">
-        <v>4775623</v>
+        <v>4735932</v>
       </c>
       <c r="W79" s="16" t="n">
-        <v>4735932</v>
+        <v>5170406</v>
       </c>
       <c r="X79" s="16" t="n">
-        <v>5170406</v>
-      </c>
-      <c r="Y79" s="16" t="n">
         <v>6000000</v>
       </c>
-      <c r="Z79" s="16" t="s">
-        <v>62</v>
+      <c r="Y79" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z79" s="16" t="n">
+        <v>7531940</v>
       </c>
       <c r="AA79" s="16" t="n">
-        <v>7531940</v>
+        <v>8200885</v>
       </c>
       <c r="AB79" s="16" t="n">
-        <v>8200885</v>
+        <v>9493617</v>
       </c>
       <c r="AC79" s="16" t="n">
-        <v>9493617</v>
+        <v>9064608</v>
       </c>
       <c r="AD79" s="16" t="n">
-        <v>9064608</v>
+        <v>8993440</v>
       </c>
       <c r="AE79" s="16" t="n">
-        <v>8993440</v>
+        <v>10705756</v>
       </c>
       <c r="AF79" s="16" t="n">
-        <v>10705756</v>
+        <v>10350853</v>
       </c>
       <c r="AG79" s="16" t="n">
-        <v>10350853</v>
+        <v>10201565</v>
       </c>
       <c r="AH79" s="16" t="n">
-        <v>10201565</v>
+        <v>10648886</v>
       </c>
       <c r="AI79" s="16" t="n">
-        <v>10648886</v>
+        <v>10334289</v>
       </c>
       <c r="AJ79" s="16" t="n">
-        <v>10334289</v>
+        <v>10932624</v>
       </c>
       <c r="AK79" s="16" t="n">
-        <v>10932624</v>
+        <v>9532892</v>
       </c>
       <c r="AL79" s="16" t="n">
-        <v>9532892</v>
+        <v>10876967</v>
       </c>
       <c r="AM79" s="16" t="n">
-        <v>10876967</v>
+        <v>10665837</v>
       </c>
       <c r="AN79" s="16" t="n">
-        <v>10665837</v>
+        <v>12345488</v>
       </c>
       <c r="AO79" s="16" t="n">
-        <v>12345488</v>
+        <v>11489454</v>
       </c>
       <c r="AP79" s="16" t="n">
-        <v>11489454</v>
+        <v>14452389</v>
       </c>
       <c r="AQ79" s="16" t="n">
-        <v>14452389</v>
+        <v>12401716</v>
       </c>
       <c r="AR79" s="16" t="n">
-        <v>12401716</v>
+        <v>13402253</v>
       </c>
       <c r="AS79" s="16" t="n">
-        <v>13402253</v>
+        <v>14296876</v>
       </c>
       <c r="AT79" s="16" t="n">
-        <v>14296876</v>
+        <v>14680734</v>
       </c>
       <c r="AU79" s="16" t="n">
-        <v>14680734</v>
+        <v>12207083</v>
       </c>
       <c r="AV79" s="16" t="n">
-        <v>12207083</v>
+        <v>14913446</v>
       </c>
       <c r="AW79" s="16" t="n">
-        <v>14913446</v>
+        <v>14292192</v>
       </c>
       <c r="AX79" s="16" t="n">
-        <v>14292192</v>
+        <v>12362820</v>
       </c>
       <c r="AY79" s="16" t="n">
-        <v>12362820</v>
+        <v>13355472</v>
       </c>
       <c r="AZ79" s="16" t="n">
-        <v>13355472</v>
+        <v>15168362</v>
       </c>
       <c r="BA79" s="16" t="n">
-        <v>15168362</v>
+        <v>17969955</v>
       </c>
       <c r="BB79" s="16" t="n">
-        <v>17265862</v>
+        <v>16080554</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12034,154 +12034,154 @@
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="15" t="n">
-        <v>10064421</v>
+        <v>10804474</v>
       </c>
       <c r="F80" s="15" t="n">
-        <v>10804474</v>
+        <v>12856945</v>
       </c>
       <c r="G80" s="15" t="n">
-        <v>12856945</v>
+        <v>16468033</v>
       </c>
       <c r="H80" s="15" t="n">
-        <v>16468033</v>
+        <v>15657674</v>
       </c>
       <c r="I80" s="15" t="n">
-        <v>15657674</v>
+        <v>16677650</v>
       </c>
       <c r="J80" s="15" t="n">
-        <v>16677650</v>
+        <v>15293982</v>
       </c>
       <c r="K80" s="15" t="n">
-        <v>15293982</v>
+        <v>14466052</v>
       </c>
       <c r="L80" s="15" t="n">
-        <v>14466052</v>
+        <v>14687210</v>
       </c>
       <c r="M80" s="15" t="n">
-        <v>14687210</v>
+        <v>16965297</v>
       </c>
       <c r="N80" s="15" t="n">
-        <v>16965297</v>
+        <v>13939440</v>
       </c>
       <c r="O80" s="15" t="n">
-        <v>13939440</v>
+        <v>14873623</v>
       </c>
       <c r="P80" s="15" t="n">
-        <v>14873623</v>
+        <v>16997142</v>
       </c>
       <c r="Q80" s="15" t="n">
-        <v>16997142</v>
+        <v>18569627</v>
       </c>
       <c r="R80" s="15" t="n">
-        <v>18569627</v>
+        <v>23968640</v>
       </c>
       <c r="S80" s="15" t="n">
-        <v>23968640</v>
+        <v>17612460</v>
       </c>
       <c r="T80" s="15" t="n">
-        <v>17612460</v>
+        <v>20379723</v>
       </c>
       <c r="U80" s="15" t="n">
-        <v>20379723</v>
+        <v>23219781</v>
       </c>
       <c r="V80" s="15" t="n">
-        <v>23219781</v>
+        <v>27722278</v>
       </c>
       <c r="W80" s="15" t="n">
-        <v>27722278</v>
+        <v>29380323</v>
       </c>
       <c r="X80" s="15" t="n">
-        <v>29380323</v>
+        <v>32181174</v>
       </c>
       <c r="Y80" s="15" t="n">
-        <v>32181174</v>
+        <v>36099709</v>
       </c>
       <c r="Z80" s="15" t="n">
-        <v>36099709</v>
+        <v>39235249</v>
       </c>
       <c r="AA80" s="15" t="n">
-        <v>39235249</v>
+        <v>40843196</v>
       </c>
       <c r="AB80" s="15" t="n">
-        <v>40843196</v>
+        <v>40782005</v>
       </c>
       <c r="AC80" s="15" t="n">
-        <v>40782005</v>
+        <v>36036705</v>
       </c>
       <c r="AD80" s="15" t="n">
-        <v>36036705</v>
+        <v>30628563</v>
       </c>
       <c r="AE80" s="15" t="n">
-        <v>30628563</v>
+        <v>40395801</v>
       </c>
       <c r="AF80" s="15" t="n">
-        <v>40395801</v>
+        <v>45439641</v>
       </c>
       <c r="AG80" s="15" t="n">
-        <v>45439641</v>
+        <v>35516675</v>
       </c>
       <c r="AH80" s="15" t="n">
-        <v>35516675</v>
+        <v>45166515</v>
       </c>
       <c r="AI80" s="15" t="n">
-        <v>45166515</v>
+        <v>45856853</v>
       </c>
       <c r="AJ80" s="15" t="n">
-        <v>45856853</v>
+        <v>36091668</v>
       </c>
       <c r="AK80" s="15" t="n">
-        <v>36091668</v>
+        <v>37487266</v>
       </c>
       <c r="AL80" s="15" t="n">
-        <v>37487266</v>
+        <v>42992299</v>
       </c>
       <c r="AM80" s="15" t="n">
-        <v>42992299</v>
+        <v>47178058</v>
       </c>
       <c r="AN80" s="15" t="n">
-        <v>47178058</v>
+        <v>46337589</v>
       </c>
       <c r="AO80" s="15" t="n">
-        <v>46337589</v>
+        <v>51664679</v>
       </c>
       <c r="AP80" s="15" t="n">
-        <v>51664679</v>
+        <v>54755051</v>
       </c>
       <c r="AQ80" s="15" t="n">
-        <v>54755051</v>
+        <v>56799738</v>
       </c>
       <c r="AR80" s="15" t="n">
-        <v>56799738</v>
+        <v>59831808</v>
       </c>
       <c r="AS80" s="15" t="n">
-        <v>59831808</v>
+        <v>59685817</v>
       </c>
       <c r="AT80" s="15" t="n">
-        <v>59685817</v>
+        <v>55934746</v>
       </c>
       <c r="AU80" s="15" t="n">
-        <v>55934746</v>
+        <v>69733817</v>
       </c>
       <c r="AV80" s="15" t="n">
-        <v>69733817</v>
+        <v>47117551</v>
       </c>
       <c r="AW80" s="15" t="n">
-        <v>47117551</v>
+        <v>57178654</v>
       </c>
       <c r="AX80" s="15" t="n">
-        <v>57178654</v>
+        <v>52136168</v>
       </c>
       <c r="AY80" s="15" t="n">
-        <v>52136168</v>
+        <v>70399896</v>
       </c>
       <c r="AZ80" s="15" t="n">
-        <v>70399896</v>
+        <v>56784801</v>
       </c>
       <c r="BA80" s="15" t="n">
-        <v>56784801</v>
+        <v>93548659</v>
       </c>
       <c r="BB80" s="15" t="n">
-        <v>94657039</v>
+        <v>100323038</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12193,154 +12193,154 @@
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16" t="n">
-        <v>341380</v>
+        <v>343706</v>
       </c>
       <c r="F81" s="16" t="n">
-        <v>343706</v>
+        <v>314175</v>
       </c>
       <c r="G81" s="16" t="n">
-        <v>314175</v>
+        <v>412381</v>
       </c>
       <c r="H81" s="16" t="n">
-        <v>412381</v>
+        <v>412086</v>
       </c>
       <c r="I81" s="16" t="n">
+        <v>415855</v>
+      </c>
+      <c r="J81" s="16" t="n">
+        <v>417005</v>
+      </c>
+      <c r="K81" s="16" t="n">
+        <v>500000</v>
+      </c>
+      <c r="L81" s="16" t="n">
+        <v>416667</v>
+      </c>
+      <c r="M81" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" s="16" t="n">
         <v>412086</v>
       </c>
-      <c r="J81" s="16" t="n">
-        <v>415855</v>
-      </c>
-      <c r="K81" s="16" t="n">
-        <v>417005</v>
-      </c>
-      <c r="L81" s="16" t="n">
-        <v>500000</v>
-      </c>
-      <c r="M81" s="16" t="n">
-        <v>416667</v>
-      </c>
-      <c r="N81" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="O81" s="16" t="n">
-        <v>412086</v>
+        <v>409850</v>
       </c>
       <c r="P81" s="16" t="n">
-        <v>409850</v>
+        <v>402419</v>
       </c>
       <c r="Q81" s="16" t="n">
-        <v>402419</v>
+        <v>400216</v>
       </c>
       <c r="R81" s="16" t="n">
-        <v>400216</v>
+        <v>399740</v>
       </c>
       <c r="S81" s="16" t="n">
-        <v>399740</v>
+        <v>431772</v>
       </c>
       <c r="T81" s="16" t="n">
-        <v>431772</v>
+        <v>485622</v>
       </c>
       <c r="U81" s="16" t="n">
-        <v>485622</v>
+        <v>124815</v>
       </c>
       <c r="V81" s="16" t="n">
-        <v>124815</v>
+        <v>497809</v>
       </c>
       <c r="W81" s="16" t="n">
-        <v>497809</v>
-      </c>
-      <c r="X81" s="16" t="n">
         <v>680000</v>
       </c>
+      <c r="X81" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="Y81" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z81" s="16" t="s">
-        <v>62</v>
+      <c r="Z81" s="16" t="n">
+        <v>746248</v>
       </c>
       <c r="AA81" s="16" t="n">
-        <v>746248</v>
+        <v>809961</v>
       </c>
       <c r="AB81" s="16" t="n">
-        <v>809961</v>
+        <v>929089</v>
       </c>
       <c r="AC81" s="16" t="n">
-        <v>929089</v>
+        <v>925556</v>
       </c>
       <c r="AD81" s="16" t="n">
-        <v>925556</v>
+        <v>1031682</v>
       </c>
       <c r="AE81" s="16" t="n">
-        <v>1031682</v>
+        <v>1025003</v>
       </c>
       <c r="AF81" s="16" t="n">
-        <v>1025003</v>
+        <v>1024356</v>
       </c>
       <c r="AG81" s="16" t="n">
-        <v>1024356</v>
+        <v>1032808</v>
       </c>
       <c r="AH81" s="16" t="n">
-        <v>1032808</v>
+        <v>1031649</v>
       </c>
       <c r="AI81" s="16" t="n">
-        <v>1031649</v>
+        <v>1026096</v>
       </c>
       <c r="AJ81" s="16" t="n">
-        <v>1026096</v>
+        <v>1036944</v>
       </c>
       <c r="AK81" s="16" t="n">
-        <v>1036944</v>
+        <v>1018575</v>
       </c>
       <c r="AL81" s="16" t="n">
-        <v>1018575</v>
+        <v>1063467</v>
       </c>
       <c r="AM81" s="16" t="n">
-        <v>1063467</v>
+        <v>1122024</v>
       </c>
       <c r="AN81" s="16" t="n">
-        <v>1122024</v>
+        <v>1170233</v>
       </c>
       <c r="AO81" s="16" t="n">
-        <v>1170233</v>
+        <v>1136135</v>
       </c>
       <c r="AP81" s="16" t="n">
-        <v>1136135</v>
+        <v>1460188</v>
       </c>
       <c r="AQ81" s="16" t="n">
-        <v>1460188</v>
+        <v>1249984</v>
       </c>
       <c r="AR81" s="16" t="n">
-        <v>1249984</v>
+        <v>1388365</v>
       </c>
       <c r="AS81" s="16" t="n">
-        <v>1388365</v>
+        <v>1388129</v>
       </c>
       <c r="AT81" s="16" t="n">
-        <v>1388129</v>
-      </c>
-      <c r="AU81" s="16" t="n">
         <v>1315731</v>
       </c>
+      <c r="AU81" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="AV81" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AW81" s="16" t="s">
-        <v>62</v>
+      <c r="AW81" s="16" t="n">
+        <v>1400000</v>
       </c>
       <c r="AX81" s="16" t="n">
-        <v>1400000</v>
-      </c>
-      <c r="AY81" s="16" t="n">
         <v>1309721</v>
       </c>
-      <c r="AZ81" s="16" t="s">
-        <v>62</v>
+      <c r="AY81" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ81" s="16" t="n">
+        <v>1438154</v>
       </c>
       <c r="BA81" s="16" t="n">
-        <v>1438154</v>
+        <v>1683865</v>
       </c>
       <c r="BB81" s="16" t="n">
-        <v>1652842</v>
+        <v>1790336</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12357,149 +12357,149 @@
       <c r="F82" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G82" s="15" t="s">
-        <v>62</v>
+      <c r="G82" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="H82" s="15" t="n">
-        <v>0</v>
+        <v>81000000</v>
       </c>
       <c r="I82" s="15" t="n">
-        <v>81000000</v>
+        <v>73800000</v>
       </c>
       <c r="J82" s="15" t="n">
-        <v>73800000</v>
+        <v>90750000</v>
       </c>
       <c r="K82" s="15" t="n">
-        <v>90750000</v>
-      </c>
-      <c r="L82" s="15" t="n">
         <v>27000000</v>
       </c>
-      <c r="M82" s="15" t="s">
-        <v>62</v>
+      <c r="L82" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M82" s="15" t="n">
+        <v>53666667</v>
       </c>
       <c r="N82" s="15" t="n">
-        <v>53666667</v>
+        <v>26642857</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>26642857</v>
+        <v>57558824</v>
       </c>
       <c r="P82" s="15" t="n">
-        <v>57558824</v>
+        <v>67000000</v>
       </c>
       <c r="Q82" s="15" t="n">
-        <v>67000000</v>
+        <v>45071429</v>
       </c>
       <c r="R82" s="15" t="n">
-        <v>45071429</v>
+        <v>53000000</v>
       </c>
       <c r="S82" s="15" t="n">
-        <v>53000000</v>
+        <v>57406250</v>
       </c>
       <c r="T82" s="15" t="n">
-        <v>57406250</v>
+        <v>39357143</v>
       </c>
       <c r="U82" s="15" t="n">
-        <v>39357143</v>
+        <v>52937500</v>
       </c>
       <c r="V82" s="15" t="n">
-        <v>52937500</v>
+        <v>71137931</v>
       </c>
       <c r="W82" s="15" t="n">
-        <v>71137931</v>
+        <v>64580000</v>
       </c>
       <c r="X82" s="15" t="n">
-        <v>64580000</v>
+        <v>83617647</v>
       </c>
       <c r="Y82" s="15" t="n">
-        <v>83617647</v>
+        <v>100537736</v>
       </c>
       <c r="Z82" s="15" t="n">
-        <v>100537736</v>
+        <v>101538462</v>
       </c>
       <c r="AA82" s="15" t="n">
-        <v>101538462</v>
+        <v>87953488</v>
       </c>
       <c r="AB82" s="15" t="n">
-        <v>87953488</v>
+        <v>91027778</v>
       </c>
       <c r="AC82" s="15" t="n">
-        <v>91027778</v>
+        <v>95384615</v>
       </c>
       <c r="AD82" s="15" t="n">
-        <v>95384615</v>
+        <v>122000000</v>
       </c>
       <c r="AE82" s="15" t="n">
-        <v>122000000</v>
+        <v>107655172</v>
       </c>
       <c r="AF82" s="15" t="n">
-        <v>107655172</v>
+        <v>114930233</v>
       </c>
       <c r="AG82" s="15" t="n">
-        <v>114930233</v>
+        <v>117200000</v>
       </c>
       <c r="AH82" s="15" t="n">
-        <v>117200000</v>
+        <v>111444444</v>
       </c>
       <c r="AI82" s="15" t="n">
-        <v>111444444</v>
+        <v>132205882</v>
       </c>
       <c r="AJ82" s="15" t="n">
-        <v>132205882</v>
+        <v>177916667</v>
       </c>
       <c r="AK82" s="15" t="n">
-        <v>177916667</v>
+        <v>130500000</v>
       </c>
       <c r="AL82" s="15" t="n">
-        <v>130500000</v>
+        <v>123681818</v>
       </c>
       <c r="AM82" s="15" t="n">
-        <v>123681818</v>
+        <v>120224490</v>
       </c>
       <c r="AN82" s="15" t="n">
-        <v>120224490</v>
+        <v>109568966</v>
       </c>
       <c r="AO82" s="15" t="n">
-        <v>109568966</v>
-      </c>
-      <c r="AP82" s="15" t="n">
         <v>108483146</v>
       </c>
-      <c r="AQ82" s="15" t="s">
-        <v>62</v>
+      <c r="AP82" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ82" s="15" t="n">
+        <v>150181818</v>
       </c>
       <c r="AR82" s="15" t="n">
-        <v>150181818</v>
+        <v>144543860</v>
       </c>
       <c r="AS82" s="15" t="n">
-        <v>144543860</v>
+        <v>162761194</v>
       </c>
       <c r="AT82" s="15" t="n">
-        <v>162761194</v>
+        <v>158815217</v>
       </c>
       <c r="AU82" s="15" t="n">
-        <v>158815217</v>
+        <v>140961039</v>
       </c>
       <c r="AV82" s="15" t="n">
-        <v>140961039</v>
+        <v>143729730</v>
       </c>
       <c r="AW82" s="15" t="n">
-        <v>143729730</v>
+        <v>131223077</v>
       </c>
       <c r="AX82" s="15" t="n">
-        <v>131223077</v>
+        <v>141417582</v>
       </c>
       <c r="AY82" s="15" t="n">
-        <v>141417582</v>
+        <v>152163636</v>
       </c>
       <c r="AZ82" s="15" t="n">
-        <v>152163636</v>
+        <v>177296296</v>
       </c>
       <c r="BA82" s="15" t="n">
-        <v>177296296</v>
+        <v>358058824</v>
       </c>
       <c r="BB82" s="15" t="n">
-        <v>358058824</v>
+        <v>207733333</v>
       </c>
     </row>
   </sheetData>
